--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,24 @@
   </si>
   <si>
     <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pennsylvania 宾夕法尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
+  </si>
+  <si>
+    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
+  </si>
+  <si>
+    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,378 +443,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -982,6 +629,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -989,28 +727,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1390,17 +1107,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="40" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="83" priority="8">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1410,7 +1127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1588,7 +1305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A8:G1048576">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1598,7 +1315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="35" priority="21">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1608,7 +1325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1618,7 +1335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1628,7 +1345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="58" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1638,7 +1355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1648,7 +1365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1658,7 +1375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1668,7 +1385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1688,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1699,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2034,106 +1751,133 @@
         <v>88</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42353</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
+    <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A19:F1048576 A16:C16 E16:F16 A18:C18 E18:F18 A1:G8 A10:G10 G13:G16 G18:G1048576">
-    <cfRule type="expression" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A19:F1048576 A16:C16 E16:F16 A18:C18 E18:F18 A1:G8 A10:G10 G13:G16 G18:G1048576">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A20:F1048576 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G1048576 A18:C19 E18:F19">
+    <cfRule type="expression" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A20:F1048576 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G1048576 A18:C19 E18:F19">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="79" priority="17">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="21" priority="13">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="78" priority="9">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="71" priority="7">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="13" priority="5">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="63" priority="3">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="16" priority="3">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="43" priority="1">
-      <formula>MOD(ROW($A18),2)</formula>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2347,111 +2091,146 @@
         <v>88</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A12:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A13:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A13:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A12:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="7" priority="21">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="76" priority="17">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="75" priority="13">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="5" priority="11">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="68" priority="9">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="61" priority="5">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="40" priority="1">
-      <formula>MOD(ROW($A11),2)</formula>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,55 @@
   </si>
   <si>
     <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University 德州农工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL 100.需要sub，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
+  </si>
+  <si>
+    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC San Diego  加州大学圣地亚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
+  </si>
+  <si>
+    <t>这是一个joint program联合培养。详细的我正在邮件问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug 1（已过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-biochemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +492,63 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1107,17 +1212,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="40" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="47" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1127,7 +1232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1305,7 +1410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A8:G1048576">
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1315,7 +1420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1325,7 +1430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="42" priority="19">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1335,7 +1440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1345,7 +1450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1355,7 +1460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1365,7 +1470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1375,7 +1480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1385,7 +1490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1395,7 +1500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1405,7 +1510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1416,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1717,7 +1822,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1734,7 +1839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1751,7 +1856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1766,118 +1871,189 @@
       </c>
       <c r="F19" s="3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42353</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42019</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW($A1048575),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:G1048576">
+    <cfRule type="expression" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:G1048576">
+    <cfRule type="expression" dxfId="33" priority="24">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="32" priority="23">
+      <formula>MOD(ROW($A1)+1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
     <cfRule type="expression" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW($A1048575),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A20:F1048576 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G1048576 A18:C19 E18:F19">
-    <cfRule type="expression" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A20:F1048576 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G1048576 A18:C19 E18:F19">
-    <cfRule type="expression" dxfId="25" priority="20">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="24" priority="19">
-      <formula>MOD(ROW($A1)+1,2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="31" priority="21">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="30" priority="19">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="29" priority="17">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="22" priority="15">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="21" priority="13">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="26" priority="11">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="25" priority="9">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="18" priority="7">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="17" priority="5">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>MOD(ROW($A19),2)</formula>
+  <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1887,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2106,131 +2282,205 @@
         <v>100</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42353</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42353</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A13:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A15:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A15:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A13:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="15" priority="25">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A12),2)</formula>
+      <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,30 @@
   </si>
   <si>
     <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johns Hopkins 约翰霍普金斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.jhu.edu/Graduate/prospective.html</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/phd-requirements/</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/graduate-admissions/</t>
+  </si>
+  <si>
+    <t>官网最下面点开frequently asked questions：托福100，gpa和gre不公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cbi.jhu.edu/admissions.html</t>
+  </si>
+  <si>
+    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +516,35 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1212,17 +1264,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1232,7 +1284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1243,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,121 +1449,158 @@
         <v>88</v>
       </c>
     </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42019</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A8:G1048576">
-    <cfRule type="expression" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A8:G1048576">
-    <cfRule type="expression" dxfId="44" priority="28">
+  <conditionalFormatting sqref="A1:G1 A9:G1048576">
+    <cfRule type="expression" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 A9:G1048576">
+    <cfRule type="expression" dxfId="48" priority="32">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="47" priority="25">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="46" priority="23">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="45" priority="21">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="42" priority="19">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="44" priority="19">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="41" priority="17">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="43" priority="17">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="40" priority="15">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="42" priority="15">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="39" priority="13">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="41" priority="13">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="11">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="40" priority="11">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="37" priority="9">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="36" priority="7">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="39" priority="9">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="35" priority="5">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="34" priority="1">
-      <formula>MOD(ROW($A7),2)</formula>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1924,136 +2013,160 @@
         <v>113</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42019</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="26" stopIfTrue="1">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:G1048576">
-    <cfRule type="expression" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:G1048576">
-    <cfRule type="expression" dxfId="33" priority="24">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A24:G1048576 A23:C23 E23:G23">
+    <cfRule type="expression" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A24:G1048576 A23:C23 E23:G23">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="36" priority="25">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="35" priority="23">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="31" priority="21">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="34" priority="21">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="30" priority="19">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="33" priority="19">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="29" priority="17">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="32" priority="17">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="28" priority="15">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="27" priority="13">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="26" priority="11">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="25" priority="9">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="26" priority="5">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A22),2)</formula>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2316,171 +2429,211 @@
         <v>108</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42009</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A15:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A16:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A16:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" dxfId="24" priority="37">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A15:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="22" priority="33">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="22" priority="31">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" dxfId="21" priority="29">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" dxfId="20" priority="27">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="19" priority="25">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="18" priority="23">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="14" priority="13">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="12" priority="9">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A14),2)</formula>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,47 @@
   </si>
   <si>
     <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minnesota Twin Cities 明尼苏达双城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：159(v),167(q),4.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cems.umn.edu/graduate/admissions#req</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016000.shtml#gre   化工专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cbs.umn.edu/academics/departments/bmbb/graduate-program/admissions</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1013500.shtml#gre   生化往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),159(q),4.1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +557,56 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -773,6 +863,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1264,17 +1368,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="61" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="60" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1284,7 +1388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1295,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,141 +1570,184 @@
         <v>120</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42339</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="34" stopIfTrue="1">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A9:G1048576">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A9:G1048576">
-    <cfRule type="expression" dxfId="48" priority="32">
+  <conditionalFormatting sqref="A1:G1 A10:G1048576">
+    <cfRule type="expression" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 A10:G1048576">
+    <cfRule type="expression" dxfId="57" priority="38">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="56" priority="31">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="55" priority="29">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="54" priority="27">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="47" priority="25">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="53" priority="25">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="46" priority="23">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="52" priority="23">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="45" priority="21">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="51" priority="21">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="44" priority="19">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="50" priority="19">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="43" priority="17">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="49" priority="17">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="42" priority="15">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="41" priority="13">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="48" priority="15">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="40" priority="11">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="47" priority="11">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="39" priority="9">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="46" priority="9">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="45" priority="7">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="38" priority="5">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A8),2)</formula>
+      <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,146 +2174,176 @@
         <v>42019</v>
       </c>
     </row>
+    <row r="24" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42009</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="28" stopIfTrue="1">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A24:G1048576 A23:C23 E23:G23">
-    <cfRule type="expression" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A24:G1048576 A23:C23 E23:G23">
-    <cfRule type="expression" dxfId="37" priority="26">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24">
+    <cfRule type="expression" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="42" priority="25">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="35" priority="23">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="41" priority="23">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="34" priority="21">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="33" priority="19">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="32" priority="17">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="38" priority="17">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="31" priority="15">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="37" priority="15">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="30" priority="13">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="29" priority="11">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="35" priority="11">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="28" priority="9">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="34" priority="9">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="27" priority="7">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="33" priority="7">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="26" priority="5">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="32" priority="5">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="31" priority="3">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>MOD(ROW($A23),2)</formula>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2449,191 +2626,231 @@
         <v>118</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42005</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A16:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A16:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="24" priority="37">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="23" priority="33">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="22" priority="31">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="19" priority="25">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW($A15),2)</formula>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -112,62 +112,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.tgs.northwestern.edu/admission/application-requirements/test-scores.html</t>
+  </si>
+  <si>
+    <t>Dec 15.详见MIT附件第六页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradadmissions.stanford.edu/programs/chemical-engineering</t>
+  </si>
+  <si>
+    <t>Dec 1.详见MIT附件第六页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE sub必须  chem.admissions@stanford.edu 邮件询问中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件询问中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisconsin Madison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.engr.wisc.edu/cbe/cbe-information-for-future-graduates.html</t>
+  </si>
+  <si>
+    <t>gpa要求3，往年基本都是3.5。Gre往年Verbal - 158, Quantitative - 166, Analytical – 4.0，sub不需要。TOEFL最低92，往年平均106。三封推荐信。网站说的非常清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.wisc.edu/content/typical-qualifications-graduate-program-admission</t>
+  </si>
+  <si>
+    <t>gpa要求3，往年基本都是3.5。Gre：Verbal: 40%; Quantitative: 70%; Writing Assessment Score of 3.0，sub不需要。TOEFL最低105。三封推荐信。网站说的非常清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell 香奈尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.cornell.edu/academics/fields-of-study/subject/chemistry-and-chemical-biology/chemistry-and-chemical-biology-phd-ithaca</t>
+  </si>
+  <si>
+    <t>托福写作20，听力15，阅读20，口语22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件询问中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tgs.northwestern.edu/admission/application-requirements/test-scores.html</t>
-  </si>
-  <si>
-    <t>Dec 15.详见MIT附件第六页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gradadmissions.stanford.edu/programs/chemical-engineering</t>
-  </si>
-  <si>
-    <t>Dec 1.详见MIT附件第六页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE sub必须  chem.admissions@stanford.edu 邮件询问中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件询问中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wisconsin Madison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.engr.wisc.edu/cbe/cbe-information-for-future-graduates.html</t>
-  </si>
-  <si>
-    <t>gpa要求3，往年基本都是3.5。Gre往年Verbal - 158, Quantitative - 166, Analytical – 4.0，sub不需要。TOEFL最低92，往年平均106。三封推荐信。网站说的非常清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.wisc.edu/content/typical-qualifications-graduate-program-admission</t>
-  </si>
-  <si>
-    <t>gpa要求3，往年基本都是3.5。Gre：Verbal: 40%; Quantitative: 70%; Writing Assessment Score of 3.0，sub不需要。TOEFL最低105。三封推荐信。网站说的非常清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cornell 香奈尔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.cornell.edu/academics/fields-of-study/subject/chemistry-and-chemical-biology/chemistry-and-chemical-biology-phd-ithaca</t>
-  </si>
-  <si>
-    <t>托福写作20，听力15，阅读20，口语22</t>
+    <t>http://gradschool.cornell.edu/academics/fields-of-study/subject/chemical-engineering/chemical-engineering-phd-ithaca</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gsas.columbia.edu/content/academic-programs/chemical-engineering</t>
+  </si>
+  <si>
+    <t>http://gsas.columbia.edu/content/academic-programs/chemistry</t>
+  </si>
+  <si>
+    <t>托福100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas - Austin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.utexas.edu/ogs/admissions/programs.html</t>
+  </si>
+  <si>
+    <t>Yale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gsas.yale.edu/admissions/required-examinations</t>
+  </si>
+  <si>
+    <t>http://gsas.yale.edu/admissions/required-examinations 专业主页上没有招生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://seas.yale.edu/departments/chemical-and-environmental-engineering/graduate-study  专业主页上没有招生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://seas.yale.edu/departments/chemical-and-environmental-engineering/graduate-study-environmental-engineering  专业主页上没有招生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chemistry.uchicago.edu/page/application-information.html</t>
+  </si>
+  <si>
+    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬性要求：gpa 3.0，托福105，其中口语24，从邮件（详见附件）来看伊利诺伊的化学院的要求是很高的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://icmb.utexas.edu/biochemistry/prospective-students/admission-requirements</t>
+  </si>
+  <si>
+    <t>http://www.utexas.edu/ogs/prospective/stats/</t>
+  </si>
+  <si>
+    <t>2014往届平均：GRE 321。Gpa 3.52，托福104，2012年数据：GRE 155+155+3.7，gpa 3.38，2012年数据详见附件22页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012届平均：GRE 156+160+3.8，gpa 3.54，详见附件22页，附件是官网下载的。邮件中说：不看GRE sub，托福81就行，gpa 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100。Recruitor邮件：我们不能透露往年的成绩信息，入学的学生的成绩相比而言相差也比较多，每年接收一些北大的学生。邮件值得玩味，似乎暗示着入学者成绩参差不齐，邮件原文见附件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北卡教堂山分校 North Carolina at Chapel Hill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.sites.unc.edu/chemistry/</t>
+  </si>
+  <si>
+    <t>3封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.unc.edu/admissions/instructions.html</t>
+  </si>
+  <si>
+    <t>http://gradschool.sites.unc.edu/biological-and-biomedical-sciences/</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.princeton.edu/academics/fields-study/chemistry</t>
+  </si>
+  <si>
+    <t>http://gradschool.princeton.edu/academics/fields-study/chemical-and-biological-engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michigan - Ann Arbor 密西根安娜堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemistry/</t>
+  </si>
+  <si>
+    <t>gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_biology/</t>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry/</t>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry_pibs/</t>
+  </si>
+  <si>
+    <t>这是一个一年的master项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0，三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chembio.umich.edu/apply/</t>
+  </si>
+  <si>
+    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA 加州洛杉矶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0117&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是chemical biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological chemistry (program in biomedical sciences)PIBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pennsylvania 宾夕法尼亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,249 +362,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://gradschool.cornell.edu/academics/fields-of-study/subject/chemical-engineering/chemical-engineering-phd-ithaca</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gsas.columbia.edu/content/academic-programs/chemical-engineering</t>
-  </si>
-  <si>
-    <t>http://gsas.columbia.edu/content/academic-programs/chemistry</t>
-  </si>
-  <si>
-    <t>托福100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas - Austin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/ogs/admissions/programs.html</t>
-  </si>
-  <si>
-    <t>Yale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environmental Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gsas.yale.edu/admissions/required-examinations</t>
-  </si>
-  <si>
-    <t>http://gsas.yale.edu/admissions/required-examinations 专业主页上没有招生信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://seas.yale.edu/departments/chemical-and-environmental-engineering/graduate-study  专业主页上没有招生信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://seas.yale.edu/departments/chemical-and-environmental-engineering/graduate-study-environmental-engineering  专业主页上没有招生信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Chicago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://chemistry.uchicago.edu/page/application-information.html</t>
-  </si>
-  <si>
-    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬性要求：gpa 3.0，托福105，其中口语24，从邮件（详见附件）来看伊利诺伊的化学院的要求是很高的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://icmb.utexas.edu/biochemistry/prospective-students/admission-requirements</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/ogs/prospective/stats/</t>
-  </si>
-  <si>
-    <t>2014往届平均：GRE 321。Gpa 3.52，托福104，2012年数据：GRE 155+155+3.7，gpa 3.38，2012年数据详见附件22页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012届平均：GRE 156+160+3.8，gpa 3.54，详见附件22页，附件是官网下载的。邮件中说：不看GRE sub，托福81就行，gpa 3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福100。Recruitor邮件：我们不能透露往年的成绩信息，入学的学生的成绩相比而言相差也比较多，每年接收一些北大的学生。邮件值得玩味，似乎暗示着入学者成绩参差不齐，邮件原文见附件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北卡教堂山分校 North Carolina at Chapel Hill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.sites.unc.edu/chemistry/</t>
-  </si>
-  <si>
-    <t>3封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.unc.edu/admissions/instructions.html</t>
-  </si>
-  <si>
-    <t>http://gradschool.sites.unc.edu/biological-and-biomedical-sciences/</t>
-  </si>
-  <si>
-    <t>三封推荐信。网站说的很清楚。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Princeton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.princeton.edu/academics/fields-study/chemistry</t>
-  </si>
-  <si>
-    <t>http://gradschool.princeton.edu/academics/fields-study/chemical-and-biological-engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michigan - Ann Arbor 密西根安娜堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemistry/</t>
-  </si>
-  <si>
-    <t>gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_biology/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry_pibs/</t>
-  </si>
-  <si>
-    <t>这是一个一年的master项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa 3.0，三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chembio.umich.edu/apply/</t>
-  </si>
-  <si>
-    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLA 加州洛杉矶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0117&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是chemical biology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biological chemistry (program in biomedical sciences)PIBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Pennsylvania 宾夕法尼亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
+  </si>
+  <si>
+    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
+  </si>
+  <si>
+    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University 德州农工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL 100.需要sub，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
+  </si>
+  <si>
+    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC San Diego  加州大学圣地亚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
   </si>
   <si>
     <t>三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
-  </si>
-  <si>
-    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
-  </si>
-  <si>
-    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University 德州农工大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOEFL 100.需要sub，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
-  </si>
-  <si>
-    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC San Diego  加州大学圣地亚哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
-  </si>
-  <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
   </si>
   <si>
@@ -499,6 +483,22 @@
   </si>
   <si>
     <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pennsylvania State University - University Park 宾州州立大学，大学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，上一届平均gpa 3.7，GRE 78%(v),83%(q),65%(writing),GRE chemistry sub 740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。网站说的很清楚。邮件中透露的：首先是每年只收8名国际学生，竞争非常激烈，几乎必须有至少一篇论文刊登过，往届托福100，GRE总分&gt;75%，gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,77 +557,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -863,6 +793,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1317,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1332,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -1340,19 +1284,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>42006</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1368,17 +1312,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="61" priority="9">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1388,7 +1332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1401,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1435,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -1443,37 +1387,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <v>42339</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2">
         <v>42339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1481,22 +1425,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="2">
         <v>42353</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1504,19 +1448,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
         <v>42339</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1524,16 +1468,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
         <v>42115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1541,16 +1485,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="2">
         <v>42339</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1558,16 +1502,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2">
         <v>42019</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -1575,22 +1519,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2">
         <v>42339</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A10:G1048576">
-    <cfRule type="expression" dxfId="57" priority="38">
+    <cfRule type="expression" dxfId="49" priority="38">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1616,7 +1560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="56" priority="31">
+    <cfRule type="expression" dxfId="48" priority="31">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1626,7 +1570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="55" priority="29">
+    <cfRule type="expression" dxfId="47" priority="29">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1636,7 +1580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="54" priority="27">
+    <cfRule type="expression" dxfId="46" priority="27">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1646,7 +1590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="53" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1656,7 +1600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="52" priority="23">
+    <cfRule type="expression" dxfId="44" priority="23">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1666,7 +1610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1676,7 +1620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="50" priority="19">
+    <cfRule type="expression" dxfId="42" priority="19">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1686,7 +1630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="49" priority="17">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1696,7 +1640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="48" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1706,7 +1650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="47" priority="11">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1716,7 +1660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="38" priority="9">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1726,7 +1670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,7 +1680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1746,7 +1690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1757,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1825,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -1885,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -1902,10 +1846,10 @@
         <v>42353</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1913,13 +1857,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42353</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -1927,16 +1871,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>42353</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -1944,16 +1888,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>42348</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -1961,16 +1905,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>42353</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -1978,19 +1922,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
         <v>42339</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1998,10 +1942,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <v>42353</v>
@@ -2012,16 +1956,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2029,19 +1973,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>42353</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2049,10 +1993,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2">
         <v>42339</v>
@@ -2063,16 +2007,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>42353</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2080,16 +2024,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>42353</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2097,16 +2041,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2">
         <v>42353</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2114,16 +2058,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2">
         <v>42353</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2131,16 +2075,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2148,16 +2092,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2">
         <v>42019</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2165,10 +2109,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2">
         <v>42019</v>
@@ -2179,171 +2123,184 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2">
         <v>42009</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
+    <cfRule type="expression" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW($A1048575),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24 A1:G8">
     <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW($A1048575),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24">
-    <cfRule type="expression" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A1:G8 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24">
-    <cfRule type="expression" dxfId="44" priority="28">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24 A1:G8">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" priority="26" stopIfTrue="1">
+    <cfRule type="expression" priority="27" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="42" priority="25">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" priority="24" stopIfTrue="1">
+    <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" priority="22" stopIfTrue="1">
+    <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
+    <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" priority="18" stopIfTrue="1">
+    <cfRule type="expression" priority="19" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" priority="16" stopIfTrue="1">
+    <cfRule type="expression" priority="17" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
+    <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" priority="12" stopIfTrue="1">
+    <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
+    <cfRule type="expression" priority="11" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
+    <cfRule type="expression" priority="9" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
+    <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
+    <cfRule type="expression" priority="5" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" priority="2" stopIfTrue="1">
+    <cfRule type="expression" priority="3" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW($A6),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2355,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2390,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2404,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -2424,13 +2381,13 @@
         <v>42353</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -2438,13 +2395,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>42369</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2452,16 +2409,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>42368</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2469,16 +2426,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>42007</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2486,13 +2443,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2500,16 +2457,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2">
         <v>42006</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2517,10 +2474,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2">
         <v>42353</v>
@@ -2531,10 +2488,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2">
         <v>42353</v>
@@ -2545,16 +2502,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>42384</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2562,14 +2519,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -2577,16 +2534,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>42353</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2594,16 +2551,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2611,19 +2568,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2">
         <v>42009</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2631,19 +2588,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2">
         <v>42005</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="19" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2679,7 +2636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2689,7 +2646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2699,7 +2656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2709,7 +2666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2719,7 +2676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,7 +2686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2739,7 +2696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2749,7 +2706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2759,7 +2716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2769,7 +2726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2779,7 +2736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2789,7 +2746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2799,7 +2756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2809,7 +2766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2819,7 +2776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2829,7 +2786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2839,7 +2796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2849,7 +2806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRE sub必须  chem.admissions@stanford.edu 邮件询问中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邮件询问中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOEFL 100.需要sub，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +444,6 @@
     <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
   </si>
   <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,6 +487,32 @@
   </si>
   <si>
     <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。邮件中说：他们很看重北大毕业的学生，托福口语必须23，gpa 3.5左右就行，以及不错的GRE分数（sub也要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。TOEFL 100.需要sub，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
+  </si>
+  <si>
+    <t>2015/12/1  （邮件中说他们今年不再招生了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE sub必须，托福至少100.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.ucla.edu/how-apply#international</t>
+  </si>
+  <si>
+    <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,14 +571,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1261,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1276,7 +1283,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -1284,19 +1291,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>42006</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1312,17 +1319,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="53" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1332,7 +1339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1346,7 +1353,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -1387,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>42339</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1405,19 +1412,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>42339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1425,22 +1432,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2">
         <v>42353</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1448,19 +1455,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2">
         <v>42339</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1468,16 +1475,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>42115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1485,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2">
-        <v>42339</v>
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1502,16 +1509,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2">
         <v>42019</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -1519,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2">
         <v>42339</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A10:G1048576">
-    <cfRule type="expression" dxfId="49" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1560,7 +1567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="48" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1570,7 +1577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="47" priority="29">
+    <cfRule type="expression" dxfId="46" priority="29">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1580,7 +1587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1590,7 +1597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="44" priority="25">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1600,7 +1607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1610,7 +1617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="42" priority="21">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1620,7 +1627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1630,7 +1637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="41" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1640,7 +1647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="40" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1650,7 +1657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1660,7 +1667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="38" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1670,7 +1677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1680,7 +1687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1690,7 +1697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1703,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1738,7 +1745,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1812,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -1846,7 +1853,7 @@
         <v>42353</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -1863,7 +1870,7 @@
         <v>42353</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -1871,16 +1878,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>42353</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -1888,16 +1895,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>42348</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -1905,16 +1912,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>42353</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -1922,19 +1929,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2">
         <v>42339</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1942,10 +1949,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
         <v>42353</v>
@@ -1956,16 +1963,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="2">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -1973,19 +1980,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>42353</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1993,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="2">
         <v>42339</v>
@@ -2007,16 +2014,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>42353</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2024,16 +2031,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="2">
-        <v>42353</v>
+        <v>42339</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2041,16 +2051,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2">
         <v>42353</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2058,16 +2068,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
       </c>
       <c r="D20" s="2">
         <v>42353</v>
       </c>
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2075,16 +2088,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2092,16 +2105,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2">
         <v>42019</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2109,33 +2122,33 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2">
         <v>42019</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2">
         <v>42009</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2143,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2159,12 +2172,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24 A1:G8">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2174,7 +2187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2184,7 +2197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2194,7 +2207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="29" priority="22">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2204,7 +2217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2214,7 +2227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2224,7 +2237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2234,7 +2247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2244,7 +2257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2254,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2264,7 +2277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2274,7 +2287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2284,7 +2297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2294,7 +2307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2312,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2360,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2384,7 +2397,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -2401,7 +2414,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2409,16 +2422,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>42368</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2426,16 +2439,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>42007</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2443,13 +2456,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2457,16 +2470,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
         <v>42006</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2474,10 +2487,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
         <v>42353</v>
@@ -2488,10 +2501,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2">
         <v>42353</v>
@@ -2502,16 +2515,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
         <v>42384</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2519,14 +2532,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -2534,16 +2547,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2">
         <v>42353</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2551,16 +2564,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2568,19 +2581,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2">
         <v>42009</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2588,19 +2601,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2">
         <v>42005</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="19" priority="43">
+    <cfRule type="expression" dxfId="18" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2636,7 +2649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="18" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2646,7 +2659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2656,7 +2669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="16" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2666,7 +2679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="15" priority="33">
+    <cfRule type="expression" dxfId="14" priority="33">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2676,7 +2689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="14" priority="31">
+    <cfRule type="expression" dxfId="13" priority="31">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2686,7 +2699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2696,7 +2709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2706,7 +2719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2716,7 +2729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2726,7 +2739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2736,7 +2749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2746,7 +2759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2756,7 +2769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2766,7 +2779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2776,7 +2789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2786,7 +2799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2796,7 +2809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2806,7 +2819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,26 @@
   </si>
   <si>
     <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>askgrad@chem.psu.edu</t>
+  </si>
+  <si>
+    <t>托福总分100，口语23.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>http://www.che.psu.edu/grad/prospective/apply/index.htm?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>ChemEng@psu.edu</t>
+  </si>
+  <si>
+    <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -567,11 +587,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -933,6 +987,27 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1246,7 +1321,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,7 +1329,7 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="35.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="19.75" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -1273,7 +1348,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1299,7 +1374,7 @@
       <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>42006</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1319,17 +1394,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1339,7 +1414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1353,7 +1428,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +1436,7 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="7" width="19.75" customWidth="1"/>
   </cols>
@@ -1376,7 +1451,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1399,7 +1474,7 @@
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>42339</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1417,7 +1492,7 @@
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>42339</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1437,7 +1512,7 @@
       <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>42353</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1460,7 +1535,7 @@
       <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>42339</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1480,7 +1555,7 @@
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>42115</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1497,7 +1572,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1514,7 +1589,7 @@
       <c r="C8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>42019</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1531,7 +1606,7 @@
       <c r="C9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>42339</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1557,7 +1632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A10:G1048576">
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1567,7 +1642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="47" priority="31">
+    <cfRule type="expression" dxfId="51" priority="31">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1577,7 +1652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="46" priority="29">
+    <cfRule type="expression" dxfId="50" priority="29">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1587,7 +1662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1597,7 +1672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="44" priority="25">
+    <cfRule type="expression" dxfId="48" priority="25">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1607,7 +1682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1617,7 +1692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="42" priority="21">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1627,7 +1702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1637,7 +1712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1647,7 +1722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="43" priority="15">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1657,7 +1732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="38" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,7 +1742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="41" priority="9">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1677,7 +1752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1687,7 +1762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1697,7 +1772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1710,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1719,7 +1794,7 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="19.75" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
@@ -1735,7 +1810,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1758,7 +1833,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>42353</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1775,7 +1850,7 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1792,7 +1867,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>42339</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1809,7 +1884,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>42339</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1829,7 +1904,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>42346</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1849,7 +1924,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>42353</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1866,7 +1941,7 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>42353</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1883,7 +1958,7 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>42353</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1900,7 +1975,7 @@
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>42348</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1917,7 +1992,7 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>42353</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1934,7 +2009,7 @@
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>42339</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1954,7 +2029,7 @@
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>42353</v>
       </c>
     </row>
@@ -1968,7 +2043,7 @@
       <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1985,7 +2060,7 @@
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>42353</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2005,7 +2080,7 @@
       <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>42339</v>
       </c>
     </row>
@@ -2019,7 +2094,7 @@
       <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>42353</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2036,7 +2111,7 @@
       <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>42339</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2056,14 +2131,14 @@
       <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>42353</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2073,7 +2148,7 @@
       <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>42353</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2093,7 +2168,7 @@
       <c r="C21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -2110,7 +2185,7 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>42019</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2127,7 +2202,7 @@
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>42019</v>
       </c>
     </row>
@@ -2141,7 +2216,7 @@
       <c r="C24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>42009</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2158,162 +2233,184 @@
       <c r="B25" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="5">
+        <v>42349</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="31" stopIfTrue="1">
+    <cfRule type="expression" priority="33" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24 A1:G8">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A25:G1048576 A23:C24 E23:G24 A1:G8">
-    <cfRule type="expression" dxfId="33" priority="29">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A26:G1048576 A25:B25 D25:G25">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A26:G1048576 A25:B25 D25:G25">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="35" priority="28">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="27" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="31" priority="26">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="34" priority="26">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="30" priority="24">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="33" priority="24">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="29" priority="22">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="32" priority="22">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="31" priority="20">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="19" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="27" priority="18">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="30" priority="18">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="17" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="26" priority="16">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="28" priority="14">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="24" priority="12">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="27" priority="12">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" priority="11" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="23" priority="10">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" priority="9" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="22" priority="8">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="25" priority="8">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="21" priority="6">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" priority="5" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>MOD(ROW($A6),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2323,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2334,7 +2431,7 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="19.75" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
@@ -2350,7 +2447,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2373,7 +2470,7 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2390,7 +2487,7 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>42353</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2410,7 +2507,7 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>42369</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2427,7 +2524,7 @@
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>42368</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2444,7 +2541,7 @@
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>42007</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -2475,7 +2572,7 @@
       <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>42006</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2492,7 +2589,7 @@
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>42353</v>
       </c>
     </row>
@@ -2506,7 +2603,7 @@
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>42353</v>
       </c>
     </row>
@@ -2520,7 +2617,7 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>42384</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2537,7 +2634,7 @@
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>95</v>
       </c>
@@ -2552,7 +2649,7 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>42353</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2569,7 +2666,7 @@
       <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2586,7 +2683,7 @@
       <c r="C15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>42009</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2606,7 +2703,7 @@
       <c r="C16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>42005</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2616,211 +2713,241 @@
         <v>118</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42012</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A17:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" dxfId="18" priority="43">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A18:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A18:G1048576">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="47" stopIfTrue="1">
+    <cfRule type="expression" priority="49" stopIfTrue="1">
       <formula>MOD(ROW($A1048574),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="48" stopIfTrue="1">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(#REF!),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="55" stopIfTrue="1">
+    <cfRule type="expression" priority="57" stopIfTrue="1">
       <formula>MOD(ROW($A1048572),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="20" priority="41">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="17" priority="39">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="19" priority="39">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="16" priority="37">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="18" priority="37">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="15" priority="35">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="17" priority="35">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="14" priority="33">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="16" priority="33">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="13" priority="31">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="12" priority="27">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="14" priority="27">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="11" priority="25">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="10" priority="23">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="12" priority="23">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="9" priority="21">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="8" priority="19">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="10" priority="19">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="5" priority="13">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="3" priority="9">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW($A16),2)</formula>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,33 @@
   <si>
     <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue University, West Lafayette 普渡 - 西拉法叶（即主校区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/chem.html</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.不要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/che.html</t>
+  </si>
+  <si>
+    <t>chegrad@ecn.purdue.edu</t>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/bchm.html</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biochemistry-admissions@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -597,7 +624,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -854,6 +923,13 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1394,17 +1470,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="55" priority="8">
+    <cfRule type="expression" dxfId="62" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1414,7 +1490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1425,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,161 +1695,211 @@
         <v>124</v>
       </c>
     </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="5">
+        <v>42339</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A10:G1048576">
-    <cfRule type="expression" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A10:G1048576">
-    <cfRule type="expression" dxfId="52" priority="38">
+  <conditionalFormatting sqref="A1:G1 A11:G1048576">
+    <cfRule type="expression" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 A11:G1048576">
+    <cfRule type="expression" dxfId="59" priority="44">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="58" priority="37">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="57" priority="35">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="56" priority="33">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="51" priority="31">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="55" priority="31">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="50" priority="29">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="54" priority="29">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="49" priority="27">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="53" priority="27">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="48" priority="25">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="52" priority="25">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="51" priority="23">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="21">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="45" priority="19">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="50" priority="21">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="44" priority="17">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="49" priority="17">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="43" priority="15">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="48" priority="15">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="47" priority="13">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="42" priority="11">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="41" priority="9">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="46" priority="11">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="45" priority="7">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="39" priority="5">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="44" priority="5">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="38" priority="1">
-      <formula>MOD(ROW($A9),2)</formula>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D1:D1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2246,171 +2372,198 @@
         <v>137</v>
       </c>
     </row>
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="5">
+        <v>42005</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
+    <cfRule type="expression" priority="35" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A26:G1048576 A25:B25 D25:G25">
-    <cfRule type="expression" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A26:G1048576 A25:B25 D25:G25">
-    <cfRule type="expression" dxfId="37" priority="31">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G1048576 D25:G25 A25:B26 G26">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G1048576 D25:G25 A25:B26 G26">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="41" priority="30">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="29" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="35" priority="28">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="40" priority="28">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="27" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="34" priority="26">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="39" priority="26">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="33" priority="24">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="38" priority="24">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="32" priority="22">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="37" priority="22">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 E17:G17">
     <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="31" priority="20">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
+    <cfRule type="expression" dxfId="36" priority="20">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="19" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="30" priority="18">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" priority="17" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="29" priority="16">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="34" priority="16">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="28" priority="14">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="33" priority="14">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="27" priority="12">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="32" priority="12">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" priority="11" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="26" priority="10">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="31" priority="10">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" priority="9" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="25" priority="8">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="30" priority="8">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="29" priority="6">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
       <formula>MOD(ROW($A6),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F26">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="22" priority="1">
-      <formula>MOD(ROW($A25),2)</formula>
+  <conditionalFormatting sqref="C26:F26">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2420,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2733,221 +2886,261 @@
         <v>141</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="5">
+        <v>42353</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A18:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A19:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A19:G1048576">
+    <cfRule type="expression" dxfId="26" priority="49">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A18:G1048576">
-    <cfRule type="expression" dxfId="21" priority="45">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="25" priority="45">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="24" priority="43">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="20" priority="41">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="23" priority="41">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="19" priority="39">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="22" priority="39">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="18" priority="37">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="17" priority="35">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="16" priority="33">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="20" priority="33">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="19" priority="31">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="15" priority="29">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="18" priority="29">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="14" priority="27">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="13" priority="25">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="16" priority="25">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="12" priority="23">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="11" priority="21">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="10" priority="19">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="8" priority="15">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A17),2)</formula>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="164">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,56 @@
   </si>
   <si>
     <t>biochemistry-admissions@purdue.edu</t>
+  </si>
+  <si>
+    <t>UCSF University of California, San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校性要求：gpa 3.0，一个人只能申请一个项目，托福80.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>julia.molla@ucsf.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://graduate.ucsf.edu/program-administrators  几乎什么信息都没有，似乎他们这儿都没有化学系。。正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福92，口语26。GRE sub不需要。往届平均gpa 3.7，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradprogram@chem.washington.edu</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=202</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=201</t>
+  </si>
+  <si>
+    <t>grad.admissions@cheme.washington.edu</t>
+  </si>
+  <si>
+    <t>要求本科学位是Chemical Engineering，否则要联系院系申请。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=13</t>
+  </si>
+  <si>
+    <t>biochem@uw.edu</t>
+  </si>
+  <si>
+    <t>gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,7 +674,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1062,28 +1133,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1470,17 +1534,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="62" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1490,7 +1554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1501,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1715,191 +1779,231 @@
         <v>148</v>
       </c>
     </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5">
+        <v>42339</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A11:G1048576">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A11:G1048576">
-    <cfRule type="expression" dxfId="59" priority="44">
+  <conditionalFormatting sqref="A1:G1 A12:G1048576">
+    <cfRule type="expression" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 A12:G1048576">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="63" priority="41">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="62" priority="39">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="58" priority="37">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="61" priority="37">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="57" priority="35">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="60" priority="35">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="56" priority="33">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="59" priority="33">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="55" priority="31">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="58" priority="31">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="54" priority="29">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="57" priority="29">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="53" priority="27">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="56" priority="27">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="52" priority="25">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="55" priority="25">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="50" priority="21">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="54" priority="21">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="53" priority="19">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="49" priority="17">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="52" priority="17">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="48" priority="15">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="47" priority="13">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="51" priority="15">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="46" priority="11">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="49" priority="9">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="45" priority="7">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="48" priority="7">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="44" priority="5">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A10),2)</formula>
+      <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2389,6 +2493,43 @@
         <v>144</v>
       </c>
     </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="5">
+        <v>42353</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
@@ -2396,18 +2537,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G1048576 D25:G25 A25:B26 G26">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A29:G1048576 A28:D28 F28:G28">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G1048576 D25:G25 A25:B26 G26">
-    <cfRule type="expression" dxfId="43" priority="33">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A29:G1048576 A28:D28 F28:G28">
+    <cfRule type="expression" dxfId="46" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="45" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2417,7 +2558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2427,7 +2568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2437,7 +2578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="39" priority="26">
+    <cfRule type="expression" dxfId="42" priority="26">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2447,7 +2588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="41" priority="24">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2457,7 +2598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="40" priority="22">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2467,7 +2608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="36" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2477,7 +2618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2487,7 +2628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2497,7 +2638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="33" priority="14">
+    <cfRule type="expression" dxfId="36" priority="14">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2507,7 +2648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2517,7 +2658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,7 +2668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2537,7 +2678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2552,7 +2693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2562,7 +2703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2573,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2899,248 +3040,278 @@
       <c r="D18" s="5">
         <v>42353</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>144</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="5">
+        <v>42005</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A19:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A19:G1048576">
-    <cfRule type="expression" dxfId="26" priority="49">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A20:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A20:G1048576">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="53" stopIfTrue="1">
+    <cfRule type="expression" priority="55" stopIfTrue="1">
       <formula>MOD(ROW($A1048574),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="54" stopIfTrue="1">
+    <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(#REF!),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="61" stopIfTrue="1">
+    <cfRule type="expression" priority="63" stopIfTrue="1">
       <formula>MOD(ROW($A1048572),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="28" priority="47">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="25" priority="45">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="27" priority="45">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="24" priority="43">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="26" priority="43">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="23" priority="41">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="22" priority="39">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="23" priority="35">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="20" priority="33">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="19" priority="31">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="18" priority="29">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="17" priority="27">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="18" priority="25">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="15" priority="23">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="13" priority="19">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="11" priority="15">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW($A18),2)</formula>
+      <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <t>http://gradschool.cornell.edu/academics/fields-of-study/subject/chemistry-and-chemical-biology/chemistry-and-chemical-biology-phd-ithaca</t>
   </si>
   <si>
-    <t>托福写作20，听力15，阅读20，口语22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +217,6 @@
     <t>https://chemistry.uchicago.edu/page/application-information.html</t>
   </si>
   <si>
-    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硬性要求：gpa 3.0，托福105，其中口语24，从邮件（详见附件）来看伊利诺伊的化学院的要求是很高的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Johns Hopkins 约翰霍普金斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三封推荐信。TOEFL 100.需要sub，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
   </si>
   <si>
@@ -512,10 +496,6 @@
     <t>http://www.chemistry.ucla.edu/how-apply#international</t>
   </si>
   <si>
-    <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>askgrad@chem.psu.edu</t>
   </si>
   <si>
@@ -599,10 +579,6 @@
     <t>grad.admissions@cheme.washington.edu</t>
   </si>
   <si>
-    <t>要求本科学位是Chemical Engineering，否则要联系院系申请。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=13</t>
   </si>
   <si>
@@ -610,6 +586,52 @@
   </si>
   <si>
     <t>gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福写作20，听力15，阅读20，口语22，往届平均gpa 3.3，平均GRE 310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是一个生物和化学结合的项目，不是纯化学的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法。邮件中说：不提供gpa和GRE平均，会整体衡量学生表现，某一方面很强的话可以弥补其他方面的不足，仍然得到录取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。往届平均：gpa 3.78，GRE quantitative 83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。TOEFL 100.需要sub，gpa 3.0，往届90%的学生的GRE quantitative 155以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求本科学位是Chemical Engineering，否则要联系院系申请。邮件：化学的学位也可以，最好学过以下课程：calculus/differential equations, linear algebra, transport, thermodynamics and physics，往届gpa平均3.8.硬性要求：GRE quantitative必须159，托福92.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemgradinfo@ucsd.edu</t>
+  </si>
+  <si>
+    <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0，托福92，申请phD非常看重研究经历和论文发表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lauren.mcghee@jhu.edu</t>
+  </si>
+  <si>
+    <t>全校的研究生院统一招生，招生权力不在院系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要GRE sub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,56 +696,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill>
@@ -994,6 +967,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1483,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1498,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -1506,19 +1493,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5">
         <v>42006</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1534,17 +1521,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="62" priority="8">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1554,7 +1541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1567,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1601,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -1609,16 +1596,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5">
         <v>42339</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1627,19 +1614,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5">
         <v>42339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1647,22 +1634,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5">
         <v>42353</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1670,19 +1657,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5">
         <v>42339</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1690,16 +1677,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5">
         <v>42115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1707,16 +1694,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1724,16 +1711,19 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5">
         <v>42019</v>
       </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -1741,22 +1731,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="5">
         <v>42339</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1764,19 +1754,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D10" s="5">
         <v>42339</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1784,19 +1774,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5">
         <v>42339</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A12:G1048576">
-    <cfRule type="expression" dxfId="64" priority="48">
+    <cfRule type="expression" dxfId="59" priority="48">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1822,7 +1812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="63" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,7 +1822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="62" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1842,7 +1832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="61" priority="37">
+    <cfRule type="expression" dxfId="56" priority="37">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1852,7 +1842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="60" priority="35">
+    <cfRule type="expression" dxfId="55" priority="35">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1862,7 +1852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="54" priority="33">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1872,7 +1862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="58" priority="31">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1882,7 +1872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="57" priority="29">
+    <cfRule type="expression" dxfId="52" priority="29">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1892,7 +1882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="56" priority="27">
+    <cfRule type="expression" dxfId="51" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1902,7 +1892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="50" priority="25">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1912,17 +1902,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="54" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
+  <conditionalFormatting sqref="A8:C8 F8:G8">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="53" priority="19">
+  <conditionalFormatting sqref="A8:C8 F8:G8">
+    <cfRule type="expression" dxfId="48" priority="19">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1932,7 +1922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="52" priority="17">
+    <cfRule type="expression" dxfId="47" priority="17">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1942,7 +1932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="46" priority="15">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,7 +1942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1962,7 +1952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1972,7 +1962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1982,7 +1972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1992,7 +1982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2002,7 +1992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2015,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2141,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2158,7 +2148,7 @@
         <v>42353</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2175,7 +2165,7 @@
         <v>42353</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2195,7 +2185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2209,7 +2199,7 @@
         <v>42348</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2217,16 +2207,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>42353</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -2234,19 +2224,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5">
         <v>42339</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2254,30 +2244,30 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5">
         <v>42353</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="5">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2285,33 +2275,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5">
         <v>42353</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5">
         <v>42339</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2319,36 +2315,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5">
         <v>42353</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5">
         <v>42339</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2356,36 +2352,36 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D19" s="5">
         <v>42353</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5">
         <v>42353</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2393,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2410,16 +2406,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="5">
         <v>42019</v>
       </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2427,10 +2429,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" s="5">
         <v>42019</v>
@@ -2441,19 +2443,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="5">
         <v>42009</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2461,19 +2463,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D25" s="5">
         <v>42349</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2481,16 +2483,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5">
         <v>42005</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2498,16 +2500,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2515,19 +2520,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="5">
         <v>42353</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2543,12 +2548,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A29:G1048576 A28:D28 F28:G28">
-    <cfRule type="expression" dxfId="46" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="45" priority="32">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2558,7 +2563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2568,7 +2573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="43" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2578,7 +2583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="42" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2588,7 +2593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="41" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2598,7 +2603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="40" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2608,7 +2613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2618,7 +2623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2628,7 +2633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2638,7 +2643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="29" priority="14">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2648,17 +2653,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
+  <conditionalFormatting sqref="A22:D22 G22">
     <cfRule type="expression" priority="11" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22">
-    <cfRule type="expression" dxfId="34" priority="10">
+  <conditionalFormatting sqref="A22:D22 G22">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2668,7 +2673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="33" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2678,7 +2683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2693,7 +2698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2703,7 +2708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2717,7 +2722,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2751,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2805,7 +2810,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2833,13 +2838,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <v>42007</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2847,13 +2852,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2861,16 +2866,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5">
         <v>42006</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2878,10 +2883,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="5">
         <v>42353</v>
@@ -2892,10 +2897,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5">
         <v>42353</v>
@@ -2906,16 +2911,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5">
         <v>42384</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2923,14 +2928,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -2938,16 +2943,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
       </c>
       <c r="D13" s="5">
         <v>42353</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2955,16 +2960,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5">
         <v>42353</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2972,19 +2977,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D15" s="5">
         <v>42009</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2992,19 +2997,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="5">
         <v>42005</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3012,19 +3017,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D17" s="5">
         <v>42012</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -3032,39 +3037,39 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D18" s="5">
         <v>42353</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D19" s="5">
         <v>42005</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A20:G1048576">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="22" priority="51">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3100,7 +3105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="28" priority="47">
+    <cfRule type="expression" dxfId="21" priority="47">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3110,7 +3115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="20" priority="45">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3120,7 +3125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="19" priority="43">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3130,7 +3135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="18" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3140,7 +3145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3150,7 +3155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3160,7 +3165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3170,7 +3175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3180,7 +3185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3190,7 +3195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3200,7 +3205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3210,7 +3215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3220,7 +3225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3230,7 +3235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3240,7 +3245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3250,7 +3255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3260,7 +3265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3270,7 +3275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3280,7 +3285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3290,7 +3295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3300,7 +3305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3310,7 +3315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="182">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +632,49 @@
   </si>
   <si>
     <t>需要GRE sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Tech  佐治亚理工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/enve</t>
+  </si>
+  <si>
+    <t>托福79，GRE quantitative 155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目叫Chemistry and Biochemistry，其实有一些国外的研究生院化学系就叫“化学与生物化学”，是合并的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/chem</t>
+  </si>
+  <si>
+    <t>grad.info@chemistry.gatech.edu</t>
+  </si>
+  <si>
+    <t>这个项目叫 Chemical and Biomolecular Engineering，可能不是纯粹的化工。有一些其他学校也是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/che</t>
+  </si>
+  <si>
+    <t>托福85，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>janice.whatley@chbe.gatech.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +695,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,10 +723,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -692,11 +744,57 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -967,13 +1065,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1445,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1508,41 +1599,66 @@
         <v>48</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42353</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="11" stopIfTrue="1">
+    <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B1048576 C3:G1048576 F2:G2 H1:H1048576">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A4:H1048576">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A3:H1048576">
-    <cfRule type="expression" dxfId="63" priority="9">
+  <conditionalFormatting sqref="A1:H1 A4:H1048576">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="62" priority="8">
-      <formula>MOD(ROW($A1)+1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="65" priority="3">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
     <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="60" priority="1">
-      <formula>MOD(ROW($A2),2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,7 +1671,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1802,7 +1918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A12:G1048576">
-    <cfRule type="expression" dxfId="59" priority="48">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1812,7 +1928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="58" priority="41">
+    <cfRule type="expression" dxfId="63" priority="41">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1822,7 +1938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="62" priority="39">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,7 +1948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="56" priority="37">
+    <cfRule type="expression" dxfId="61" priority="37">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1842,7 +1958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="55" priority="35">
+    <cfRule type="expression" dxfId="60" priority="35">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1852,7 +1968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1862,7 +1978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="58" priority="31">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1872,7 +1988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="52" priority="29">
+    <cfRule type="expression" dxfId="57" priority="29">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1882,7 +1998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="51" priority="27">
+    <cfRule type="expression" dxfId="56" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1892,7 +2008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="50" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1902,7 +2018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="54" priority="21">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1912,7 +2028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="48" priority="19">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1922,7 +2038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="47" priority="17">
+    <cfRule type="expression" dxfId="52" priority="17">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1932,7 +2048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="46" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1942,7 +2058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,7 +2068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1962,7 +2078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1972,7 +2088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1982,7 +2098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1992,7 +2108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2003,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2535,6 +2651,29 @@
         <v>150</v>
       </c>
     </row>
+    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="5">
+        <v>42019</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
@@ -2542,18 +2681,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A29:G1048576 A28:D28 F28:G28">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A30:G1048576 A28:D29 F28:G29 E29">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A29:G1048576 A28:D28 F28:G28">
-    <cfRule type="expression" dxfId="39" priority="33">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A30:G1048576 A28:D29 F28:G29 E29">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2563,7 +2702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="37" priority="30">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2573,7 +2712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2583,7 +2722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="41" priority="26">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2593,7 +2732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2603,7 +2742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="39" priority="22">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2613,7 +2752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="32" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2623,7 +2762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="31" priority="18">
+    <cfRule type="expression" dxfId="37" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2633,7 +2772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2643,7 +2782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="29" priority="14">
+    <cfRule type="expression" dxfId="35" priority="14">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2653,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2663,7 +2802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:D22 G22">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2673,7 +2812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2683,7 +2822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2698,7 +2837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2708,7 +2847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2719,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3012,7 +3151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -3032,7 +3171,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -3052,7 +3191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>26</v>
       </c>
@@ -3072,254 +3211,290 @@
         <v>163</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42036</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A20:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" priority="52" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A20:G1048576">
-    <cfRule type="expression" dxfId="22" priority="51">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A21:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A21:G1048576">
+    <cfRule type="expression" dxfId="28" priority="53">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="55" stopIfTrue="1">
+    <cfRule type="expression" priority="57" stopIfTrue="1">
       <formula>MOD(ROW($A1048574),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="56" stopIfTrue="1">
+    <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(#REF!),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="63" stopIfTrue="1">
+    <cfRule type="expression" priority="65" stopIfTrue="1">
       <formula>MOD(ROW($A1048572),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="27" priority="49">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="21" priority="47">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="26" priority="47">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="20" priority="45">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="25" priority="45">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="19" priority="43">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="24" priority="43">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="18" priority="41">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="23" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="17" priority="39">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="22" priority="37">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="16" priority="35">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="15" priority="33">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="14" priority="31">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="19" priority="31">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="13" priority="29">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="18" priority="29">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="12" priority="27">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="11" priority="25">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="10" priority="23">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="9" priority="21">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="8" priority="19">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,58 @@
   </si>
   <si>
     <t>janice.whatley@chbe.gatech.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohio State University - Columbus  俄亥俄州立大学，哥伦布研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.osu.edu/graduate/biochemistry</t>
+  </si>
+  <si>
+    <t>hambach.2@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福79，往届GRE 76%(q),66%(v),50%(w)，GPA 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.osu.edu/graduate/faqs</t>
+  </si>
+  <si>
+    <t>cbe-grad@osu.edu     bennett.234@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cbe.osu.edu/ph.d.-application-requirements</t>
+  </si>
+  <si>
+    <t>往届平均 GPA 3.5，或者排名前12%，托福往届平均107。GRE 158(v),160(q),4就会被认为很好。GRE平均分在网页上也有，（v:72%, q:74%, w:3.75）不过我认为网页上平均分那里有个笔误，Q的平均分他写的是94%，结合上下文判断应该是74%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enviro@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://esgp.osu.edu/prospective/admissions</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面专业方向涵盖Environmental Chemistry，觉得应该比较对口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,14 +747,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -723,11 +767,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -744,15 +787,46 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1225,7 +1299,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1536,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,46 +1700,80 @@
         <v>173</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="13" stopIfTrue="1">
+    <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A4:H1048576">
-    <cfRule type="expression" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A5:H1048576">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A4:H1048576">
-    <cfRule type="expression" dxfId="68" priority="11">
+  <conditionalFormatting sqref="A1:H1 A5:H1048576">
+    <cfRule type="expression" dxfId="74" priority="13">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="72" priority="5">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
     <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="65" priority="3">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="71" priority="3">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A3),2)</formula>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1905,211 +2020,239 @@
         <v>157</v>
       </c>
     </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="50" stopIfTrue="1">
+    <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A12:G1048576">
-    <cfRule type="expression" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A12:G1048576">
-    <cfRule type="expression" dxfId="64" priority="48">
+  <conditionalFormatting sqref="A1:G1 A13:G1048576">
+    <cfRule type="expression" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 A13:G1048576">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="69" priority="43">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="63" priority="41">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="68" priority="41">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="62" priority="39">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="67" priority="39">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="61" priority="37">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="66" priority="37">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="60" priority="35">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="65" priority="35">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="59" priority="33">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="64" priority="33">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="58" priority="31">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="63" priority="31">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="57" priority="29">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="62" priority="29">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="56" priority="27">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="60" priority="23">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 F8:G8">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="54" priority="21">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:G8">
+    <cfRule type="expression" dxfId="59" priority="21">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="53" priority="19">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="58" priority="19">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="52" priority="17">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="57" priority="17">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="56" priority="13">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="50" priority="11">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="55" priority="11">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="49" priority="9">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="48" priority="7">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="47" priority="5">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="52" priority="5">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="46" priority="3">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:D12 F12:G12">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="45" priority="1">
-      <formula>MOD(ROW($A11),2)</formula>
+  <conditionalFormatting sqref="A12:D12 F12:G12">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2119,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2674,6 +2817,26 @@
         <v>174</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="5">
+        <v>42353</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
@@ -2681,18 +2844,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A30:G1048576 A28:D29 F28:G29 E29">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A31:G1048576 A28:D30 F28:G30">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 A30:G1048576 A28:D29 F28:G29 E29">
-    <cfRule type="expression" dxfId="1" priority="33">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A31:G1048576 A28:D30 F28:G30">
+    <cfRule type="expression" dxfId="50" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="44" priority="32">
+    <cfRule type="expression" dxfId="49" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2702,7 +2865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="43" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2712,7 +2875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="47" priority="28">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2722,7 +2885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="41" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2732,7 +2895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="45" priority="24">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2742,7 +2905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="39" priority="22">
+    <cfRule type="expression" dxfId="44" priority="22">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2752,7 +2915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="38" priority="20">
+    <cfRule type="expression" dxfId="43" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2762,7 +2925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2772,7 +2935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2782,7 +2945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="35" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,7 +2955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="39" priority="12">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,7 +2965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:D22 G22">
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2812,7 +2975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2822,7 +2985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2837,7 +3000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2847,7 +3010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2858,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3224,7 +3387,7 @@
       <c r="D20" s="5">
         <v>42036</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>181</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -3234,267 +3397,292 @@
         <v>178</v>
       </c>
     </row>
+    <row r="21" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A21:G1048576 G7:G8 E10:G10">
-    <cfRule type="expression" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A21:G1048576">
-    <cfRule type="expression" dxfId="28" priority="53">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A22:G1048576 G7:G8 E10:G10">
+    <cfRule type="expression" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A22:G1048576">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="57" stopIfTrue="1">
+    <cfRule type="expression" priority="59" stopIfTrue="1">
       <formula>MOD(ROW($A1048574),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="58" stopIfTrue="1">
+    <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(#REF!),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="65" stopIfTrue="1">
+    <cfRule type="expression" priority="67" stopIfTrue="1">
       <formula>MOD(ROW($A1048572),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="32" priority="51">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="27" priority="49">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="31" priority="49">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="26" priority="47">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="30" priority="47">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="25" priority="45">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="29" priority="45">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="24" priority="43">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="28" priority="43">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="23" priority="41">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="22" priority="37">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="21" priority="35">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="20" priority="33">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="19" priority="31">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="18" priority="29">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="17" priority="27">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="15" priority="23">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="13" priority="19">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="8" priority="7">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="217">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enviro@osu.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,6 +724,85 @@
   <si>
     <t>这个里面专业方向涵盖Environmental Chemistry，觉得应该比较对口</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado - Boulder  科罗拉多大学波尔德分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目叫Chemistry and Biochemistry，是合并的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，有研究经历会很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/admissions/graduate/programs/chembio</t>
+  </si>
+  <si>
+    <t>chemgrad@colorado.edu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/admissions/graduate/programs/chemical</t>
+  </si>
+  <si>
+    <t>要求gpa 3.25，三封推荐信，托福100，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chbegrad@colorado.edu</t>
+  </si>
+  <si>
+    <t>Environmental Studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/admissions/graduate/programs/envstudies</t>
+  </si>
+  <si>
+    <t>envsgrad@colorado.edu</t>
+  </si>
+  <si>
+    <t>3封推荐信，gpa 3.0，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎更强调解决实际环境问题的能力，不是特别科研的一个项目（有硕士也有博士，似乎有的比较好申请，就属于那种不是特别科研的似乎）正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCI   University of California - Irvine  加州大学欧文分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福口语26，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.uci.edu/graduate/apply</t>
+  </si>
+  <si>
+    <t>chemgrad@chem.ps.uci.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，gpa&gt;3.0;GRE&gt;311,writing&gt;3.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/chemical-and-biochemical-engineering</t>
+  </si>
+  <si>
+    <t>chaug@uci.edu</t>
+  </si>
+  <si>
+    <t>Material Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/materials-science-and-engineering</t>
   </si>
 </sst>
 </file>
@@ -791,56 +866,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill>
@@ -1139,6 +1165,97 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1617,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1708,72 +1825,146 @@
         <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42339</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="15" stopIfTrue="1">
+    <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A5:H1048576">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A7:H1048576 C5:H5">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A5:H1048576">
-    <cfRule type="expression" dxfId="74" priority="13">
+  <conditionalFormatting sqref="A1:H1 A7:H1048576 C5:H5 C6:D6 F6">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="73" priority="8">
+    <cfRule type="expression" dxfId="71" priority="14">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="70" priority="11">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="69" priority="9">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="68" priority="7">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="72" priority="5">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="67" priority="5">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="71" priority="3">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="66" priority="3">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(ROW($A4),2)</formula>
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="65" priority="1">
+      <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,7 +2242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A13:G1048576">
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="64" priority="50">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2061,7 +2252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="69" priority="43">
+    <cfRule type="expression" dxfId="63" priority="43">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2071,7 +2262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="68" priority="41">
+    <cfRule type="expression" dxfId="62" priority="41">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2081,7 +2272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="67" priority="39">
+    <cfRule type="expression" dxfId="61" priority="39">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2091,7 +2282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="66" priority="37">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2101,7 +2292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="65" priority="35">
+    <cfRule type="expression" dxfId="59" priority="35">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2111,7 +2302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="64" priority="33">
+    <cfRule type="expression" dxfId="58" priority="33">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2121,7 +2312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="63" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2131,7 +2322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="62" priority="29">
+    <cfRule type="expression" dxfId="56" priority="29">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2141,7 +2332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="55" priority="27">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2151,7 +2342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="60" priority="23">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2161,7 +2352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="53" priority="21">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2171,7 +2362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="58" priority="19">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2181,7 +2372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="57" priority="17">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2191,7 +2382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="50" priority="13">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2201,7 +2392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2211,7 +2402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2221,7 +2412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2231,7 +2422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2241,7 +2432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2251,7 +2442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2262,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2837,6 +3028,49 @@
         <v>186</v>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="5">
+        <v>42353</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="5">
+        <v>42339</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
@@ -2844,18 +3078,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A31:G1048576 A28:D30 F28:G30">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A33:G1048576 E31 A28:D32 F28:G32">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A31:G1048576 A28:D30 F28:G30">
-    <cfRule type="expression" dxfId="50" priority="33">
+  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A33:G1048576 E31 A28:D32 F28:G32">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="49" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2865,7 +3099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2875,7 +3109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2885,7 +3119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2895,7 +3129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2905,7 +3139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="44" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2915,7 +3149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2925,7 +3159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2935,7 +3169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2945,7 +3179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2955,7 +3189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="39" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2965,7 +3199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:D22 G22">
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="31" priority="10">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2975,7 +3209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2985,7 +3219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3000,7 +3234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3010,7 +3244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3021,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3415,271 +3649,325 @@
         <v>190</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42008</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A22:G1048576 G7:G8 E10:G10">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A24:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23">
+    <cfRule type="expression" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A24:G1048576 C22:D22 F22:G22 C23:G23">
+    <cfRule type="expression" dxfId="26" priority="59">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A22:G1048576">
-    <cfRule type="expression" dxfId="33" priority="55">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="59" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="25" priority="55">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="24" priority="53">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="32" priority="51">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="23" priority="51">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="31" priority="49">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="22" priority="49">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="30" priority="47">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="29" priority="45">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="21" priority="47">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="28" priority="43">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="20" priority="43">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="19" priority="41">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="27" priority="39">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="18" priority="39">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="17" priority="37">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="25" priority="35">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="16" priority="35">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="24" priority="33">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="15" priority="33">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="14" priority="31">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="22" priority="29">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="13" priority="29">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="12" priority="27">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="10" priority="23">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="9" priority="21">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="16" priority="17">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>MOD(ROW($A21),2)</formula>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,10 +499,6 @@
     <t>askgrad@chem.psu.edu</t>
   </si>
   <si>
-    <t>托福总分100，口语23.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
   </si>
   <si>
@@ -593,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个是一个生物和化学结合的项目，不是纯化学的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法。邮件中说：不提供gpa和GRE平均，会整体衡量学生表现，某一方面很强的话可以弥补其他方面的不足，仍然得到录取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,10 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福100，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.gradadmiss.gatech.edu/chem</t>
   </si>
   <si>
@@ -707,10 +695,6 @@
     <t>https://cbe.osu.edu/ph.d.-application-requirements</t>
   </si>
   <si>
-    <t>往届平均 GPA 3.5，或者排名前12%，托福往届平均107。GRE 158(v),160(q),4就会被认为很好。GRE平均分在网页上也有，（v:72%, q:74%, w:3.75）不过我认为网页上平均分那里有个笔误，Q的平均分他写的是94%，结合上下文判断应该是74%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enviro@osu.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,13 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三封推荐信，有研究经历会很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.colorado.edu/admissions/graduate/programs/chembio</t>
-  </si>
-  <si>
     <t>chemgrad@colorado.edu </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福口语26，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.chem.uci.edu/graduate/apply</t>
   </si>
   <si>
@@ -788,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三封推荐信，gpa&gt;3.0;GRE&gt;311,writing&gt;3.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/chemical-and-biochemical-engineering</t>
   </si>
   <si>
@@ -803,6 +772,64 @@
   </si>
   <si>
     <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/materials-science-and-engineering</t>
+  </si>
+  <si>
+    <t>邮件中说：总体GPA&gt;3.0，Science GPA（指的是专业课程？）&gt;3.1才能当助教；托福&gt;80，口语26能当助教；如果想申请有机方向，GRE&gt;70%能保有竞争力；无机和物化方向&gt;50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chem.colorado.edu/index.php?option=com_content&amp;view=article&amp;id=323&amp;Itemid=164</t>
+  </si>
+  <si>
+    <t>三封推荐信，有研究经历会很好；托福100，往届GRE平均85%-98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：上一届GRE平均162.7(q),156.4(v),4.03；平均GPA 3.56。如果GPA&gt;3.7听她的语气应该是会很有优势。托福80，口语26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan 4 (但是邮件中说最好12月就提交，可能录取有几批，想让你尽量都在第一批的时候提交)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，gpa&gt;3.0;GRE&gt;311,writing&gt;3.5;托福79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福总分100，口语23.邮件说：往届GPA平均3.4，GRE平均155(v),162(q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往届平均 GPA 3.5，或者排名前12%，托福往届平均107。GRE 158(v),160(q),4就会被认为很好。GRE平均分在网页上也有，（v:72%, q:94%, w:3.75）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是一个生物和化学结合的项目，不是纯化学的。邮件也说了，UCSF没有纯化学专业，都是和 human biology and health care 结合的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：非chemical engineering专业的学生申请起来会非常困难，但是也不是不可能。GRE两大项加起来&gt;300,写作4.0；往届GPA 3.5，如果是有奖学金的phD平均3.8，托福100.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbates@chemistry.ohio-state.edu</t>
+  </si>
+  <si>
+    <t>托福79，GPA 3.0，需要证明有能力支付30万人民币的学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他重要网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100，邮件说往届GRE总分304-320，GPA 3.6。GRE sub不要求，他说很多申请者也没有去考。邮件中提到如果你能事先联系这边的老师详细交流，得到认可，那么就会有更大的概率。他说很推荐这么做，看起来可能绝大多数往届录取的国际学生都是这么做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,12 +872,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,217 +890,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <fill>
         <patternFill>
@@ -1165,6 +979,272 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1737,7 +1817,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,10 +1825,10 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="35.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="19.75" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1764,7 +1844,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1784,16 +1864,16 @@
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>42006</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1802,19 +1882,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="4">
+        <v>42353</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42353</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -1822,23 +1902,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -1846,43 +1926,43 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="5">
+        <v>198</v>
+      </c>
+      <c r="E5" s="4">
         <v>42339</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>214</v>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1898,12 +1978,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A7:H1048576 C5:H5 C6:D6 F6">
-    <cfRule type="expression" dxfId="72" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="71" priority="14">
+    <cfRule type="expression" dxfId="87" priority="14">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1913,7 +1993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="86" priority="11">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1923,7 +2003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="85" priority="9">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1933,7 +2013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1943,7 +2023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="83" priority="5">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1953,7 +2033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="82" priority="3">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1963,7 +2043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1985,7 +2065,7 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="7" width="19.75" customWidth="1"/>
   </cols>
@@ -2000,7 +2080,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2023,15 +2103,15 @@
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>42339</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -2041,17 +2121,17 @@
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>42339</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -2061,20 +2141,20 @@
       <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42353</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -2084,17 +2164,17 @@
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42339</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -2104,14 +2184,14 @@
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42115</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -2121,14 +2201,14 @@
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -2138,17 +2218,17 @@
       <c r="C8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -2158,75 +2238,75 @@
       <c r="C9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>42339</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="5">
-        <v>42339</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="5">
-        <v>42339</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>183</v>
+      <c r="G12" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A13:G1048576">
-    <cfRule type="expression" dxfId="64" priority="50">
+    <cfRule type="expression" dxfId="80" priority="50">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2252,7 +2332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="63" priority="43">
+    <cfRule type="expression" dxfId="79" priority="43">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2262,7 +2342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="62" priority="41">
+    <cfRule type="expression" dxfId="78" priority="41">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2272,7 +2352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="61" priority="39">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2282,7 +2362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="60" priority="37">
+    <cfRule type="expression" dxfId="76" priority="37">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2292,7 +2372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="59" priority="35">
+    <cfRule type="expression" dxfId="75" priority="35">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2302,7 +2382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="58" priority="33">
+    <cfRule type="expression" dxfId="74" priority="33">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2312,7 +2392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="57" priority="31">
+    <cfRule type="expression" dxfId="73" priority="31">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2322,7 +2402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="56" priority="29">
+    <cfRule type="expression" dxfId="72" priority="29">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2332,7 +2412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="55" priority="27">
+    <cfRule type="expression" dxfId="71" priority="27">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2342,7 +2422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="54" priority="23">
+    <cfRule type="expression" dxfId="70" priority="23">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2352,7 +2432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="53" priority="21">
+    <cfRule type="expression" dxfId="69" priority="21">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2362,7 +2442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="68" priority="19">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2372,7 +2452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2382,7 +2462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2392,7 +2472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2402,7 +2482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="64" priority="9">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2412,7 +2492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2422,7 +2502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="46" priority="5">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2432,7 +2512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2442,7 +2522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2453,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2464,10 +2544,9 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="7" width="19.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2480,11 +2559,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
+      <c r="E1" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -2503,10 +2582,11 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>42353</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2520,10 +2600,10 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2537,14 +2617,15 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42339</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2554,33 +2635,33 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42339</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42346</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2594,10 +2675,11 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>42353</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2611,10 +2693,11 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>42353</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2628,10 +2711,11 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>42353</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2645,11 +2729,12 @@
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>42348</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>158</v>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -2662,10 +2747,11 @@
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>42353</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2679,13 +2765,13 @@
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>42339</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2696,12 +2782,13 @@
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>42353</v>
       </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -2713,14 +2800,15 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>42353</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2730,13 +2818,13 @@
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>42353</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2750,14 +2838,15 @@
       <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>42339</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>168</v>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2770,10 +2859,11 @@
       <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>42353</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2787,14 +2877,14 @@
       <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>42339</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>161</v>
+      <c r="F18" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2807,10 +2897,11 @@
       <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>42353</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2824,14 +2915,14 @@
       <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>42353</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>162</v>
+      <c r="F20" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2844,10 +2935,10 @@
       <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2861,17 +2952,17 @@
       <c r="C22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>42019</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>165</v>
+      <c r="G22" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2884,9 +2975,10 @@
       <c r="C23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>42019</v>
       </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -2898,17 +2990,17 @@
       <c r="C24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>42009</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2916,16 +3008,16 @@
         <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="5">
+        <v>132</v>
+      </c>
+      <c r="D25" s="4">
         <v>42349</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>132</v>
+      <c r="F25" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2933,36 +3025,37 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="5">
-        <v>42005</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>159</v>
+      <c r="G27" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2970,42 +3063,42 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="5">
-        <v>42353</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" ht="162" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="5">
+        <v>173</v>
+      </c>
+      <c r="D29" s="4">
         <v>42019</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3013,19 +3106,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="5">
+        <v>179</v>
+      </c>
+      <c r="D30" s="4">
         <v>42353</v>
       </c>
-      <c r="E30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>186</v>
+      <c r="E30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3033,219 +3126,249 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="5">
+        <v>184</v>
+      </c>
+      <c r="D31" s="4">
         <v>42353</v>
       </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="E31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="4">
         <v>42339</v>
       </c>
-      <c r="E32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" priority="35" stopIfTrue="1">
+    <cfRule type="expression" priority="37" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A33:G1048576 E31 A28:D32 F28:G32">
-    <cfRule type="expression" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:E9 A13:F13 A14 C14:F14 A15:F15 A21:F21 A16:C16 E16:F16 A10:G10 G13:G16 G18:G21 A18:C20 E18:F20 A23:C24 E23:G24 A1:G8 A27:G27 D25:G25 A25:B26 G26 E29 A33:G1048576 E31 A28:D32 F28:G32">
-    <cfRule type="expression" dxfId="43" priority="33">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G1048576">
+    <cfRule type="expression" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G1048576">
+    <cfRule type="expression" dxfId="27" priority="35">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="42" priority="32">
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="59" priority="32">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="expression" priority="31" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="41" priority="30">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="29" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="40" priority="28">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="27" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="39" priority="26">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="58" priority="26">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
     <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="38" priority="24">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 F17:G17">
     <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="37" priority="22">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
+  <conditionalFormatting sqref="A17:C17 F17:G17">
+    <cfRule type="expression" dxfId="57" priority="22">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
     <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 E17:G17">
-    <cfRule type="expression" dxfId="36" priority="20">
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18:E18">
     <cfRule type="expression" priority="19" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="35" priority="18">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
     <cfRule type="expression" priority="17" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="34" priority="16">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
     <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="33" priority="14">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="expression" dxfId="19" priority="14">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 A22:E22">
     <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="32" priority="12">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:D22 G22">
+  <conditionalFormatting sqref="G22 A22:E22">
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="expression" priority="11" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:D22 G22">
-    <cfRule type="expression" dxfId="31" priority="10">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="expression" dxfId="17" priority="10">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="expression" priority="9" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="30" priority="8">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="29" priority="6">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="5" stopIfTrue="1">
       <formula>MOD(ROW($A6),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
+    <cfRule type="expression" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="56" priority="5">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F26">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="28" priority="3">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="27" priority="1">
-      <formula>MOD(ROW($A26),2)</formula>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3257,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3266,10 +3389,10 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="15.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3282,7 +3405,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3305,10 +3428,10 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3319,16 +3442,16 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>42353</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3342,10 +3465,10 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42369</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3359,10 +3482,10 @@
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42368</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3376,10 +3499,10 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42007</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3393,7 +3516,7 @@
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3404,13 +3527,13 @@
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>42006</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3421,14 +3544,14 @@
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>42353</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -3438,8 +3561,11 @@
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>42353</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -3452,10 +3578,10 @@
       <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>42384</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3469,8 +3595,8 @@
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3484,10 +3610,10 @@
       <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>42353</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3501,10 +3627,10 @@
       <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>42353</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3518,13 +3644,13 @@
       <c r="C15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>42009</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3538,13 +3664,13 @@
       <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>42005</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3556,16 +3682,16 @@
         <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42012</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="5">
-        <v>42012</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -3573,19 +3699,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="5">
-        <v>42353</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>139</v>
+      <c r="F18" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
@@ -3593,19 +3719,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="5">
-        <v>42005</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>163</v>
+      <c r="F19" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3613,74 +3739,79 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="5">
+        <v>176</v>
+      </c>
+      <c r="D20" s="4">
         <v>42036</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="F20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42338</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="5">
-        <v>42008</v>
-      </c>
-      <c r="E22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A24:G1048576 C22:D22 F22:G22 C23:G23">
-    <cfRule type="expression" dxfId="26" priority="59">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3716,7 +3847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3726,7 +3857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="24" priority="53">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3736,7 +3867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="23" priority="51">
+    <cfRule type="expression" dxfId="52" priority="51">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3746,7 +3877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="22" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3756,7 +3887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="21" priority="47">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3766,7 +3897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="20" priority="43">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3776,7 +3907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="19" priority="41">
+    <cfRule type="expression" dxfId="48" priority="41">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3786,7 +3917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="18" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3796,7 +3927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3806,7 +3937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="16" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3816,7 +3947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="15" priority="33">
+    <cfRule type="expression" dxfId="44" priority="33">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3826,7 +3957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="14" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3836,7 +3967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="42" priority="29">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3846,7 +3977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="12" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3856,7 +3987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3866,7 +3997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3876,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3886,7 +4017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="37" priority="17">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3896,7 +4027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="36" priority="15">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3906,7 +4037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3916,7 +4047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3926,7 +4057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3936,7 +4067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3946,7 +4077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3956,7 +4087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3966,7 +4097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="275">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,13 +830,202 @@
   <si>
     <t>托福100，邮件说往届GRE总分304-320，GPA 3.6。GRE sub不要求，他说很多申请者也没有去考。邮件中提到如果你能事先联系这边的老师详细交流，得到认可，那么就会有更大的概率。他说很推荐这么做，看起来可能绝大多数往届录取的国际学生都是这么做的</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indiana University Bloomington 印第安纳大学伯明顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.indiana.edu/graduate/admission/international.asp</t>
+  </si>
+  <si>
+    <t>托福100，三封推荐信，推荐参加 Test of Spoken English (TSE)。GRE硬性要求151(v),150(q),4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemgrad@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求80，平均是100.老GRE的平均分是1350(q+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bchem@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.indiana.edu/~mcbdept/graduate/prospective.shtml</t>
+  </si>
+  <si>
+    <t>Environmental Chemistry, Toxicology, and Risk Assessment</t>
+  </si>
+  <si>
+    <t>硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spea.indiana.edu/masters/apply/index.html?apply-select-program=MSES+%28Environmental+Science%29&amp;apply-select-type=International#drop</t>
+  </si>
+  <si>
+    <t>speaapps@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington University in Santa. Louis  华盛顿大学 - 圣路易斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称  Energy, Environmental &amp; Chemical Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eece.wustl.edu/graduateprograms/Pages/phd-eece.aspx  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbaxter@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interdisciplinary PhD in Materials Science &amp; Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://imse.wustl.edu/program/how-apply  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgartin@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.wustl.edu/graduate/prospectivestudents  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loomis@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice University  莱斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.rice.edu/Content.aspx?id=233</t>
+  </si>
+  <si>
+    <t>gradchem@rice.edu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chbe.rice.edu/Content.aspx?id=2147484197</t>
+  </si>
+  <si>
+    <t>项目全称 Chemical and Biomolecular Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chbe@rice.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California - Santa Barbara  UCSB 圣巴巴拉加州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/9</t>
+  </si>
+  <si>
+    <t>gradprog@chem.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/10</t>
+  </si>
+  <si>
+    <t>chegrads@engineering.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/51</t>
+  </si>
+  <si>
+    <t>博士硕士都有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admissions@bren.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Science &amp; Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/34</t>
+  </si>
+  <si>
+    <t>mtrl-application@engineering.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Florida  弗罗里达大学  UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看了2015届的新生花名册，中国学生很多。占全班的1/4左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福80，GRE verbal 140（硬性要求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.ufl.edu/grad/apply.shtml</t>
+  </si>
+  <si>
+    <t>bwsmith@ufl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.che.ufl.edu/Pro_Grad_Std.htm#Admission_Policy</t>
+  </si>
+  <si>
+    <t>Environmental Engineering Sciences</t>
+  </si>
+  <si>
+    <t>http://www.essie.ufl.edu/student_resources/admissions/graduate/</t>
+  </si>
+  <si>
+    <t>管招生的华裔教授：cywu@essie.ufl.edu     这是一名工作人员： barbi.jackson@essie.ufl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Science and Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lharm@mse.ufl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mse.ufl.edu/admissions/graduate/phd/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +1038,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -869,10 +1066,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -886,11 +1084,370 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="99">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -979,293 +1536,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1525,6 +1795,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="#"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9563100" y="7000875"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1814,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1910,8 +2240,8 @@
       <c r="D4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1965,99 +2295,279 @@
         <v>206</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42036</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42352</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="21" stopIfTrue="1">
+    <cfRule type="expression" priority="31" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A7:H1048576 C5:H5">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A13:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 C11:E12 H12">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H1 A13:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 C11:E12 H12">
+    <cfRule type="expression" dxfId="97" priority="29">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 F2:H2">
+    <cfRule type="expression" dxfId="96" priority="24">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="95" priority="21">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
     <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A7:H1048576 C5:H5 C6:D6 F6">
-    <cfRule type="expression" dxfId="88" priority="19">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="87" priority="14">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="94" priority="19">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="93" priority="17">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="92" priority="15">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="91" priority="13">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="86" priority="11">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="90" priority="11">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="85" priority="9">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="89" priority="9">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="84" priority="7">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="88" priority="7">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="83" priority="5">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A9:B10">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="82" priority="3">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A11:B12">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="81" priority="1">
-      <formula>MOD(ROW($A6),2)</formula>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2106,6 +2616,7 @@
       <c r="D2" s="4">
         <v>42339</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>57</v>
       </c>
@@ -2221,7 +2732,7 @@
       <c r="D8" s="4">
         <v>42019</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2302,241 +2813,294 @@
         <v>181</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>180</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="52" stopIfTrue="1">
+    <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A13:G1048576">
-    <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A13:G1048576">
-    <cfRule type="expression" dxfId="80" priority="50">
+  <conditionalFormatting sqref="A1:G1 A15:G1048576 F13:G13 C14:G14">
+    <cfRule type="expression" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 F13:G13 A15:G1048576">
+    <cfRule type="expression" dxfId="87" priority="54">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="86" priority="47">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="85" priority="45">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="79" priority="43">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="84" priority="43">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="78" priority="41">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="83" priority="41">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="77" priority="39">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="82" priority="39">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="76" priority="37">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="81" priority="37">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="75" priority="35">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="80" priority="35">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="74" priority="33">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="79" priority="33">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="73" priority="31">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="72" priority="29">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="78" priority="31">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="71" priority="27">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="77" priority="27">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 F8:G8">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 F8:G8">
+    <cfRule type="expression" dxfId="76" priority="25">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="70" priority="23">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8:G8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="75" priority="23">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="69" priority="21">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="68" priority="19">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="74" priority="21">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="67" priority="17">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="72" priority="15">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="66" priority="13">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="71" priority="13">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="65" priority="11">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="64" priority="9">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="69" priority="9">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="63" priority="7">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="68" priority="7">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D12 F12:G12">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="62" priority="5">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:D12 F12:G12">
+    <cfRule type="expression" dxfId="67" priority="5">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="61" priority="3">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" dxfId="60" priority="1">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
+    <cfRule type="expression" dxfId="66" priority="3">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="78" id="{4A7D7024-A29F-4B97-93FD-C0AF66C76E8D}">
+            <xm:f>MOD(ROW(化工!$A25),2)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2912,7 +3476,7 @@
       <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="4">
@@ -2949,7 +3513,7 @@
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="4">
@@ -3164,7 +3728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -3182,6 +3746,100 @@
       </c>
       <c r="F33" s="2" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="4">
+        <v>42358</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42008</v>
+      </c>
+      <c r="E38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3191,18 +3849,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G1048576">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G1048576 F36:G37 A36:D37">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G1048576">
-    <cfRule type="expression" dxfId="27" priority="35">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G1048576 F36:G37 A36:D37">
+    <cfRule type="expression" dxfId="64" priority="35">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="63" priority="34">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3212,7 +3870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="59" priority="32">
+    <cfRule type="expression" dxfId="62" priority="32">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3222,7 +3880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="61" priority="30">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3232,7 +3890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3242,7 +3900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="58" priority="26">
+    <cfRule type="expression" dxfId="59" priority="26">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3252,7 +3910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="58" priority="24">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3272,7 +3930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3282,7 +3940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3292,7 +3950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3302,7 +3960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3312,7 +3970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3322,7 +3980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3332,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3347,7 +4005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3357,7 +4015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3367,7 +4025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3378,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3814,291 +4472,412 @@
         <v>212</v>
       </c>
     </row>
+    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42014</v>
+      </c>
+      <c r="E25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="4">
+        <v>42358</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="4">
+        <v>42019</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A24:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A28:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27">
+    <cfRule type="expression" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A28:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27">
+    <cfRule type="expression" dxfId="46" priority="69">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="45" priority="65">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="44" priority="63">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="43" priority="61">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A24:G1048576 C22:D22 F22:G22 C23:G23">
-    <cfRule type="expression" dxfId="55" priority="59">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="71" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="42" priority="59">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="41" priority="57">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="40" priority="53">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="52" priority="51">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="39" priority="51">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="51" priority="49">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="38" priority="49">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="50" priority="47">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="49" priority="43">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="48" priority="41">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="47" priority="39">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="46" priority="37">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="32" priority="37">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="45" priority="35">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="44" priority="33">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="43" priority="31">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="42" priority="29">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="41" priority="27">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="28" priority="27">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="40" priority="25">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="39" priority="23">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="38" priority="21">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="37" priority="17">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="36" priority="15">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="35" priority="13">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="21" priority="13">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="34" priority="11">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="33" priority="9">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="32" priority="7">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="31" priority="5">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="29" priority="1">
-      <formula>MOD(ROW($A23),2)</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="276">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,16 +1000,9 @@
     <t>http://www.che.ufl.edu/Pro_Grad_Std.htm#Admission_Policy</t>
   </si>
   <si>
-    <t>Environmental Engineering Sciences</t>
-  </si>
-  <si>
     <t>http://www.essie.ufl.edu/student_resources/admissions/graduate/</t>
   </si>
   <si>
-    <t>管招生的华裔教授：cywu@essie.ufl.edu     这是一名工作人员： barbi.jackson@essie.ufl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Material Science and Engineering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,6 +1012,18 @@
   </si>
   <si>
     <t>http://www.mse.ufl.edu/admissions/graduate/phd/</t>
+  </si>
+  <si>
+    <t>Environmental Engineering Sciences (EES)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管招生的华裔教授：cywu@essie.ufl.edu     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：不是院系去选学生，而是有招生资格的教授自己选。所以说你如果事先联系好了教授，得到认可，几乎十拿九稳。我是这么理解的，详见附件，邮件全文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1090,112 +1095,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill>
@@ -1536,6 +1436,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2147,7 +2061,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2381,7 +2295,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -2389,16 +2303,19 @@
         <v>263</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2409,16 +2326,16 @@
         <v>263</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>265</v>
@@ -2437,12 +2354,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A13:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 C11:E12 H12">
-    <cfRule type="expression" dxfId="97" priority="29">
+    <cfRule type="expression" dxfId="85" priority="29">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="96" priority="24">
+    <cfRule type="expression" dxfId="84" priority="24">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2452,7 +2369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="95" priority="21">
+    <cfRule type="expression" dxfId="83" priority="21">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2462,7 +2379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="94" priority="19">
+    <cfRule type="expression" dxfId="82" priority="19">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2472,7 +2389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="93" priority="17">
+    <cfRule type="expression" dxfId="81" priority="17">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2482,7 +2399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="80" priority="15">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2492,7 +2409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="91" priority="13">
+    <cfRule type="expression" dxfId="79" priority="13">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2502,7 +2419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="78" priority="11">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2512,7 +2429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="89" priority="9">
+    <cfRule type="expression" dxfId="77" priority="9">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2522,7 +2439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2532,7 +2449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2542,7 +2459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2552,7 +2469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2854,7 +2771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 F13:G13 A15:G1048576">
-    <cfRule type="expression" dxfId="87" priority="54">
+    <cfRule type="expression" dxfId="72" priority="54">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2864,7 +2781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="86" priority="47">
+    <cfRule type="expression" dxfId="71" priority="47">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2874,7 +2791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="85" priority="45">
+    <cfRule type="expression" dxfId="70" priority="45">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2884,7 +2801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="84" priority="43">
+    <cfRule type="expression" dxfId="69" priority="43">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2894,7 +2811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="83" priority="41">
+    <cfRule type="expression" dxfId="68" priority="41">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2904,7 +2821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="82" priority="39">
+    <cfRule type="expression" dxfId="67" priority="39">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2914,7 +2831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="81" priority="37">
+    <cfRule type="expression" dxfId="66" priority="37">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2924,7 +2841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="80" priority="35">
+    <cfRule type="expression" dxfId="65" priority="35">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2934,7 +2851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="79" priority="33">
+    <cfRule type="expression" dxfId="64" priority="33">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2944,7 +2861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="78" priority="31">
+    <cfRule type="expression" dxfId="63" priority="31">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2954,7 +2871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="77" priority="27">
+    <cfRule type="expression" dxfId="62" priority="27">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2964,7 +2881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="76" priority="25">
+    <cfRule type="expression" dxfId="61" priority="25">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2974,7 +2891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="75" priority="23">
+    <cfRule type="expression" dxfId="60" priority="23">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2984,7 +2901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="74" priority="21">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2994,7 +2911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3004,7 +2921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="72" priority="15">
+    <cfRule type="expression" dxfId="57" priority="15">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3014,7 +2931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="71" priority="13">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3024,7 +2941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3034,7 +2951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3044,7 +2961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3054,7 +2971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3064,7 +2981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3100,7 +3017,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3855,12 +3772,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G1048576 F36:G37 A36:D37">
-    <cfRule type="expression" dxfId="64" priority="35">
+    <cfRule type="expression" dxfId="49" priority="35">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="63" priority="34">
+    <cfRule type="expression" dxfId="48" priority="34">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3870,7 +3787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="47" priority="32">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3880,7 +3797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="61" priority="30">
+    <cfRule type="expression" dxfId="46" priority="30">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3890,7 +3807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3900,7 +3817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="59" priority="26">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3910,7 +3827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="43" priority="24">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3920,7 +3837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3930,7 +3847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="41" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3940,7 +3857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="40" priority="18">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3950,7 +3867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3960,7 +3877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="53" priority="14">
+    <cfRule type="expression" dxfId="38" priority="14">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3970,7 +3887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3980,7 +3897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3990,7 +3907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="50" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4005,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4015,7 +3932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4025,7 +3942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4551,7 +4468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A28:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27">
-    <cfRule type="expression" dxfId="46" priority="69">
+    <cfRule type="expression" dxfId="31" priority="69">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4576,7 +4493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="45" priority="65">
+    <cfRule type="expression" dxfId="30" priority="65">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4586,7 +4503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="44" priority="63">
+    <cfRule type="expression" dxfId="29" priority="63">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4596,7 +4513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="43" priority="61">
+    <cfRule type="expression" dxfId="28" priority="61">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4606,7 +4523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="42" priority="59">
+    <cfRule type="expression" dxfId="27" priority="59">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4616,7 +4533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="41" priority="57">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4626,7 +4543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="40" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4636,7 +4553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="39" priority="51">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,7 +4563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4656,7 +4573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="22" priority="47">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4666,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4676,7 +4593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="20" priority="43">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4686,7 +4603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="34" priority="41">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4696,7 +4613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4706,7 +4623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4716,7 +4633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4726,7 +4643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4736,7 +4653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4746,7 +4663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4756,7 +4673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4766,7 +4683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4776,7 +4693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4786,7 +4703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="24" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4796,7 +4713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4806,7 +4723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4816,7 +4733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4826,7 +4743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4836,7 +4753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4846,7 +4763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4856,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4866,7 +4783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4876,7 +4793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="314">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,808 +221,965 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.utexas.edu/ogs/prospective/stats/</t>
+  </si>
+  <si>
+    <t>2014往届平均：GRE 321。Gpa 3.52，托福104，2012年数据：GRE 155+155+3.7，gpa 3.38，2012年数据详见附件22页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012届平均：GRE 156+160+3.8，gpa 3.54，详见附件22页，附件是官网下载的。邮件中说：不看GRE sub，托福81就行，gpa 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100。Recruitor邮件：我们不能透露往年的成绩信息，入学的学生的成绩相比而言相差也比较多，每年接收一些北大的学生。邮件值得玩味，似乎暗示着入学者成绩参差不齐，邮件原文见附件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北卡教堂山分校 North Carolina at Chapel Hill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.sites.unc.edu/chemistry/</t>
+  </si>
+  <si>
+    <t>3封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.unc.edu/admissions/instructions.html</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.princeton.edu/academics/fields-study/chemistry</t>
+  </si>
+  <si>
+    <t>http://gradschool.princeton.edu/academics/fields-study/chemical-and-biological-engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michigan - Ann Arbor 密西根安娜堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemistry/</t>
+  </si>
+  <si>
+    <t>gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
+  </si>
+  <si>
+    <t>这是一个一年的master项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0，三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA 加州洛杉矶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是chemical biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological chemistry (program in biomedical sciences)PIBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pennsylvania 宾夕法尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
+  </si>
+  <si>
+    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
+  </si>
+  <si>
+    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University 德州农工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
+  </si>
+  <si>
+    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC San Diego  加州大学圣地亚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
+  </si>
+  <si>
+    <t>这是一个joint program联合培养。详细的我正在邮件问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug 1（已过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-biochemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johns Hopkins 约翰霍普金斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.jhu.edu/Graduate/prospective.html</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/phd-requirements/</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/graduate-admissions/</t>
+  </si>
+  <si>
+    <t>官网最下面点开frequently asked questions：托福100，gpa和gre不公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minnesota Twin Cities 明尼苏达双城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：159(v),167(q),4.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cems.umn.edu/graduate/admissions#req</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016000.shtml#gre   化工专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1013500.shtml#gre   生化往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),159(q),4.1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pennsylvania State University - University Park 宾州州立大学，大学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，上一届平均gpa 3.7，GRE 78%(v),83%(q),65%(writing),GRE chemistry sub 740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。网站说的很清楚。邮件中透露的：首先是每年只收8名国际学生，竞争非常激烈，几乎必须有至少一篇论文刊登过，往届托福100，GRE总分&gt;75%，gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。邮件中说：他们很看重北大毕业的学生，托福口语必须23，gpa 3.5左右就行，以及不错的GRE分数（sub也要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
+  </si>
+  <si>
+    <t>GRE sub必须，托福至少100.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.ucla.edu/how-apply#international</t>
+  </si>
+  <si>
+    <t>askgrad@chem.psu.edu</t>
+  </si>
+  <si>
+    <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>http://www.che.psu.edu/grad/prospective/apply/index.htm?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>ChemEng@psu.edu</t>
+  </si>
+  <si>
+    <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue University, West Lafayette 普渡 - 西拉法叶（即主校区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/chem.html</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.不要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/che.html</t>
+  </si>
+  <si>
+    <t>chegrad@ecn.purdue.edu</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSF University of California, San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校性要求：gpa 3.0，一个人只能申请一个项目，托福80.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>julia.molla@ucsf.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://graduate.ucsf.edu/program-administrators  几乎什么信息都没有，似乎他们这儿都没有化学系。。正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福92，口语26。GRE sub不需要。往届平均gpa 3.7，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradprogram@chem.washington.edu</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=202</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=201</t>
+  </si>
+  <si>
+    <t>grad.admissions@cheme.washington.edu</t>
+  </si>
+  <si>
+    <t>gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福写作20，听力15，阅读20，口语22，往届平均gpa 3.3，平均GRE 310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法。邮件中说：不提供gpa和GRE平均，会整体衡量学生表现，某一方面很强的话可以弥补其他方面的不足，仍然得到录取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。往届平均：gpa 3.78，GRE quantitative 83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。TOEFL 100.需要sub，gpa 3.0，往届90%的学生的GRE quantitative 155以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求本科学位是Chemical Engineering，否则要联系院系申请。邮件：化学的学位也可以，最好学过以下课程：calculus/differential equations, linear algebra, transport, thermodynamics and physics，往届gpa平均3.8.硬性要求：GRE quantitative必须159，托福92.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemgradinfo@ucsd.edu</t>
+  </si>
+  <si>
+    <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0，托福92，申请phD非常看重研究经历和论文发表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校的研究生院统一招生，招生权力不在院系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要GRE sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Tech  佐治亚理工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/enve</t>
+  </si>
+  <si>
+    <t>托福79，GRE quantitative 155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目叫Chemistry and Biochemistry，其实有一些国外的研究生院化学系就叫“化学与生物化学”，是合并的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/chem</t>
+  </si>
+  <si>
+    <t>grad.info@chemistry.gatech.edu</t>
+  </si>
+  <si>
+    <t>这个项目叫 Chemical and Biomolecular Engineering，可能不是纯粹的化工。有一些其他学校也是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gradadmiss.gatech.edu/che</t>
+  </si>
+  <si>
+    <t>托福85，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>janice.whatley@chbe.gatech.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohio State University - Columbus  俄亥俄州立大学，哥伦布研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hambach.2@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福79，往届GRE 76%(q),66%(v),50%(w)，GPA 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.osu.edu/graduate/faqs</t>
+  </si>
+  <si>
+    <t>cbe-grad@osu.edu     bennett.234@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cbe.osu.edu/ph.d.-application-requirements</t>
+  </si>
+  <si>
+    <t>enviro@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://esgp.osu.edu/prospective/admissions</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面专业方向涵盖Environmental Chemistry，觉得应该比较对口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado - Boulder  科罗拉多大学波尔德分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目叫Chemistry and Biochemistry，是合并的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemgrad@colorado.edu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/admissions/graduate/programs/chemical</t>
+  </si>
+  <si>
+    <t>要求gpa 3.25，三封推荐信，托福100，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chbegrad@colorado.edu</t>
+  </si>
+  <si>
+    <t>Environmental Studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/admissions/graduate/programs/envstudies</t>
+  </si>
+  <si>
+    <t>envsgrad@colorado.edu</t>
+  </si>
+  <si>
+    <t>3封推荐信，gpa 3.0，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎更强调解决实际环境问题的能力，不是特别科研的一个项目（有硕士也有博士，似乎有的比较好申请，就属于那种不是特别科研的似乎）正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCI   University of California - Irvine  加州大学欧文分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.uci.edu/graduate/apply</t>
+  </si>
+  <si>
+    <t>chemgrad@chem.ps.uci.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/chemical-and-biochemical-engineering</t>
+  </si>
+  <si>
+    <t>chaug@uci.edu</t>
+  </si>
+  <si>
+    <t>Material Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/materials-science-and-engineering</t>
+  </si>
+  <si>
+    <t>邮件中说：总体GPA&gt;3.0，Science GPA（指的是专业课程？）&gt;3.1才能当助教；托福&gt;80，口语26能当助教；如果想申请有机方向，GRE&gt;70%能保有竞争力；无机和物化方向&gt;50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chem.colorado.edu/index.php?option=com_content&amp;view=article&amp;id=323&amp;Itemid=164</t>
+  </si>
+  <si>
+    <t>三封推荐信，有研究经历会很好；托福100，往届GRE平均85%-98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：上一届GRE平均162.7(q),156.4(v),4.03；平均GPA 3.56。如果GPA&gt;3.7听她的语气应该是会很有优势。托福80，口语26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan 4 (但是邮件中说最好12月就提交，可能录取有几批，想让你尽量都在第一批的时候提交)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，gpa&gt;3.0;GRE&gt;311,writing&gt;3.5;托福79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福总分100，口语23.邮件说：往届GPA平均3.4，GRE平均155(v),162(q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往届平均 GPA 3.5，或者排名前12%，托福往届平均107。GRE 158(v),160(q),4就会被认为很好。GRE平均分在网页上也有，（v:72%, q:94%, w:3.75）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是一个生物和化学结合的项目，不是纯化学的。邮件也说了，UCSF没有纯化学专业，都是和 human biology and health care 结合的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：非chemical engineering专业的学生申请起来会非常困难，但是也不是不可能。GRE两大项加起来&gt;300,写作4.0；往届GPA 3.5，如果是有奖学金的phD平均3.8，托福100.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbates@chemistry.ohio-state.edu</t>
+  </si>
+  <si>
+    <t>托福79，GPA 3.0，需要证明有能力支付30万人民币的学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他重要网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100，邮件说往届GRE总分304-320，GPA 3.6。GRE sub不要求，他说很多申请者也没有去考。邮件中提到如果你能事先联系这边的老师详细交流，得到认可，那么就会有更大的概率。他说很推荐这么做，看起来可能绝大多数往届录取的国际学生都是这么做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indiana University Bloomington 印第安纳大学伯明顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.indiana.edu/graduate/admission/international.asp</t>
+  </si>
+  <si>
+    <t>托福100，三封推荐信，推荐参加 Test of Spoken English (TSE)。GRE硬性要求151(v),150(q),4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemgrad@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求80，平均是100.老GRE的平均分是1350(q+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bchem@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Chemistry, Toxicology, and Risk Assessment</t>
+  </si>
+  <si>
+    <t>硕士项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spea.indiana.edu/masters/apply/index.html?apply-select-program=MSES+%28Environmental+Science%29&amp;apply-select-type=International#drop</t>
+  </si>
+  <si>
+    <t>speaapps@indiana.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington University in Santa. Louis  华盛顿大学 - 圣路易斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称  Energy, Environmental &amp; Chemical Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eece.wustl.edu/graduateprograms/Pages/phd-eece.aspx  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbaxter@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interdisciplinary PhD in Materials Science &amp; Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://imse.wustl.edu/program/how-apply  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgartin@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.wustl.edu/graduate/prospectivestudents  几乎没什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loomis@wustl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice University  莱斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.rice.edu/Content.aspx?id=233</t>
+  </si>
+  <si>
+    <t>gradchem@rice.edu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chbe.rice.edu/Content.aspx?id=2147484197</t>
+  </si>
+  <si>
+    <t>项目全称 Chemical and Biomolecular Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chbe@rice.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California - Santa Barbara  UCSB 圣巴巴拉加州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/9</t>
+  </si>
+  <si>
+    <t>gradprog@chem.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/10</t>
+  </si>
+  <si>
+    <t>chegrads@engineering.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/51</t>
+  </si>
+  <si>
+    <t>博士硕士都有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admissions@bren.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Science &amp; Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.graddiv.ucsb.edu/departments/view/34</t>
+  </si>
+  <si>
+    <t>mtrl-application@engineering.ucsb.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Florida  弗罗里达大学  UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看了2015届的新生花名册，中国学生很多。占全班的1/4左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福80，GRE verbal 140（硬性要求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.ufl.edu/grad/apply.shtml</t>
+  </si>
+  <si>
+    <t>bwsmith@ufl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.che.ufl.edu/Pro_Grad_Std.htm#Admission_Policy</t>
+  </si>
+  <si>
+    <t>http://www.essie.ufl.edu/student_resources/admissions/graduate/</t>
+  </si>
+  <si>
+    <t>Material Science and Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lharm@mse.ufl.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mse.ufl.edu/admissions/graduate/phd/</t>
+  </si>
+  <si>
+    <t>Environmental Engineering Sciences (EES)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管招生的华裔教授：cywu@essie.ufl.edu     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中说：不是院系去选学生，而是有招生资格的教授自己选。所以说你如果事先联系好了教授，得到认可，几乎十拿九稳。我是这么理解的，详见附件，邮件全文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Utah  犹他大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.utah.edu/graduate/application.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhoovey@chem.utah.edu   a.petres@utah.edu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.che.utah.edu/graduate/admissions/</t>
+  </si>
+  <si>
+    <t>网页既包含博士信息又包含硕士，Excel中写的要求都是博士的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradprogram@che.utah.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福&gt;96,gpa&gt;3.3,GRE q&gt;160是favorable的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://icmb.utexas.edu/biochemistry/prospective-students/admission-requirements</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/ogs/prospective/stats/</t>
-  </si>
-  <si>
-    <t>2014往届平均：GRE 321。Gpa 3.52，托福104，2012年数据：GRE 155+155+3.7，gpa 3.38，2012年数据详见附件22页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012届平均：GRE 156+160+3.8，gpa 3.54，详见附件22页，附件是官网下载的。邮件中说：不看GRE sub，托福81就行，gpa 3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福100。Recruitor邮件：我们不能透露往年的成绩信息，入学的学生的成绩相比而言相差也比较多，每年接收一些北大的学生。邮件值得玩味，似乎暗示着入学者成绩参差不齐，邮件原文见附件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北卡教堂山分校 North Carolina at Chapel Hill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.sites.unc.edu/chemistry/</t>
-  </si>
-  <si>
-    <t>3封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradschool.sites.unc.edu/biological-and-biomedical-sciences/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_biology/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry_pibs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0117&amp;academicyear=20162017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/12/1  （邮件中说他们今年不再招生了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cbi.jhu.edu/admissions.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cbs.umn.edu/academics/departments/bmbb/graduate-program/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/bchm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.osu.edu/graduate/biochemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hambach.2@osu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.indiana.edu/~mcbdept/graduate/prospective.shtml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://gradschool.unc.edu/admissions/instructions.html</t>
-  </si>
-  <si>
-    <t>http://gradschool.sites.unc.edu/biological-and-biomedical-sciences/</t>
-  </si>
-  <si>
-    <t>Princeton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gradschool.princeton.edu/academics/fields-study/chemistry</t>
-  </si>
-  <si>
-    <t>http://gradschool.princeton.edu/academics/fields-study/chemical-and-biological-engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michigan - Ann Arbor 密西根安娜堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemistry/</t>
-  </si>
-  <si>
-    <t>gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_biology/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry/</t>
-  </si>
-  <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/biological_chemistry_pibs/</t>
-  </si>
-  <si>
-    <t>这是一个一年的master项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa 3.0，三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.chembio.umich.edu/apply/</t>
-  </si>
-  <si>
-    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLA 加州洛杉矶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0117&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是chemical biology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biological chemistry (program in biomedical sciences)PIBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Pennsylvania 宾夕法尼亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
-  </si>
-  <si>
-    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
-  </si>
-  <si>
-    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University 德州农工大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
-  </si>
-  <si>
-    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC San Diego  加州大学圣地亚哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
-  </si>
-  <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
-  </si>
-  <si>
-    <t>这是一个joint program联合培养。详细的我正在邮件问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug 1（已过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemistry-biochemistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johns Hopkins 约翰霍普金斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chemistry.jhu.edu/Graduate/prospective.html</t>
-  </si>
-  <si>
-    <t>http://engineering.jhu.edu/chembe/graduate-studies/phd-requirements/</t>
-  </si>
-  <si>
-    <t>http://engineering.jhu.edu/chembe/graduate-studies/graduate-admissions/</t>
-  </si>
-  <si>
-    <t>官网最下面点开frequently asked questions：托福100，gpa和gre不公布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cbi.jhu.edu/admissions.html</t>
-  </si>
-  <si>
-    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minnesota Twin Cities 明尼苏达双城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：159(v),167(q),4.2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cems.umn.edu/graduate/admissions#req</t>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1016000.shtml#gre   化工专业往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cbs.umn.edu/academics/departments/bmbb/graduate-program/admissions</t>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1013500.shtml#gre   生化往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),159(q),4.1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pennsylvania State University - University Park 宾州州立大学，大学园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信，上一届平均gpa 3.7，GRE 78%(v),83%(q),65%(writing),GRE chemistry sub 740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。网站说的很清楚。邮件中透露的：首先是每年只收8名国际学生，竞争非常激烈，几乎必须有至少一篇论文刊登过，往届托福100，GRE总分&gt;75%，gpa 3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。邮件中说：他们很看重北大毕业的学生，托福口语必须23，gpa 3.5左右就行，以及不错的GRE分数（sub也要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
-  </si>
-  <si>
-    <t>2015/12/1  （邮件中说他们今年不再招生了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE sub必须，托福至少100.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chemistry.ucla.edu/how-apply#international</t>
-  </si>
-  <si>
-    <t>askgrad@chem.psu.edu</t>
-  </si>
-  <si>
-    <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
-  </si>
-  <si>
-    <t>http://www.che.psu.edu/grad/prospective/apply/index.htm?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
-  </si>
-  <si>
-    <t>ChemEng@psu.edu</t>
-  </si>
-  <si>
-    <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purdue University, West Lafayette 普渡 - 西拉法叶（即主校区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/chem.html</t>
-  </si>
-  <si>
-    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.不要求GRE，gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/che.html</t>
-  </si>
-  <si>
-    <t>chegrad@ecn.purdue.edu</t>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/bchm.html</t>
-  </si>
-  <si>
-    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lauren.mcghee@jhu.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biochemistry-admissions@purdue.edu</t>
-  </si>
-  <si>
-    <t>UCSF University of California, San Francisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校性要求：gpa 3.0，一个人只能申请一个项目，托福80.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>julia.molla@ucsf.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://graduate.ucsf.edu/program-administrators  几乎什么信息都没有，似乎他们这儿都没有化学系。。正在邮件询问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Washington</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福92，口语26。GRE sub不需要。往届平均gpa 3.7，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gradprogram@chem.washington.edu</t>
-  </si>
-  <si>
-    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=202</t>
-  </si>
-  <si>
-    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=201</t>
-  </si>
-  <si>
-    <t>grad.admissions@cheme.washington.edu</t>
-  </si>
-  <si>
-    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biochem@uw.edu</t>
-  </si>
-  <si>
-    <t>gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福写作20，听力15，阅读20，口语22，往届平均gpa 3.3，平均GRE 310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须提前联系导师，托福90，gpa按学校为准，不要换算成美式的4.0满分记分法。邮件中说：不提供gpa和GRE平均，会整体衡量学生表现，某一方面很强的话可以弥补其他方面的不足，仍然得到录取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福要求写作25，口语25，阅读21，听力17。三封推荐信，要求GRE chemistry sub。往届平均：gpa 3.78，GRE quantitative 83%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。TOEFL 100.需要sub，gpa 3.0，往届90%的学生的GRE quantitative 155以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求本科学位是Chemical Engineering，否则要联系院系申请。邮件：化学的学位也可以，最好学过以下课程：calculus/differential equations, linear algebra, transport, thermodynamics and physics，往届gpa平均3.8.硬性要求：GRE quantitative必须159，托福92.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chemgradinfo@ucsd.edu</t>
-  </si>
-  <si>
-    <t>这个叫“Chemistry &amp; Biochemistry”，下面设有一些纯化学和生化交叉的方向。详见网页.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa 3.0，托福92，申请phD非常看重研究经历和论文发表。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lauren.mcghee@jhu.edu</t>
-  </si>
-  <si>
-    <t>全校的研究生院统一招生，招生权力不在院系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要GRE sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Georgia Tech  佐治亚理工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environmental Engineering</t>
-  </si>
-  <si>
-    <t>http://www.gradadmiss.gatech.edu/enve</t>
-  </si>
-  <si>
-    <t>托福79，GRE quantitative 155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个项目叫Chemistry and Biochemistry，其实有一些国外的研究生院化学系就叫“化学与生物化学”，是合并的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gradadmiss.gatech.edu/chem</t>
-  </si>
-  <si>
-    <t>grad.info@chemistry.gatech.edu</t>
-  </si>
-  <si>
-    <t>这个项目叫 Chemical and Biomolecular Engineering，可能不是纯粹的化工。有一些其他学校也是这样的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gradadmiss.gatech.edu/che</t>
-  </si>
-  <si>
-    <t>托福85，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>janice.whatley@chbe.gatech.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohio State University - Columbus  俄亥俄州立大学，哥伦布研究生院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有硕士项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chemistry.osu.edu/graduate/biochemistry</t>
-  </si>
-  <si>
-    <t>hambach.2@osu.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福79，往届GRE 76%(q),66%(v),50%(w)，GPA 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chemistry.osu.edu/graduate/faqs</t>
-  </si>
-  <si>
-    <t>cbe-grad@osu.edu     bennett.234@osu.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cbe.osu.edu/ph.d.-application-requirements</t>
-  </si>
-  <si>
-    <t>enviro@osu.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://esgp.osu.edu/prospective/admissions</t>
-  </si>
-  <si>
-    <t>Environmental Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个里面专业方向涵盖Environmental Chemistry，觉得应该比较对口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Colorado - Boulder  科罗拉多大学波尔德分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个项目叫Chemistry and Biochemistry，是合并的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chemgrad@colorado.edu </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.colorado.edu/admissions/graduate/programs/chemical</t>
-  </si>
-  <si>
-    <t>要求gpa 3.25，三封推荐信，托福100，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chbegrad@colorado.edu</t>
-  </si>
-  <si>
-    <t>Environmental Studies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.colorado.edu/admissions/graduate/programs/envstudies</t>
-  </si>
-  <si>
-    <t>envsgrad@colorado.edu</t>
-  </si>
-  <si>
-    <t>3封推荐信，gpa 3.0，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>似乎更强调解决实际环境问题的能力，不是特别科研的一个项目（有硕士也有博士，似乎有的比较好申请，就属于那种不是特别科研的似乎）正在邮件询问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCI   University of California - Irvine  加州大学欧文分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.uci.edu/graduate/apply</t>
-  </si>
-  <si>
-    <t>chemgrad@chem.ps.uci.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/chemical-and-biochemical-engineering</t>
-  </si>
-  <si>
-    <t>chaug@uci.edu</t>
-  </si>
-  <si>
-    <t>Material Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eng.uci.edu/admissions/graduate/programs-and-concentrations/materials-science-and-engineering</t>
-  </si>
-  <si>
-    <t>邮件中说：总体GPA&gt;3.0，Science GPA（指的是专业课程？）&gt;3.1才能当助教；托福&gt;80，口语26能当助教；如果想申请有机方向，GRE&gt;70%能保有竞争力；无机和物化方向&gt;50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chem.colorado.edu/index.php?option=com_content&amp;view=article&amp;id=323&amp;Itemid=164</t>
-  </si>
-  <si>
-    <t>三封推荐信，有研究经历会很好；托福100，往届GRE平均85%-98%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件中说：上一届GRE平均162.7(q),156.4(v),4.03；平均GPA 3.56。如果GPA&gt;3.7听她的语气应该是会很有优势。托福80，口语26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan 4 (但是邮件中说最好12月就提交，可能录取有几批，想让你尽量都在第一批的时候提交)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信，gpa&gt;3.0;GRE&gt;311,writing&gt;3.5;托福79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福总分100，口语23.邮件说：往届GPA平均3.4，GRE平均155(v),162(q)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往届平均 GPA 3.5，或者排名前12%，托福往届平均107。GRE 158(v),160(q),4就会被认为很好。GRE平均分在网页上也有，（v:72%, q:94%, w:3.75）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是一个生物和化学结合的项目，不是纯化学的。邮件也说了，UCSF没有纯化学专业，都是和 human biology and health care 结合的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件中说：非chemical engineering专业的学生申请起来会非常困难，但是也不是不可能。GRE两大项加起来&gt;300,写作4.0；往届GPA 3.5，如果是有奖学金的phD平均3.8，托福100.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是硕士项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jbates@chemistry.ohio-state.edu</t>
-  </si>
-  <si>
-    <t>托福79，GPA 3.0，需要证明有能力支付30万人民币的学费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他重要网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福100，邮件说往届GRE总分304-320，GPA 3.6。GRE sub不要求，他说很多申请者也没有去考。邮件中提到如果你能事先联系这边的老师详细交流，得到认可，那么就会有更大的概率。他说很推荐这么做，看起来可能绝大多数往届录取的国际学生都是这么做的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indiana University Bloomington 印第安纳大学伯明顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.indiana.edu/graduate/admission/international.asp</t>
-  </si>
-  <si>
-    <t>托福100，三封推荐信，推荐参加 Test of Spoken English (TSE)。GRE硬性要求151(v),150(q),4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chemgrad@indiana.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福要求80，平均是100.老GRE的平均分是1350(q+v)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bchem@indiana.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.indiana.edu/~mcbdept/graduate/prospective.shtml</t>
-  </si>
-  <si>
-    <t>Environmental Chemistry, Toxicology, and Risk Assessment</t>
-  </si>
-  <si>
-    <t>硕士项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://spea.indiana.edu/masters/apply/index.html?apply-select-program=MSES+%28Environmental+Science%29&amp;apply-select-type=International#drop</t>
-  </si>
-  <si>
-    <t>speaapps@indiana.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Washington University in Santa. Louis  华盛顿大学 - 圣路易斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目全称  Energy, Environmental &amp; Chemical Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://eece.wustl.edu/graduateprograms/Pages/phd-eece.aspx  几乎没什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbaxter@wustl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interdisciplinary PhD in Materials Science &amp; Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://imse.wustl.edu/program/how-apply  几乎没什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgartin@wustl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chemistry.wustl.edu/graduate/prospectivestudents  几乎没什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loomis@wustl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice University  莱斯大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chemistry.rice.edu/Content.aspx?id=233</t>
-  </si>
-  <si>
-    <t>gradchem@rice.edu </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chbe.rice.edu/Content.aspx?id=2147484197</t>
-  </si>
-  <si>
-    <t>项目全称 Chemical and Biomolecular Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chbe@rice.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California - Santa Barbara  UCSB 圣巴巴拉加州大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.graddiv.ucsb.edu/departments/view/9</t>
-  </si>
-  <si>
-    <t>gradprog@chem.ucsb.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.graddiv.ucsb.edu/departments/view/10</t>
-  </si>
-  <si>
-    <t>chegrads@engineering.ucsb.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.graddiv.ucsb.edu/departments/view/51</t>
-  </si>
-  <si>
-    <t>博士硕士都有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admissions@bren.ucsb.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environmental Science &amp; Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.graddiv.ucsb.edu/departments/view/34</t>
-  </si>
-  <si>
-    <t>mtrl-application@engineering.ucsb.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Materials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Florida  弗罗里达大学  UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我看了2015届的新生花名册，中国学生很多。占全班的1/4左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福80，GRE verbal 140（硬性要求）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.ufl.edu/grad/apply.shtml</t>
-  </si>
-  <si>
-    <t>bwsmith@ufl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.che.ufl.edu/Pro_Grad_Std.htm#Admission_Policy</t>
-  </si>
-  <si>
-    <t>http://www.essie.ufl.edu/student_resources/admissions/graduate/</t>
-  </si>
-  <si>
-    <t>Material Science and Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lharm@mse.ufl.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mse.ufl.edu/admissions/graduate/phd/</t>
-  </si>
-  <si>
-    <t>Environmental Engineering Sciences (EES)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">管招生的华裔教授：cywu@essie.ufl.edu     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件中说：不是院系去选学生，而是有招生资格的教授自己选。所以说你如果事先联系好了教授，得到认可，几乎十拿九稳。我是这么理解的，详见附件，邮件全文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bioscience.utah.edu/prospective/guidelines.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fstirling@genetics.utah.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Maryland - College Park  马里兰大学 - 大学园研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehontz@umd.edu</t>
+  </si>
+  <si>
+    <t>dcanter@umd.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chbegrad@umd.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chbe.umd.edu/graduate/admissions</t>
+  </si>
+  <si>
+    <t>UC Davis (University of California - Davis)  加州大学戴维斯研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradstudies.ucdavis.edu/programs/gche</t>
+  </si>
+  <si>
+    <t>bwolf@ucdavis.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradstudies.ucdavis.edu/programs/gech</t>
+  </si>
+  <si>
+    <t>albartolomucci@ucdavis.edu   dsnyder@ucdavis.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradstudies.ucdavis.edu/programs/gbcb</t>
+  </si>
+  <si>
+    <t>eckent@ucdavis.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称“Biochemistry, Molecular, Cellular and Developmental Biology”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials Science and Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradstudies.ucdavis.edu/programs/gems</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福100，每项都不低于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec 15（但是越早越好）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradadm@pitt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.pitt.edu/graduate/how-apply</t>
+  </si>
+  <si>
+    <t>分为两个项目Chemical Engineering 和 Petroleum Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.engineering.pitt.edu/Departments/Chemical-Petroleum/_Content/Graduate/Chemical-and-Petroleum-Engineering-Graduate-Admissions/</t>
+  </si>
+  <si>
+    <t>http://www.engineering.pitt.edu/Departments/Chemical-Petroleum/_Content/Graduate/Non-Traditional-Students---Students-with-Non-chemical-Engineering-BS-Degree---MS-and-PhD-Degree-Requirements/</t>
+  </si>
+  <si>
+    <t>有竞争力的GRE q:151-166, writing 4.5-5.5。托福100. 你属于"non_traditional students"，就是说你本科不是Chemical Engineering的，所以你需要gpa&gt;3.4，并且在入学前上两门网上课程并在考试中得到B或以上的分数。详见左侧的网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1252,364 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="122">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1436,111 +1950,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2058,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2098,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2126,19 +2535,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E3" s="4">
         <v>42353</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2146,23 +2555,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2170,25 +2579,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2196,17 +2605,17 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2214,22 +2623,22 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E7" s="4">
         <v>42036</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2237,16 +2646,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2254,22 +2663,22 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2277,22 +2686,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -2300,22 +2709,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2323,154 +2732,194 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42019</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="31" stopIfTrue="1">
+    <cfRule type="expression" priority="35" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A13:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 C11:E12 H12">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A14:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A13:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 C11:E12 H12">
-    <cfRule type="expression" dxfId="85" priority="29">
+  <conditionalFormatting sqref="A1:H1 A14:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13">
+    <cfRule type="expression" dxfId="121" priority="33">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="84" priority="24">
+    <cfRule type="expression" dxfId="120" priority="28">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="119" priority="25">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+    <cfRule type="expression" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="118" priority="23">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="83" priority="21">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="117" priority="21">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="82" priority="19">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="116" priority="19">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="81" priority="17">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="115" priority="17">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="80" priority="15">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="114" priority="15">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="79" priority="13">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="113" priority="13">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="78" priority="11">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="112" priority="11">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="77" priority="9">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:B10">
+    <cfRule type="expression" dxfId="111" priority="9">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="76" priority="7">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A11:B12">
+    <cfRule type="expression" dxfId="110" priority="7">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="75" priority="5">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="109" priority="5">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="74" priority="3">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="73" priority="1">
-      <formula>MOD(ROW($A12),2)</formula>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2493,7 +2942,7 @@
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
     <col min="6" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2505,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -2517,7 +2966,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -2528,14 +2977,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2544,19 +2992,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2564,22 +3012,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2587,19 +3035,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2607,16 +3055,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2624,16 +3072,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2641,19 +3089,19 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -2661,22 +3109,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2684,19 +3132,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2704,19 +3152,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>155</v>
+      <c r="E11" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2724,17 +3172,17 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2742,282 +3190,350 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>229</v>
+      <c r="E13" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW($A1048575),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A1:G1 A17:G1048576 C15:G16">
+    <cfRule type="expression" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A17:G1048576 A1:G1 C15:G16">
+    <cfRule type="expression" dxfId="45" priority="62">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
     <cfRule type="expression" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW($A1048575),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A15:G1048576 F13:G13 C14:G14">
-    <cfRule type="expression" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 F13:G13 A15:G1048576">
-    <cfRule type="expression" dxfId="72" priority="54">
-      <formula>MOD(ROW($A1),2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="44" priority="55">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="42" priority="51">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="108" priority="49">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="71" priority="47">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="70" priority="45">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="107" priority="45">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="69" priority="43">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="40" priority="43">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="68" priority="41">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="106" priority="41">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="67" priority="39">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="66" priority="37">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="65" priority="35">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="105" priority="35">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="64" priority="33">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="38" priority="33">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="63" priority="31">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="62" priority="27">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8:G8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="104" priority="31">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8:G8">
-    <cfRule type="expression" dxfId="61" priority="25">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="103" priority="25">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="60" priority="23">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="47" priority="23">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="59" priority="21">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="102" priority="21">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="36" priority="19">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="58" priority="17">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="35" priority="17">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="57" priority="15">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="101" priority="15">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="56" priority="13">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="34" priority="13">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="55" priority="11">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="54" priority="9">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A13:D13">
+    <cfRule type="expression" dxfId="46" priority="11">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="53" priority="7">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12">
-    <cfRule type="expression" dxfId="52" priority="5">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="51" priority="3">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="78" id="{4A7D7024-A29F-4B97-93FD-C0AF66C76E8D}">
-            <xm:f>MOD(ROW(化工!$A25),2)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C14:G14</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3044,13 +3560,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3143,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3179,7 +3695,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -3215,7 +3731,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -3233,7 +3749,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -3244,7 +3760,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4">
         <v>42339</v>
@@ -3253,7 +3769,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3286,7 +3802,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3294,19 +3810,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="4">
         <v>42353</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3314,20 +3830,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3335,17 +3851,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <v>42353</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3353,19 +3869,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4">
         <v>42339</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3373,17 +3889,17 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4">
         <v>42353</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3391,19 +3907,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4">
         <v>42353</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3411,16 +3927,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3428,22 +3944,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
         <v>42019</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -3451,10 +3967,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>42019</v>
@@ -3466,19 +3982,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D24" s="4">
         <v>42009</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -3486,19 +4002,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D25" s="4">
         <v>42349</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -3506,17 +4022,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4">
         <v>42005</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -3524,19 +4040,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3544,19 +4060,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -3564,22 +4080,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D29" s="4">
         <v>42019</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3587,19 +4103,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D30" s="4">
         <v>42353</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3607,19 +4123,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D31" s="4">
         <v>42353</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3627,22 +4143,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -3650,19 +4166,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D33" s="4">
         <v>42339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3670,19 +4186,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D34" s="4">
         <v>42339</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3690,13 +4206,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3704,16 +4220,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D36" s="4">
         <v>42358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3721,19 +4237,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
-      <c r="E37" t="s">
-        <v>253</v>
+      <c r="E37" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3741,22 +4257,90 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
-      <c r="E38" t="s">
-        <v>267</v>
+      <c r="E38" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3766,18 +4350,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G1048576 F36:G37 A36:D37">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G1048576 A42:D42 F42:G42">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G1048576 F36:G37 A36:D37">
-    <cfRule type="expression" dxfId="49" priority="35">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G1048576 A42:D42 F42:G42">
+    <cfRule type="expression" dxfId="100" priority="35">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="99" priority="34">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3787,7 +4371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="47" priority="32">
+    <cfRule type="expression" dxfId="98" priority="32">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3797,7 +4381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="46" priority="30">
+    <cfRule type="expression" dxfId="97" priority="30">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3807,7 +4391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="96" priority="28">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3817,7 +4401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="44" priority="26">
+    <cfRule type="expression" dxfId="95" priority="26">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3827,7 +4411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="94" priority="24">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3837,7 +4421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="93" priority="22">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,7 +4431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="41" priority="20">
+    <cfRule type="expression" dxfId="92" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3857,7 +4441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="40" priority="18">
+    <cfRule type="expression" dxfId="91" priority="18">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3867,7 +4451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="90" priority="16">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3877,7 +4461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="89" priority="14">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3887,7 +4471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="88" priority="12">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3897,7 +4481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="87" priority="10">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3907,7 +4491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="86" priority="8">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,7 +4506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="85" priority="5">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3932,7 +4516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3942,21 +4526,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E42" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3990,7 +4577,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4044,7 +4631,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4117,10 +4704,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D9" s="4">
         <v>42353</v>
@@ -4131,16 +4718,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
         <v>42353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4148,16 +4735,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4">
         <v>42384</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4165,14 +4752,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4180,16 +4767,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4">
         <v>42353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -4197,16 +4784,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4">
         <v>42353</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4214,19 +4801,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D15" s="4">
         <v>42009</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4234,19 +4821,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D16" s="4">
         <v>42005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4254,19 +4841,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4">
         <v>42012</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4274,19 +4861,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D18" s="4">
         <v>42353</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
@@ -4294,19 +4881,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D19" s="4">
         <v>42005</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4314,22 +4901,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D20" s="4">
         <v>42036</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4337,19 +4924,19 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D21" s="4">
         <v>42338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4357,19 +4944,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -4377,16 +4964,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4394,16 +4981,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4411,19 +4998,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4">
         <v>42014</v>
       </c>
-      <c r="E25" t="s">
-        <v>249</v>
+      <c r="E25" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4431,16 +5018,16 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
-      <c r="E26" t="s">
-        <v>255</v>
+      <c r="E26" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4448,353 +5035,483 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>265</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="4">
+        <v>42064</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A28:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A32:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G31">
+    <cfRule type="expression" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A32:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G31">
+    <cfRule type="expression" dxfId="82" priority="79">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="81" priority="75">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="80" priority="73">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="79" priority="71">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="70" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A28:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27">
-    <cfRule type="expression" dxfId="31" priority="69">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="73" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="74" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="81" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" priority="66" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="30" priority="65">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="78" priority="69">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="77" priority="67">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="29" priority="63">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="76" priority="63">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="28" priority="61">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="75" priority="61">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="27" priority="59">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="74" priority="59">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="26" priority="57">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="73" priority="57">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="72" priority="55">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="25" priority="53">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="71" priority="53">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="24" priority="51">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="70" priority="51">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="23" priority="49">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="69" priority="49">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="22" priority="47">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="68" priority="47">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="21" priority="45">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="67" priority="45">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="20" priority="43">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="66" priority="43">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="19" priority="41">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="18" priority="39">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="65" priority="41">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="17" priority="37">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="64" priority="37">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="16" priority="35">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="63" priority="35">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="15" priority="33">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="62" priority="33">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="14" priority="31">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="61" priority="31">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="60" priority="29">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="13" priority="27">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="59" priority="27">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="12" priority="25">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="58" priority="25">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="11" priority="23">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="57" priority="23">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="56" priority="21">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="9" priority="19">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="55" priority="19">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="54" priority="17">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="53" priority="15">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="52" priority="13">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="51" priority="11">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="50" priority="9">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="49" priority="7">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="A29:B29">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>MOD(ROW($A29),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW($A27),2)</formula>
+  <conditionalFormatting sqref="A31:B31">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="340">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,10 +1150,6 @@
     <t>https://gradstudies.ucdavis.edu/programs/gems</t>
   </si>
   <si>
-    <t>University of Pittsburgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福100，每项都不低于22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,6 +1177,106 @@
   <si>
     <t>有竞争力的GRE q:151-166, writing 4.5-5.5。托福100. 你属于"non_traditional students"，就是说你本科不是Chemical Engineering的，所以你需要gpa&gt;3.4，并且在入学前上两门网上课程并在考试中得到B或以上的分数。详见左侧的网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laney Grad School, Emory University   埃默里大学 莱尼研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE sub不要求，如果要提交就在“Additional Information”里面提交。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradchem@emory.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chemistry.emory.edu/home/graduate/prospectives/index.html</t>
+  </si>
+  <si>
+    <t>Michigan State University  密西根州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa&gt;3.5是最好的，但是同时也要看本科院校的知名度，所以说北大毕业的背景会有帮助。大多数录取的学生GRE q&gt;70%,v&gt;40%,writing 3.0。强烈建议国际学生给出GRE sub的分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chemistry.msu.edu/graduate-program/prospective-students/</t>
+  </si>
+  <si>
+    <t>chemistryadmissions@chemistry.msu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pittsburgh  匹兹堡大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pittsburgh   匹兹堡大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chems.msu.edu/academics/graduate/how-to-apply</t>
+  </si>
+  <si>
+    <t>如果录取了或是类似初审通过了或者可能是只要你申请了就会被邀请参加一个在北京的由MSU组织的口语考试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSU - Michigan State University  密西根州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grad_rec@egr.msu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录取的学生平均GRE q:158,v:153,a:3.5。网页上都有说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biomolsci_msu@cns.msu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bmb.natsci.msu.edu/graduate-program/for-prospective-students/     这上没什么招生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Arizona  亚利桑那大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://grad.arizona.edu/programs/programinfo/CHEMPHD</t>
+  </si>
+  <si>
+    <t>lboyd@email.arizona.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://grad.arizona.edu/programs/programinfo/CHEPHD</t>
+  </si>
+  <si>
+    <t>dab@email.arizona.edu</t>
+  </si>
+  <si>
+    <t>dab@email.arizona.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://grad.arizona.edu/programs/programinfo/BIOCPHD</t>
+  </si>
+  <si>
+    <t>托福80，口语24.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士硕士都有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://grad.arizona.edu/programs/programinfo/EENPHD</t>
   </si>
 </sst>
 </file>
@@ -1246,244 +1342,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="122">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill>
@@ -1950,6 +1817,146 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2467,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2770,156 +2777,189 @@
         <v>299</v>
       </c>
     </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42035</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="35" stopIfTrue="1">
+    <cfRule type="expression" priority="39" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A14:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13">
-    <cfRule type="expression" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A15:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H14">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A14:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13">
-    <cfRule type="expression" dxfId="121" priority="33">
+  <conditionalFormatting sqref="A1:H1 A15:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H14">
+    <cfRule type="expression" dxfId="108" priority="37">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="120" priority="28">
+    <cfRule type="expression" dxfId="107" priority="32">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="106" priority="29">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="105" priority="27">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="119" priority="25">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="104" priority="25">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="118" priority="23">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="103" priority="23">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="117" priority="21">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="102" priority="21">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="116" priority="19">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="101" priority="19">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="115" priority="17">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="100" priority="17">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="114" priority="15">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="99" priority="15">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="113" priority="13">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:B10">
+    <cfRule type="expression" dxfId="98" priority="13">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="112" priority="11">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A11:B12">
+    <cfRule type="expression" dxfId="97" priority="11">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="111" priority="9">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="96" priority="9">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="110" priority="7">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="95" priority="7">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="109" priority="5">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="94" priority="5">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="A14:B14">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>MOD(ROW($A13),2)</formula>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3256,271 +3296,322 @@
         <v>302</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42005</v>
+      </c>
+      <c r="F18" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="64" stopIfTrue="1">
+    <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A17:G1048576 C15:G16">
-    <cfRule type="expression" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A17:G1048576 A1:G1 C15:G16">
-    <cfRule type="expression" dxfId="45" priority="62">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A19:G1048576 C15:G18">
+    <cfRule type="expression" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A19:G1048576 A1:G1 C15:G18">
+    <cfRule type="expression" dxfId="93" priority="66">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="92" priority="59">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="91" priority="57">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="44" priority="55">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="90" priority="55">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="43" priority="53">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="89" priority="53">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="42" priority="51">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="88" priority="51">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="108" priority="49">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="87" priority="49">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="86" priority="47">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="107" priority="45">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="85" priority="45">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="40" priority="43">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="106" priority="41">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="84" priority="43">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="39" priority="39">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="83" priority="39">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="82" priority="37">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="105" priority="35">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="81" priority="35">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="38" priority="33">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="104" priority="31">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="80" priority="33">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="37" priority="29">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="79" priority="29">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="78" priority="27">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="103" priority="25">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="77" priority="25">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="47" priority="23">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="102" priority="21">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="75" priority="21">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="36" priority="19">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="74" priority="19">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="35" priority="17">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="73" priority="17">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="101" priority="15">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="34" priority="13">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
+    <cfRule type="expression" dxfId="72" priority="15">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="46" priority="11">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="71" priority="11">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="70" priority="9">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="19" priority="7">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="69" priority="7">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="17" priority="5">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="68" priority="5">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>MOD(ROW($A16),2)</formula>
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3530,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4328,19 +4419,76 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>306</v>
+    </row>
+    <row r="43" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42007</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4356,12 +4504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G1048576 A42:D42 F42:G42">
-    <cfRule type="expression" dxfId="100" priority="35">
+    <cfRule type="expression" dxfId="67" priority="35">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="99" priority="34">
+    <cfRule type="expression" dxfId="66" priority="34">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,7 +4519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="98" priority="32">
+    <cfRule type="expression" dxfId="65" priority="32">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4381,7 +4529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="97" priority="30">
+    <cfRule type="expression" dxfId="64" priority="30">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4391,7 +4539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="96" priority="28">
+    <cfRule type="expression" dxfId="63" priority="28">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4401,7 +4549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="95" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4411,7 +4559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="94" priority="24">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4421,7 +4569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4431,7 +4579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="92" priority="20">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4441,7 +4589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="91" priority="18">
+    <cfRule type="expression" dxfId="58" priority="18">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4451,7 +4599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="57" priority="16">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4461,7 +4609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="89" priority="14">
+    <cfRule type="expression" dxfId="56" priority="14">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4471,7 +4619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="88" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4481,7 +4629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="87" priority="10">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4491,7 +4639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="86" priority="8">
+    <cfRule type="expression" dxfId="53" priority="8">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4506,7 +4654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4516,7 +4664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4526,12 +4674,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1"/>
+    <hyperlink ref="E45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4540,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5109,409 +5257,469 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="4">
+        <v>42035</v>
+      </c>
+      <c r="E33" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A32:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G31">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A34:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G33">
+    <cfRule type="expression" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A34:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G33">
+    <cfRule type="expression" dxfId="49" priority="83">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="95" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="80" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A32:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G31">
-    <cfRule type="expression" dxfId="82" priority="79">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="83" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="84" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="91" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="48" priority="79">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="47" priority="77">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="76" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="81" priority="75">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="46" priority="75">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="74" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="80" priority="73">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="45" priority="73">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="79" priority="71">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="70" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="78" priority="69">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="77" priority="67">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="43" priority="67">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="42" priority="65">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="76" priority="63">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="41" priority="63">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="75" priority="61">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="40" priority="61">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="74" priority="59">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="39" priority="59">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="73" priority="57">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="38" priority="57">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="72" priority="55">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="37" priority="55">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="71" priority="53">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="36" priority="53">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="70" priority="51">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="35" priority="51">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="69" priority="49">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="34" priority="49">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="68" priority="47">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="33" priority="47">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="67" priority="45">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="66" priority="43">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="65" priority="41">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="30" priority="39">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="64" priority="37">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="63" priority="35">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="28" priority="35">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="62" priority="33">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="61" priority="31">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="60" priority="29">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="59" priority="27">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="58" priority="25">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="57" priority="23">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="56" priority="21">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="55" priority="19">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="54" priority="17">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="53" priority="15">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="52" priority="13">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="51" priority="11">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="50" priority="9">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="A29:B29">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>MOD(ROW($A29),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="49" priority="7">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" dxfId="13" priority="5">
-      <formula>MOD(ROW($A29),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+      <formula>MOD(ROW($A31),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B32">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>MOD(ROW($A30),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
+  <conditionalFormatting sqref="A32:B32">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>MOD(ROW($A32),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B33">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A31),2)</formula>
+  <conditionalFormatting sqref="A33:B33">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="366">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1277,100 @@
   </si>
   <si>
     <t>http://grad.arizona.edu/programs/programinfo/EENPHD</t>
+  </si>
+  <si>
+    <t>GRE Q&gt;90%是理想的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iowa State University  爱荷华州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=28</t>
+  </si>
+  <si>
+    <t>chemgrad@iastate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=27</t>
+  </si>
+  <si>
+    <t>托福94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemengr@iastate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=20</t>
+  </si>
+  <si>
+    <t>托福79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbmbapps@iastate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+  </si>
+  <si>
+    <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=46</t>
+  </si>
+  <si>
+    <t>enscigrad@iastate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福79，GRE quantitative 155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke University   杜克大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/about/statistics/chemistry-phd-admissions-and-enrollment-statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年平均UGPA 3.8，GRE v 156,q 162 (UGPA是什么意思..?)详见网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年平均UGPA 3.7，GRE v 161,q 161 (UGPA是什么意思..?)详见网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年平均UGPA 3.6，GRE v 156,q 162 (UGPA是什么意思..?)详见网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/about/statistics/biochemistry-phd-admissions-and-enrollment-statistics</t>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/about/statistics/environment-phd-admissions-and-enrollment-statistics</t>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/academics/programs-degrees/chemistry</t>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/academics/programs-degrees/biochemistry</t>
+  </si>
+  <si>
+    <t>https://gradschool.duke.edu/academics/programs-degrees/environment</t>
   </si>
 </sst>
 </file>
@@ -1343,14 +1437,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1817,6 +1918,76 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2474,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2750,7 +2921,7 @@
       <c r="E12" s="4">
         <v>42353</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2800,166 +2971,232 @@
         <v>338</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42019</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42346</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="39" stopIfTrue="1">
+    <cfRule type="expression" priority="43" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A15:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H14">
-    <cfRule type="expression" priority="38" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A17:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H16">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A15:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H14">
-    <cfRule type="expression" dxfId="108" priority="37">
+  <conditionalFormatting sqref="A1:H1 A17:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H16">
+    <cfRule type="expression" dxfId="114" priority="41">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="107" priority="32">
+    <cfRule type="expression" dxfId="113" priority="36">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="112" priority="33">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="111" priority="31">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="106" priority="29">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="110" priority="29">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="105" priority="27">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="109" priority="27">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="104" priority="25">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="108" priority="25">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="103" priority="23">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="107" priority="23">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="102" priority="21">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="106" priority="21">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="101" priority="19">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="105" priority="19">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="100" priority="17">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:B10">
+    <cfRule type="expression" dxfId="104" priority="17">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="99" priority="15">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A11:B12">
+    <cfRule type="expression" dxfId="103" priority="15">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="98" priority="13">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="102" priority="13">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="97" priority="11">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="101" priority="11">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="96" priority="9">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="95" priority="7">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="A14:B14">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="94" priority="5">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="99" priority="5">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="98" priority="3">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A14),2)</formula>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3327,304 +3564,377 @@
         <v>337</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="68" stopIfTrue="1">
+    <cfRule type="expression" priority="74" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A19:G1048576 C15:G18">
-    <cfRule type="expression" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A19:G1048576 A1:G1 C15:G18">
-    <cfRule type="expression" dxfId="93" priority="66">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A21:G1048576 C15:G19 C20:E20 G20">
+    <cfRule type="expression" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A21:G1048576 A1:G1 C15:G19 C20:E20 G20">
+    <cfRule type="expression" dxfId="97" priority="72">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="96" priority="65">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="95" priority="63">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="94" priority="61">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="92" priority="59">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="93" priority="59">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="91" priority="57">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="92" priority="57">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="90" priority="55">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="91" priority="55">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="89" priority="53">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="90" priority="53">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="88" priority="51">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="89" priority="51">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="87" priority="49">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="86" priority="47">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="88" priority="49">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="85" priority="45">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="87" priority="45">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="84" priority="43">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="86" priority="43">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="85" priority="41">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="83" priority="39">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="82" priority="37">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="84" priority="39">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="81" priority="35">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="83" priority="35">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="80" priority="33">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="82" priority="33">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="81" priority="31">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="79" priority="29">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="80" priority="29">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="78" priority="27">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="79" priority="27">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="77" priority="25">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="78" priority="25">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="76" priority="23">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="77" priority="23">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="75" priority="21">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="74" priority="19">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
+  <conditionalFormatting sqref="A13:D13">
+    <cfRule type="expression" dxfId="76" priority="21">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="73" priority="17">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="75" priority="17">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="72" priority="15">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="74" priority="15">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="73" priority="13">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="71" priority="11">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="72" priority="11">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="70" priority="9">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="71" priority="9">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="69" priority="7">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="70" priority="7">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="68" priority="5">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+  <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="69" priority="5">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:B45"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4396,6 +4706,9 @@
       <c r="E40" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
@@ -4487,211 +4800,268 @@
       <c r="D45" s="4">
         <v>42005</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E46" t="s">
+        <v>343</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
+    <cfRule type="expression" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW($A1048575),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A48:G1048576 A47:D47 G47">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A48:G1048576 A47:D47 G47">
+    <cfRule type="expression" dxfId="68" priority="39">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="expression" dxfId="67" priority="38">
+      <formula>MOD(ROW($A1)+1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
     <cfRule type="expression" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW($A1048575),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G1048576 A42:D42 F42:G42">
-    <cfRule type="expression" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G1048576 A42:D42 F42:G42">
-    <cfRule type="expression" dxfId="67" priority="35">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="66" priority="34">
-      <formula>MOD(ROW($A1)+1,2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="66" priority="36">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="65" priority="34">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="33" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="65" priority="32">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="64" priority="32">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" priority="31" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="64" priority="30">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="63" priority="30">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
     <cfRule type="expression" priority="29" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="63" priority="28">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="expression" dxfId="62" priority="28">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 F17:G17">
     <cfRule type="expression" priority="27" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="62" priority="26">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
+  <conditionalFormatting sqref="A17:C17 F17:G17">
+    <cfRule type="expression" dxfId="61" priority="26">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
     <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="61" priority="24">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 F17:G17">
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="expression" dxfId="60" priority="24">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:E18">
     <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="60" priority="22">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="expression" dxfId="59" priority="22">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
     <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="59" priority="20">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="expression" dxfId="58" priority="20">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
     <cfRule type="expression" priority="19" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="58" priority="18">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="expression" dxfId="57" priority="18">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 A22:E22">
     <cfRule type="expression" priority="17" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="57" priority="16">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
+  <conditionalFormatting sqref="G22 A22:E22">
+    <cfRule type="expression" dxfId="56" priority="16">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="expression" priority="15" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="56" priority="14">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 A22:E22">
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="expression" dxfId="55" priority="14">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="55" priority="12">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="expression" dxfId="54" priority="12">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="expression" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="54" priority="10">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="53" priority="8">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>MOD(ROW($A6),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="53" priority="9">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F26">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F26">
+    <cfRule type="expression" dxfId="52" priority="7">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="52" priority="5">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F26">
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="51" priority="5">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="51" priority="3">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:G30">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW($A47),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
     <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="50" priority="1">
-      <formula>MOD(ROW($A30),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E45" r:id="rId1"/>
-  </hyperlinks>
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A47),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5298,7 +5668,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>38</v>
       </c>
@@ -5315,414 +5685,457 @@
         <v>335</v>
       </c>
     </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A34:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G33">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A36:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
+    <cfRule type="expression" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
+    <cfRule type="expression" dxfId="50" priority="87">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="99" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="84" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A34:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G33">
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" dxfId="49" priority="83">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="87" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="88" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="95" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="48" priority="81">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="80" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="48" priority="79">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="47" priority="79">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="78" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="47" priority="77">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="46" priority="77">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="76" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="46" priority="75">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="74" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="45" priority="73">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="45" priority="75">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" dxfId="44" priority="71">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="43" priority="69">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="43" priority="67">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="42" priority="67">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="42" priority="65">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="41" priority="65">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="41" priority="63">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="40" priority="63">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="40" priority="61">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="39" priority="61">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="39" priority="59">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="38" priority="59">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="38" priority="57">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="37" priority="57">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="37" priority="55">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="36" priority="55">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="36" priority="53">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="35" priority="53">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="35" priority="51">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="34" priority="51">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="34" priority="49">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="33" priority="47">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="33" priority="49">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="32" priority="45">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="31" priority="43">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="31" priority="41">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="30" priority="41">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="28" priority="35">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="27" priority="33">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="20" priority="19">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="A29:B29">
+    <cfRule type="expression" dxfId="16" priority="13">
+      <formula>MOD(ROW($A29),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>MOD(ROW($A29),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="A31:B31">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>MOD(ROW($A31),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B32">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="14" priority="7">
-      <formula>MOD(ROW($A30),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
+  <conditionalFormatting sqref="A32:B32">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>MOD(ROW($A32),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B33">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>MOD(ROW($A31),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
+  <conditionalFormatting sqref="A33:B33">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>MOD(ROW($A33),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B34">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>MOD(ROW($A32),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
+  <conditionalFormatting sqref="A34:B34">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>MOD(ROW($A34),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B35">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW($A33),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B35">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>MOD(ROW($A35),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="375">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,40 @@
   </si>
   <si>
     <t>https://gradschool.duke.edu/academics/programs-degrees/environment</t>
+  </si>
+  <si>
+    <t>University of Virginia  弗吉尼亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.evsc.virginia.edu/academics/graduate/prospective-graduate-students/</t>
+  </si>
+  <si>
+    <t>录取的人一般gpa高于3.4；托福硬性要求90.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bmg.med.virginia.edu/graduate-program/admissions/</t>
+  </si>
+  <si>
+    <t>托福90；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>der8v@virginia.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求22，22，23，23。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chem.virginia.edu/graduate-studies/prospective-graduate-students/application-requirements/     几乎什么信息都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sem8h@virginia.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1444,21 +1478,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -1918,20 +1938,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2645,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3017,186 +3023,216 @@
         <v>359</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42019</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="43" stopIfTrue="1">
+    <cfRule type="expression" priority="45" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A17:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H16">
-    <cfRule type="expression" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A18:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A17:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H16">
-    <cfRule type="expression" dxfId="114" priority="41">
+  <conditionalFormatting sqref="A1:H1 A18:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
+    <cfRule type="expression" dxfId="115" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="113" priority="36">
+    <cfRule type="expression" dxfId="114" priority="38">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="113" priority="35">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
     <cfRule type="expression" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
     <cfRule type="expression" dxfId="112" priority="33">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" dxfId="111" priority="31">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" dxfId="110" priority="29">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="109" priority="27">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" dxfId="108" priority="25">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="107" priority="23">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" dxfId="106" priority="21">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" dxfId="105" priority="19">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" dxfId="104" priority="17">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="103" priority="15">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" dxfId="102" priority="13">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="101" priority="11">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="100" priority="9">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="100" priority="7">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" dxfId="99" priority="5">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" dxfId="98" priority="3">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>MOD(ROW($A16),2)</formula>
+  <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3207,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3604,337 +3640,368 @@
         <v>360</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="74" stopIfTrue="1">
+    <cfRule type="expression" priority="76" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A21:G1048576 C15:G19 C20:E20 G20">
-    <cfRule type="expression" priority="73" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A21:G1048576 A1:G1 C15:G19 C20:E20 G20">
-    <cfRule type="expression" dxfId="97" priority="72">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A22:G1048576 C15:G19 C20:E20 G20 C21:G21">
+    <cfRule type="expression" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A22:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G21">
+    <cfRule type="expression" dxfId="97" priority="74">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="96" priority="67">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="96" priority="65">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="95" priority="65">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="95" priority="63">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="94" priority="63">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="94" priority="61">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="93" priority="61">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="93" priority="59">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="92" priority="59">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="92" priority="57">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="91" priority="57">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="91" priority="55">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="90" priority="55">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="90" priority="53">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="89" priority="53">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="89" priority="51">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="88" priority="49">
+    <cfRule type="expression" dxfId="88" priority="51">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="87" priority="47">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="87" priority="45">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="86" priority="45">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="86" priority="43">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="85" priority="43">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="85" priority="41">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="84" priority="39">
+    <cfRule type="expression" dxfId="84" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="83" priority="37">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="83" priority="35">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="82" priority="35">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="82" priority="33">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="81" priority="33">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="81" priority="31">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="80" priority="31">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="80" priority="29">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="79" priority="29">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="79" priority="27">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="78" priority="27">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="78" priority="25">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="77" priority="25">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="77" priority="23">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="76" priority="21">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="75" priority="19">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="75" priority="17">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="74" priority="15">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="73" priority="15">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="73" priority="13">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="72" priority="13">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="72" priority="11">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="71" priority="11">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="71" priority="9">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="70" priority="9">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="70" priority="7">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="69" priority="7">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="69" priority="5">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="68" priority="5">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A20),2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,6 +4911,26 @@
         <v>358</v>
       </c>
     </row>
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G7">
@@ -4851,18 +4938,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A48:G1048576 A47:D47 G47">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A48:G1048576 A47:D47 G47">
-    <cfRule type="expression" dxfId="68" priority="39">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48">
+    <cfRule type="expression" dxfId="66" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="67" priority="38">
+    <cfRule type="expression" dxfId="65" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4872,7 +4959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="66" priority="36">
+    <cfRule type="expression" dxfId="64" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4882,7 +4969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="65" priority="34">
+    <cfRule type="expression" dxfId="63" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4892,7 +4979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="62" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4902,7 +4989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="63" priority="30">
+    <cfRule type="expression" dxfId="61" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,7 +4999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4922,7 +5009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="59" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4932,7 +5019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="60" priority="24">
+    <cfRule type="expression" dxfId="58" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4942,7 +5029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="59" priority="22">
+    <cfRule type="expression" dxfId="57" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4952,7 +5039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4962,7 +5049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="57" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4972,7 +5059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="56" priority="16">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4982,7 +5069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="55" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4992,7 +5079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="54" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5007,7 +5094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="53" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5017,7 +5104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5027,7 +5114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5037,7 +5124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5047,7 +5134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5713,7 +5800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
-    <cfRule type="expression" dxfId="50" priority="87">
+    <cfRule type="expression" dxfId="46" priority="87">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5738,7 +5825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="49" priority="83">
+    <cfRule type="expression" dxfId="45" priority="83">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5748,7 +5835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="48" priority="81">
+    <cfRule type="expression" dxfId="44" priority="81">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5758,7 +5845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="47" priority="79">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5768,7 +5855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="46" priority="77">
+    <cfRule type="expression" dxfId="42" priority="77">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5778,7 +5865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="45" priority="75">
+    <cfRule type="expression" dxfId="41" priority="75">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5788,7 +5875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="44" priority="71">
+    <cfRule type="expression" dxfId="40" priority="71">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5798,7 +5885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="43" priority="69">
+    <cfRule type="expression" dxfId="39" priority="69">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5808,7 +5895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="42" priority="67">
+    <cfRule type="expression" dxfId="38" priority="67">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5818,7 +5905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="37" priority="65">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5828,7 +5915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="40" priority="63">
+    <cfRule type="expression" dxfId="36" priority="63">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5838,7 +5925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="39" priority="61">
+    <cfRule type="expression" dxfId="35" priority="61">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5848,7 +5935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="38" priority="59">
+    <cfRule type="expression" dxfId="34" priority="59">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5858,7 +5945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="37" priority="57">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5868,7 +5955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="36" priority="55">
+    <cfRule type="expression" dxfId="32" priority="55">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5878,7 +5965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="35" priority="53">
+    <cfRule type="expression" dxfId="31" priority="53">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5888,7 +5975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="34" priority="51">
+    <cfRule type="expression" dxfId="30" priority="51">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5898,7 +5985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="33" priority="49">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5908,7 +5995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,7 +6005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="31" priority="43">
+    <cfRule type="expression" dxfId="27" priority="43">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5928,7 +6015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5938,7 +6025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5948,7 +6035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="24" priority="37">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5958,7 +6045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5968,7 +6055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5978,7 +6065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5988,7 +6075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5998,7 +6085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6008,7 +6095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6018,7 +6105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6028,7 +6115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6038,7 +6125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6048,7 +6135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6058,7 +6145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6068,7 +6155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6078,7 +6165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6088,7 +6175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6098,7 +6185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6108,7 +6195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6118,7 +6205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6128,7 +6215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="378">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1404,6 +1404,18 @@
   </si>
   <si>
     <t>sem8h@virginia.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福80，GRE verbal 140（硬性要求）.邮件中透露：2015届的gpa平均3.5，GRE总分平均316.GRE q&gt;152被认为是很好的，去年的所有600名申请者都满足这一标准。所以说去年在选择学生的时候他们主要看推荐信和PS。在PS做那个说明你想做哪个方向，为什么，你的研修计划是非常重要的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston College  波士顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dale.mahoney@bc.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,49 +1490,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="112">
     <dxf>
       <fill>
         <patternFill>
@@ -1938,6 +1908,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3056,12 +3040,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A18:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
-    <cfRule type="expression" dxfId="115" priority="43">
+    <cfRule type="expression" dxfId="111" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="114" priority="38">
+    <cfRule type="expression" dxfId="110" priority="38">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3071,7 +3055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="113" priority="35">
+    <cfRule type="expression" dxfId="109" priority="35">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3081,7 +3065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="112" priority="33">
+    <cfRule type="expression" dxfId="108" priority="33">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3091,7 +3075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="111" priority="31">
+    <cfRule type="expression" dxfId="107" priority="31">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3101,7 +3085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="110" priority="29">
+    <cfRule type="expression" dxfId="106" priority="29">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3111,7 +3095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="109" priority="27">
+    <cfRule type="expression" dxfId="105" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3121,7 +3105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="108" priority="25">
+    <cfRule type="expression" dxfId="104" priority="25">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3131,7 +3115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="107" priority="23">
+    <cfRule type="expression" dxfId="103" priority="23">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3141,7 +3125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="106" priority="21">
+    <cfRule type="expression" dxfId="102" priority="21">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3151,7 +3135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="105" priority="19">
+    <cfRule type="expression" dxfId="101" priority="19">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3161,7 +3145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="104" priority="17">
+    <cfRule type="expression" dxfId="100" priority="17">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,7 +3155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="103" priority="15">
+    <cfRule type="expression" dxfId="99" priority="15">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3181,7 +3165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="102" priority="13">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3191,7 +3175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="101" priority="11">
+    <cfRule type="expression" dxfId="97" priority="11">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3201,7 +3185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="100" priority="7">
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3211,7 +3195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="99" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3221,7 +3205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="98" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3231,7 +3215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3673,7 +3657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G13 A22:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G21">
-    <cfRule type="expression" dxfId="97" priority="74">
+    <cfRule type="expression" dxfId="92" priority="74">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3683,7 +3667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="96" priority="67">
+    <cfRule type="expression" dxfId="91" priority="67">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3693,7 +3677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="95" priority="65">
+    <cfRule type="expression" dxfId="90" priority="65">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3703,7 +3687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="94" priority="63">
+    <cfRule type="expression" dxfId="89" priority="63">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3713,7 +3697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="93" priority="61">
+    <cfRule type="expression" dxfId="88" priority="61">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3723,7 +3707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="92" priority="59">
+    <cfRule type="expression" dxfId="87" priority="59">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,7 +3717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="91" priority="57">
+    <cfRule type="expression" dxfId="86" priority="57">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3743,7 +3727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="90" priority="55">
+    <cfRule type="expression" dxfId="85" priority="55">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3753,7 +3737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="89" priority="53">
+    <cfRule type="expression" dxfId="84" priority="53">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3763,7 +3747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="88" priority="51">
+    <cfRule type="expression" dxfId="83" priority="51">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3773,7 +3757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="87" priority="47">
+    <cfRule type="expression" dxfId="82" priority="47">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3783,7 +3767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="86" priority="45">
+    <cfRule type="expression" dxfId="81" priority="45">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3793,7 +3777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="85" priority="43">
+    <cfRule type="expression" dxfId="80" priority="43">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3803,7 +3787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="84" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3813,7 +3797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="83" priority="37">
+    <cfRule type="expression" dxfId="78" priority="37">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3823,7 +3807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="82" priority="35">
+    <cfRule type="expression" dxfId="77" priority="35">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3833,7 +3817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="81" priority="33">
+    <cfRule type="expression" dxfId="76" priority="33">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3843,7 +3827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="80" priority="31">
+    <cfRule type="expression" dxfId="75" priority="31">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3853,7 +3837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="79" priority="29">
+    <cfRule type="expression" dxfId="74" priority="29">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,7 +3847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="78" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3873,7 +3857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="77" priority="25">
+    <cfRule type="expression" dxfId="72" priority="25">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3883,7 +3867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="76" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3893,7 +3877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="75" priority="19">
+    <cfRule type="expression" dxfId="70" priority="19">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,7 +3887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3913,7 +3897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3923,7 +3907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="67" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3933,7 +3917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="71" priority="11">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3943,7 +3927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="70" priority="9">
+    <cfRule type="expression" dxfId="65" priority="9">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3953,7 +3937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="69" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,7 +3947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="68" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,7 +3957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3983,7 +3967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3998,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E47" sqref="E47:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4720,7 +4704,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4737,7 +4721,7 @@
         <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>247</v>
@@ -4924,11 +4908,22 @@
       <c r="D48" s="4">
         <v>42019</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4944,12 +4939,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48">
-    <cfRule type="expression" dxfId="66" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="65" priority="38">
+    <cfRule type="expression" dxfId="59" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4959,7 +4954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="64" priority="36">
+    <cfRule type="expression" dxfId="58" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4969,7 +4964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="63" priority="34">
+    <cfRule type="expression" dxfId="57" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4979,7 +4974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4989,7 +4984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="61" priority="30">
+    <cfRule type="expression" dxfId="55" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4999,7 +4994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,7 +5004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="59" priority="26">
+    <cfRule type="expression" dxfId="53" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5019,7 +5014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5029,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5039,7 +5034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5049,7 +5044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="49" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5059,7 +5054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5069,7 +5064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="53" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5079,7 +5074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,7 +5089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5104,7 +5099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5114,7 +5109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5124,7 +5119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5134,7 +5129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5800,7 +5795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
-    <cfRule type="expression" dxfId="46" priority="87">
+    <cfRule type="expression" dxfId="40" priority="87">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5825,7 +5820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="45" priority="83">
+    <cfRule type="expression" dxfId="39" priority="83">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5835,7 +5830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="44" priority="81">
+    <cfRule type="expression" dxfId="38" priority="81">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5845,7 +5840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="43" priority="79">
+    <cfRule type="expression" dxfId="37" priority="79">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,7 +5850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="42" priority="77">
+    <cfRule type="expression" dxfId="36" priority="77">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5865,7 +5860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="41" priority="75">
+    <cfRule type="expression" dxfId="35" priority="75">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5875,7 +5870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="40" priority="71">
+    <cfRule type="expression" dxfId="34" priority="71">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5885,7 +5880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="39" priority="69">
+    <cfRule type="expression" dxfId="33" priority="69">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5895,7 +5890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="38" priority="67">
+    <cfRule type="expression" dxfId="32" priority="67">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5905,7 +5900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="37" priority="65">
+    <cfRule type="expression" dxfId="31" priority="65">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5915,7 +5910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="36" priority="63">
+    <cfRule type="expression" dxfId="30" priority="63">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5925,7 +5920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="35" priority="61">
+    <cfRule type="expression" dxfId="29" priority="61">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5935,7 +5930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="28" priority="59">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5945,7 +5940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="33" priority="57">
+    <cfRule type="expression" dxfId="27" priority="57">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5955,7 +5950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="32" priority="55">
+    <cfRule type="expression" dxfId="26" priority="55">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5965,7 +5960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="31" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5975,7 +5970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5985,7 +5980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="29" priority="49">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5995,7 +5990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="28" priority="45">
+    <cfRule type="expression" dxfId="22" priority="45">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6005,7 +6000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="27" priority="43">
+    <cfRule type="expression" dxfId="21" priority="43">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6015,7 +6010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="26" priority="41">
+    <cfRule type="expression" dxfId="20" priority="41">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6025,7 +6020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="25" priority="39">
+    <cfRule type="expression" dxfId="19" priority="39">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6035,7 +6030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="18" priority="37">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6045,7 +6040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6055,7 +6050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="16" priority="33">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6065,7 +6060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="15" priority="31">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6075,7 +6070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="14" priority="29">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6085,7 +6080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6095,7 +6090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6105,7 +6100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6115,7 +6110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6125,7 +6120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6135,7 +6130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6145,7 +6140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6155,7 +6150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6165,7 +6160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6175,7 +6170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6185,7 +6180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6195,7 +6190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6205,7 +6200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6215,7 +6210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="383">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,9 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ehontz@umd.edu</t>
-  </si>
-  <si>
     <t>dcanter@umd.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,10 +1276,6 @@
     <t>http://grad.arizona.edu/programs/programinfo/EENPHD</t>
   </si>
   <si>
-    <t>GRE Q&gt;90%是理想的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iowa State University  爱荷华州立大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,6 +1409,34 @@
   </si>
   <si>
     <t>dale.mahoney@bc.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件里面他没说具体要求，就说鼓励去报，并且给了一个中国学长的邮箱jingtao.guo@utah.edu   Guo JingTao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：往届GPA大多数都&gt;3.5，托福要求90，并且说 We specifically look for coursework in thermodynamics, kinetics, fluid mechanics, and mass/energy transport，说这些对于化工的学习很有帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中不透露往届平均分，说最重要的是gpa，PS和推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.umd.edu/research/   这是教授页面，看哪个方向想联系可以去问。不是招生信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE Q&gt;90%是理想的。 GRE平均318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehontz@umd.edu   如果提供方向这位老师愿意帮忙联系该方向的中国学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供平均GRE，GRE Q&gt;90%是好的，重点考察Q的分数而不是V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1490,7 +1511,14 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2637,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2781,7 +2809,9 @@
       <c r="D6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4">
+        <v>42353</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>190</v>
       </c>
@@ -2809,7 +2839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>33</v>
       </c>
@@ -2822,8 +2852,14 @@
       <c r="D8" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E8" s="4">
+        <v>42019</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>224</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2923,19 +2959,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2943,22 +2979,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2966,22 +3002,22 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -2989,22 +3025,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3012,19 +3048,19 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3040,12 +3076,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A18:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
-    <cfRule type="expression" dxfId="111" priority="43">
+    <cfRule type="expression" dxfId="112" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="110" priority="38">
+    <cfRule type="expression" dxfId="111" priority="38">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3055,7 +3091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="109" priority="35">
+    <cfRule type="expression" dxfId="110" priority="35">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3065,7 +3101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="108" priority="33">
+    <cfRule type="expression" dxfId="109" priority="33">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3075,7 +3111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="107" priority="31">
+    <cfRule type="expression" dxfId="108" priority="31">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,7 +3121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="106" priority="29">
+    <cfRule type="expression" dxfId="107" priority="29">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3095,7 +3131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="105" priority="27">
+    <cfRule type="expression" dxfId="106" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3105,7 +3141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="104" priority="25">
+    <cfRule type="expression" dxfId="105" priority="25">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3115,7 +3151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="103" priority="23">
+    <cfRule type="expression" dxfId="104" priority="23">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3125,7 +3161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="102" priority="21">
+    <cfRule type="expression" dxfId="103" priority="21">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3135,7 +3171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="101" priority="19">
+    <cfRule type="expression" dxfId="102" priority="19">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3145,7 +3181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="100" priority="17">
+    <cfRule type="expression" dxfId="101" priority="17">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3155,7 +3191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="99" priority="15">
+    <cfRule type="expression" dxfId="100" priority="15">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3165,7 +3201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3175,7 +3211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="97" priority="11">
+    <cfRule type="expression" dxfId="98" priority="11">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3185,7 +3221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="96" priority="7">
+    <cfRule type="expression" dxfId="97" priority="7">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3195,7 +3231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="96" priority="5">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3205,7 +3241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3215,7 +3251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="94" priority="1">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3230,7 +3266,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3503,7 +3539,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -3519,7 +3555,9 @@
       <c r="E14" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3530,7 +3568,7 @@
         <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3538,19 +3576,19 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3558,13 +3596,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3572,16 +3610,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3589,19 +3627,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3609,19 +3647,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3629,19 +3667,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +3695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G13 A22:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G21">
-    <cfRule type="expression" dxfId="92" priority="74">
+    <cfRule type="expression" dxfId="93" priority="74">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3667,7 +3705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="91" priority="67">
+    <cfRule type="expression" dxfId="92" priority="67">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3677,7 +3715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="90" priority="65">
+    <cfRule type="expression" dxfId="91" priority="65">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3687,7 +3725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="89" priority="63">
+    <cfRule type="expression" dxfId="90" priority="63">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="88" priority="61">
+    <cfRule type="expression" dxfId="89" priority="61">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3707,7 +3745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="87" priority="59">
+    <cfRule type="expression" dxfId="88" priority="59">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3717,7 +3755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="86" priority="57">
+    <cfRule type="expression" dxfId="87" priority="57">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3727,7 +3765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="85" priority="55">
+    <cfRule type="expression" dxfId="86" priority="55">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3737,7 +3775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="84" priority="53">
+    <cfRule type="expression" dxfId="85" priority="53">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3747,7 +3785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="83" priority="51">
+    <cfRule type="expression" dxfId="84" priority="51">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3757,7 +3795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="82" priority="47">
+    <cfRule type="expression" dxfId="83" priority="47">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3767,7 +3805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="81" priority="45">
+    <cfRule type="expression" dxfId="82" priority="45">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3777,7 +3815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="80" priority="43">
+    <cfRule type="expression" dxfId="81" priority="43">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3787,7 +3825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="80" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3797,7 +3835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="78" priority="37">
+    <cfRule type="expression" dxfId="79" priority="37">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3807,7 +3845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="77" priority="35">
+    <cfRule type="expression" dxfId="78" priority="35">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3817,7 +3855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="76" priority="33">
+    <cfRule type="expression" dxfId="77" priority="33">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3827,7 +3865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="75" priority="31">
+    <cfRule type="expression" dxfId="76" priority="31">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3837,7 +3875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="74" priority="29">
+    <cfRule type="expression" dxfId="75" priority="29">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,7 +3885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="73" priority="27">
+    <cfRule type="expression" dxfId="74" priority="27">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3857,7 +3895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="72" priority="25">
+    <cfRule type="expression" dxfId="73" priority="25">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3867,7 +3905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="71" priority="23">
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3877,7 +3915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="70" priority="19">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3887,7 +3925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="69" priority="17">
+    <cfRule type="expression" dxfId="70" priority="17">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3897,7 +3935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="68" priority="15">
+    <cfRule type="expression" dxfId="69" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3907,7 +3945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="67" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3917,7 +3955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="66" priority="11">
+    <cfRule type="expression" dxfId="67" priority="11">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3927,7 +3965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="65" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,7 +3975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="64" priority="7">
+    <cfRule type="expression" dxfId="65" priority="7">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3947,7 +3985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="63" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3957,7 +3995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3967,7 +4005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3984,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E50"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4721,7 +4759,7 @@
         <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>247</v>
@@ -4747,18 +4785,24 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+      <c r="C40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="4">
+        <v>42353</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4766,16 +4810,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4783,19 +4827,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4803,19 +4847,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4823,19 +4867,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4843,16 +4887,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4860,19 +4904,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4880,19 +4924,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4900,19 +4944,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -4920,10 +4964,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4933,18 +4977,18 @@
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A40:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48">
-    <cfRule type="expression" dxfId="60" priority="39">
+  <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
+    <cfRule type="expression" dxfId="61" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="59" priority="38">
+    <cfRule type="expression" dxfId="60" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4954,7 +4998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="58" priority="36">
+    <cfRule type="expression" dxfId="59" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4964,7 +5008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="57" priority="34">
+    <cfRule type="expression" dxfId="58" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4974,7 +5018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="56" priority="32">
+    <cfRule type="expression" dxfId="57" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4984,7 +5028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="55" priority="30">
+    <cfRule type="expression" dxfId="56" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4994,7 +5038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="55" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,7 +5048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="53" priority="26">
+    <cfRule type="expression" dxfId="54" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5014,7 +5058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5024,7 +5068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="51" priority="22">
+    <cfRule type="expression" dxfId="52" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5034,7 +5078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5044,7 +5088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="49" priority="18">
+    <cfRule type="expression" dxfId="50" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5054,7 +5098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5064,7 +5108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="47" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5074,7 +5118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5099,7 +5143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5109,7 +5153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="44" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5119,7 +5163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5129,7 +5173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5142,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5569,6 +5613,9 @@
       <c r="C23" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="D23" s="4">
+        <v>42353</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>190</v>
       </c>
@@ -5593,7 +5640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -5608,6 +5655,9 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>232</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>231</v>
@@ -5678,13 +5728,16 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="4">
-        <v>42019</v>
+        <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5692,16 +5745,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5709,22 +5762,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5732,22 +5785,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5755,16 +5808,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5772,19 +5825,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5795,7 +5848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
-    <cfRule type="expression" dxfId="40" priority="87">
+    <cfRule type="expression" dxfId="41" priority="87">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5820,7 +5873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="39" priority="83">
+    <cfRule type="expression" dxfId="40" priority="83">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5830,7 +5883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="38" priority="81">
+    <cfRule type="expression" dxfId="39" priority="81">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5840,7 +5893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="37" priority="79">
+    <cfRule type="expression" dxfId="38" priority="79">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5850,7 +5903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="36" priority="77">
+    <cfRule type="expression" dxfId="37" priority="77">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5860,7 +5913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="35" priority="75">
+    <cfRule type="expression" dxfId="36" priority="75">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5870,7 +5923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="34" priority="71">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5880,7 +5933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="33" priority="69">
+    <cfRule type="expression" dxfId="34" priority="69">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5890,7 +5943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="32" priority="67">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5900,7 +5953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="31" priority="65">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,7 +5963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="30" priority="63">
+    <cfRule type="expression" dxfId="31" priority="63">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5920,7 +5973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="29" priority="61">
+    <cfRule type="expression" dxfId="30" priority="61">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5930,7 +5983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="28" priority="59">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5940,7 +5993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="27" priority="57">
+    <cfRule type="expression" dxfId="28" priority="57">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5950,7 +6003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="26" priority="55">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5960,7 +6013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="25" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5970,7 +6023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="24" priority="51">
+    <cfRule type="expression" dxfId="25" priority="51">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5980,7 +6033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="23" priority="49">
+    <cfRule type="expression" dxfId="24" priority="49">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5990,7 +6043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="22" priority="45">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6000,7 +6053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="21" priority="43">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6010,7 +6063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="20" priority="41">
+    <cfRule type="expression" dxfId="21" priority="41">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6020,7 +6073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="19" priority="39">
+    <cfRule type="expression" dxfId="20" priority="39">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6030,7 +6083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="18" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6040,7 +6093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="17" priority="35">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,7 +6103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="16" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6060,7 +6113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="15" priority="31">
+    <cfRule type="expression" dxfId="16" priority="31">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6070,7 +6123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="14" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6080,7 +6133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6090,7 +6143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6100,7 +6153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,7 +6163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6120,7 +6173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6130,7 +6183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6140,7 +6193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6150,7 +6203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6160,7 +6213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6170,7 +6223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6180,7 +6233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6190,7 +6243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6200,7 +6253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6210,7 +6263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="384">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,6 @@
     <t>http://www.colorado.edu/admissions/graduate/programs/chemical</t>
   </si>
   <si>
-    <t>要求gpa 3.25，三封推荐信，托福100，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chbegrad@colorado.edu</t>
   </si>
   <si>
@@ -1305,10 +1301,6 @@
     <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=20</t>
   </si>
   <si>
-    <t>托福79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bbmbapps@iastate.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1437,6 +1429,18 @@
   </si>
   <si>
     <t>不提供平均GRE，GRE Q&gt;90%是好的，重点考察Q的分数而不是V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求gpa 3.25，三封推荐信，托福100，邮件：2015届平均gpa 3.8，平均GRE q:85%,v:69%,writing 52%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：不提供平均gpa和GRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福79。邮件：录取者往往GRE每项都60%，gpa往往都&gt;3.0（不过这个界可能是很松的，不知道参考价值有多大）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,14 +1515,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="113">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="112">
     <dxf>
       <fill>
         <patternFill>
@@ -2764,7 +2761,7 @@
         <v>171</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>174</v>
@@ -2778,22 +2775,22 @@
         <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2801,19 +2798,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E6" s="4">
         <v>42353</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2821,22 +2818,22 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="4">
         <v>42036</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2844,22 +2841,22 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E8" s="4">
         <v>42019</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2867,22 +2864,22 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2890,22 +2887,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -2913,22 +2910,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2936,22 +2933,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2959,19 +2956,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2979,22 +2976,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3002,22 +2999,22 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3025,22 +3022,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3048,19 +3045,19 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3076,12 +3073,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A18:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
-    <cfRule type="expression" dxfId="112" priority="43">
+    <cfRule type="expression" dxfId="111" priority="43">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="111" priority="38">
+    <cfRule type="expression" dxfId="110" priority="38">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3091,7 +3088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="110" priority="35">
+    <cfRule type="expression" dxfId="109" priority="35">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3101,7 +3098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="109" priority="33">
+    <cfRule type="expression" dxfId="108" priority="33">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3111,7 +3108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="108" priority="31">
+    <cfRule type="expression" dxfId="107" priority="31">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3121,7 +3118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="107" priority="29">
+    <cfRule type="expression" dxfId="106" priority="29">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3131,7 +3128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="106" priority="27">
+    <cfRule type="expression" dxfId="105" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3141,7 +3138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="105" priority="25">
+    <cfRule type="expression" dxfId="104" priority="25">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3151,7 +3148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="104" priority="23">
+    <cfRule type="expression" dxfId="103" priority="23">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3161,7 +3158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="103" priority="21">
+    <cfRule type="expression" dxfId="102" priority="21">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,7 +3168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="102" priority="19">
+    <cfRule type="expression" dxfId="101" priority="19">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3181,7 +3178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="101" priority="17">
+    <cfRule type="expression" dxfId="100" priority="17">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3191,7 +3188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="100" priority="15">
+    <cfRule type="expression" dxfId="99" priority="15">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3201,7 +3198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3211,7 +3208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="97" priority="11">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3221,7 +3218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3231,7 +3228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="96" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3241,7 +3238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3251,7 +3248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="94" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3265,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3287,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3310,7 +3307,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
@@ -3328,13 +3325,13 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>115</v>
@@ -3348,13 +3345,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -3371,7 +3368,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
@@ -3391,7 +3388,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
@@ -3408,10 +3405,10 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
@@ -3425,13 +3422,13 @@
         <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>103</v>
@@ -3445,7 +3442,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
@@ -3468,13 +3465,13 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>131</v>
@@ -3488,13 +3485,13 @@
         <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>142</v>
@@ -3508,11 +3505,11 @@
         <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>165</v>
@@ -3523,19 +3520,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -3544,19 +3541,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="4">
         <v>42339</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -3565,10 +3562,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" t="s">
         <v>290</v>
-      </c>
-      <c r="E15" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3576,19 +3573,19 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3596,13 +3593,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3610,36 +3607,36 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3647,19 +3644,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3667,19 +3664,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G13 A22:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G21">
-    <cfRule type="expression" dxfId="93" priority="74">
+    <cfRule type="expression" dxfId="92" priority="74">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3705,7 +3702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="92" priority="67">
+    <cfRule type="expression" dxfId="91" priority="67">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3715,7 +3712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="91" priority="65">
+    <cfRule type="expression" dxfId="90" priority="65">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3725,7 +3722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="90" priority="63">
+    <cfRule type="expression" dxfId="89" priority="63">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3735,7 +3732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="89" priority="61">
+    <cfRule type="expression" dxfId="88" priority="61">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3745,7 +3742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="88" priority="59">
+    <cfRule type="expression" dxfId="87" priority="59">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3755,7 +3752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="87" priority="57">
+    <cfRule type="expression" dxfId="86" priority="57">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3765,7 +3762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="86" priority="55">
+    <cfRule type="expression" dxfId="85" priority="55">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3775,7 +3772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="85" priority="53">
+    <cfRule type="expression" dxfId="84" priority="53">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3785,7 +3782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="84" priority="51">
+    <cfRule type="expression" dxfId="83" priority="51">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3795,7 +3792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="83" priority="47">
+    <cfRule type="expression" dxfId="82" priority="47">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3805,7 +3802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="82" priority="45">
+    <cfRule type="expression" dxfId="81" priority="45">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3815,7 +3812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="81" priority="43">
+    <cfRule type="expression" dxfId="80" priority="43">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3825,7 +3822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="80" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3835,7 +3832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="79" priority="37">
+    <cfRule type="expression" dxfId="78" priority="37">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,7 +3842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="78" priority="35">
+    <cfRule type="expression" dxfId="77" priority="35">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3855,7 +3852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="77" priority="33">
+    <cfRule type="expression" dxfId="76" priority="33">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3865,7 +3862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="76" priority="31">
+    <cfRule type="expression" dxfId="75" priority="31">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3875,7 +3872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="75" priority="29">
+    <cfRule type="expression" dxfId="74" priority="29">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3885,7 +3882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="74" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3895,7 +3892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="73" priority="25">
+    <cfRule type="expression" dxfId="72" priority="25">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3905,7 +3902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="72" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3915,7 +3912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="70" priority="19">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3925,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="70" priority="17">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3935,7 +3932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="69" priority="15">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3945,7 +3942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="67" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3955,7 +3952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="67" priority="11">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3965,7 +3962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="65" priority="9">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3975,7 +3972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="65" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3985,7 +3982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3995,7 +3992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4005,7 +4002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4050,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -4504,7 +4501,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4542,7 +4539,7 @@
         <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4582,7 +4579,7 @@
         <v>159</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>157</v>
@@ -4599,13 +4596,13 @@
         <v>42353</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4636,7 +4633,7 @@
         <v>175</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
@@ -4645,7 +4642,7 @@
         <v>177</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>176</v>
@@ -4656,19 +4653,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D33" s="4">
         <v>42339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4676,19 +4673,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D34" s="4">
         <v>42339</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4696,13 +4693,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4710,16 +4707,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D36" s="4">
         <v>42358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4727,19 +4724,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -4747,22 +4744,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4770,19 +4767,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="4">
         <v>42353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4790,19 +4787,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4810,16 +4807,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4827,19 +4824,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4847,19 +4844,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4867,19 +4864,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4887,16 +4884,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4904,19 +4901,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
+        <v>340</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4924,19 +4921,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4944,19 +4941,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -4964,10 +4961,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4983,12 +4980,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
-    <cfRule type="expression" dxfId="61" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="60" priority="38">
+    <cfRule type="expression" dxfId="59" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4998,7 +4995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="59" priority="36">
+    <cfRule type="expression" dxfId="58" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5008,7 +5005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="58" priority="34">
+    <cfRule type="expression" dxfId="57" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5018,7 +5015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="57" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5028,7 +5025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="56" priority="30">
+    <cfRule type="expression" dxfId="55" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="55" priority="28">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,7 +5045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="53" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,7 +5055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="53" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5068,7 +5065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="52" priority="22">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5078,7 +5075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5088,7 +5085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="50" priority="18">
+    <cfRule type="expression" dxfId="49" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5098,7 +5095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="49" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5108,7 +5105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5118,7 +5115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5133,7 +5130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5143,7 +5140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5153,7 +5150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5163,7 +5160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5173,7 +5170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5186,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5371,7 +5368,7 @@
         <v>42353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5580,7 +5577,7 @@
         <v>169</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5594,13 +5591,13 @@
         <v>178</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>179</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5608,19 +5605,19 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="4">
         <v>42353</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5628,16 +5625,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -5645,22 +5642,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4">
         <v>42014</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5668,16 +5665,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5685,16 +5685,16 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5702,22 +5702,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5725,19 +5725,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D29" s="4">
         <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5745,16 +5745,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5762,22 +5762,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5785,22 +5785,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" t="s">
+        <v>324</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5808,16 +5808,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5825,19 +5825,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5848,7 +5848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
-    <cfRule type="expression" dxfId="41" priority="87">
+    <cfRule type="expression" dxfId="40" priority="87">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5873,7 +5873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="40" priority="83">
+    <cfRule type="expression" dxfId="39" priority="83">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5883,7 +5883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="39" priority="81">
+    <cfRule type="expression" dxfId="38" priority="81">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5893,7 +5893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="38" priority="79">
+    <cfRule type="expression" dxfId="37" priority="79">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5903,7 +5903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="37" priority="77">
+    <cfRule type="expression" dxfId="36" priority="77">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5913,7 +5913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="36" priority="75">
+    <cfRule type="expression" dxfId="35" priority="75">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5923,7 +5923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="35" priority="71">
+    <cfRule type="expression" dxfId="34" priority="71">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5933,7 +5933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="34" priority="69">
+    <cfRule type="expression" dxfId="33" priority="69">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5943,7 +5943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" dxfId="32" priority="67">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5953,7 +5953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="32" priority="65">
+    <cfRule type="expression" dxfId="31" priority="65">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5963,7 +5963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="31" priority="63">
+    <cfRule type="expression" dxfId="30" priority="63">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5973,7 +5973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="30" priority="61">
+    <cfRule type="expression" dxfId="29" priority="61">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5983,7 +5983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="29" priority="59">
+    <cfRule type="expression" dxfId="28" priority="59">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5993,7 +5993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="28" priority="57">
+    <cfRule type="expression" dxfId="27" priority="57">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6003,7 +6003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="27" priority="55">
+    <cfRule type="expression" dxfId="26" priority="55">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6013,7 +6013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="26" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6023,7 +6023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="25" priority="51">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6033,7 +6033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="24" priority="49">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6043,7 +6043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="22" priority="45">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6053,7 +6053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="22" priority="43">
+    <cfRule type="expression" dxfId="21" priority="43">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6063,7 +6063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="21" priority="41">
+    <cfRule type="expression" dxfId="20" priority="41">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6073,7 +6073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="20" priority="39">
+    <cfRule type="expression" dxfId="19" priority="39">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6083,7 +6083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="19" priority="37">
+    <cfRule type="expression" dxfId="18" priority="37">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6093,7 +6093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6103,7 +6103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="16" priority="33">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6113,7 +6113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="16" priority="31">
+    <cfRule type="expression" dxfId="15" priority="31">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6123,7 +6123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="15" priority="29">
+    <cfRule type="expression" dxfId="14" priority="29">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6133,7 +6133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6143,7 +6143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6153,7 +6153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="12" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6163,7 +6163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6173,7 +6173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6183,7 +6183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6193,7 +6193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6203,7 +6203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6213,7 +6213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6223,7 +6223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6233,7 +6233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,7 +6243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6253,7 +6253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6263,7 +6263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="388">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,10 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.graddiv.ucsb.edu/departments/view/9</t>
   </si>
   <si>
@@ -996,10 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福&gt;96,gpa&gt;3.3,GRE q&gt;160是favorable的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,14 +1168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRE sub不要求，如果要提交就在“Additional Information”里面提交。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gradchem@emory.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://chemistry.emory.edu/home/graduate/prospectives/index.html</t>
   </si>
   <si>
@@ -1301,20 +1285,12 @@
     <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=20</t>
   </si>
   <si>
-    <t>bbmbapps@iastate.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Environmental Science</t>
   </si>
   <si>
     <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=46</t>
   </si>
   <si>
-    <t>enscigrad@iastate.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福79，GRE quantitative 155</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1441,6 +1417,45 @@
   </si>
   <si>
     <t>托福79。邮件：录取者往往GRE每项都60%，gpa往往都&gt;3.0（不过这个界可能是很松的，不知道参考价值有多大）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbmbapps@iastate.edu    13届中国学长： xuechaoy@iastate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE sub不要求，如果要提交就在“Additional Information”里面提交。邮件：gpa&gt;3.0，GRE&gt;50%，我猜这个界应该是比较松的，不过邮件中又说我们录取的学生分数高低都有，突出科研经历和你对项目的极大兴趣是很有帮助的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在10月31号提交申请，申请的费用75美金可以减免。推荐信和成绩单可以稍后再寄送，在deadline前就可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradchem@emory.edu     中国学姐： wenbin.liu@emory.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：不提供平均gpa，GRE。申请的时候务必强调自己对保护环境的使命感和对环境问题的见解。你的学术背景申请这个项目没问题（它要求学过微积分，化学并有化学实验经验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目比较交叉。事实上感觉美国的很多环境类的项目都很交叉。README中也有说过。   这个项目的话你做助教或助理研究员都有100%学费的工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enscigrad@iastate.edu     提前联系教授将会很有帮助，师资列表：  https://enscigrad.iastate.edu/dir/faculty/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福&gt;96,gpa&gt;3.3,GRE q&gt;160是favorable的。 看一下附件的手册吧，你的本科不是化工，你需要上四门课才能申请，但是这四门课如果你本科期间没上过就不能申请了？正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bc.edu/schools/gsas/admissions/deptreq.html</t>
+  </si>
+  <si>
+    <t>托福80,邮件不提供往届平均分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2813,7 +2828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>26</v>
       </c>
@@ -2831,6 +2846,9 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>214</v>
@@ -2856,7 +2874,7 @@
         <v>223</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2867,19 +2885,19 @@
         <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2890,19 +2908,19 @@
         <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -2910,22 +2928,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2933,22 +2951,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2956,19 +2974,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2976,45 +2994,48 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3022,22 +3043,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3045,19 +3066,19 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3262,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3284,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3307,7 +3328,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
@@ -3325,13 +3346,13 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>115</v>
@@ -3345,13 +3366,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -3368,7 +3389,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
@@ -3388,7 +3409,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
@@ -3405,10 +3426,10 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
@@ -3422,13 +3443,13 @@
         <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>103</v>
@@ -3442,7 +3463,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
@@ -3465,13 +3486,13 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>131</v>
@@ -3485,13 +3506,13 @@
         <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>142</v>
@@ -3505,11 +3526,11 @@
         <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>165</v>
@@ -3523,7 +3544,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
@@ -3541,19 +3562,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D14" s="4">
         <v>42339</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -3562,10 +3583,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3573,19 +3594,19 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3593,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3607,16 +3628,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3624,19 +3645,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>346</v>
+      <c r="E19" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3644,19 +3665,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3664,19 +3685,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F21" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4007,11 +4028,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1"/>
-    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4019,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4727,16 +4747,16 @@
         <v>232</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>233</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -4744,22 +4764,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4767,19 +4787,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="4">
         <v>42353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4787,19 +4807,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4807,16 +4827,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4824,39 +4844,42 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>312</v>
+        <v>379</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4864,19 +4887,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4884,16 +4907,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4901,19 +4924,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4921,19 +4944,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4941,19 +4964,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -4961,10 +4984,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="4">
+        <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5184,7 +5213,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5597,7 +5626,7 @@
         <v>179</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5654,7 +5683,7 @@
         <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>230</v>
@@ -5668,16 +5697,16 @@
         <v>232</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5685,39 +5714,39 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5725,19 +5754,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D29" s="4">
         <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5745,16 +5774,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5762,22 +5791,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5785,22 +5814,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5808,16 +5837,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5825,19 +5854,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="393">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,46 +325,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
+  </si>
+  <si>
+    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
+  </si>
+  <si>
+    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University 德州农工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
+  </si>
+  <si>
+    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC San Diego  加州大学圣地亚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
+  </si>
+  <si>
     <t>三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
-  </si>
-  <si>
-    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
-  </si>
-  <si>
-    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University 德州农工大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
-  </si>
-  <si>
-    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC San Diego  加州大学圣地亚哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
-  </si>
-  <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
   </si>
   <si>
@@ -397,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Minnesota Twin Cities 明尼苏达双城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,10 +1135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gradadm@pitt.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.chem.pitt.edu/graduate/how-apply</t>
   </si>
   <si>
@@ -1274,10 +1262,6 @@
     <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=27</t>
   </si>
   <si>
-    <t>托福94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chemengr@iastate.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,18 +1340,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福要求22，22，23，23。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://chem.virginia.edu/graduate-studies/prospective-graduate-students/application-requirements/     几乎什么信息都没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sem8h@virginia.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福80，GRE verbal 140（硬性要求）.邮件中透露：2015届的gpa平均3.5，GRE总分平均316.GRE q&gt;152被认为是很好的，去年的所有600名申请者都满足这一标准。所以说去年在选择学生的时候他们主要看推荐信和PS。在PS做那个说明你想做哪个方向，为什么，你的研修计划是非常重要的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1456,6 +1432,49 @@
   </si>
   <si>
     <t>托福80,邮件不提供往届平均分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网。邮件：申请者往往具有很深的化学背景，所以化学本科生申请没问题。往届平均gpa 3.7，平均GRE 157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsand@ufl.edu</t>
+  </si>
+  <si>
+    <t>托福80，GRE verbal 140（硬性要求）。邮件：你的本科不是化工，所以不能直接申请化工的phD，你需要先读化工的master，完了再去读phD。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，GRE chem sub强烈推荐。去年平均gpa 3.7，平均GRE q 163，平均chem sub 761.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradadm@pitt.edu   老师回复地很热情，不知道是因为看中了你的北大背景还是仅仅是性格热情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agl2107@columbia.edu           中国学长 jw3227@columbia.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求22，22，23，23。邮件：平均gpa 3.5，他说没有平均GRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sem8h@virginia.edu       这里是所有在读学生： http://chem.virginia.edu/graduate-studies/current-graduate-students/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称  Chemical and Biological Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福94，邮件：录取学生的GRE范围 v:150-164,q 160-170, w: 3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：录取者都有strong recommendation letters和科研经历。2015届平均gpa 3.6，平均GRE v:161, q:161, w:4.5，更多年份详见附件截图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2677,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2743,19 +2762,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E3" s="4">
         <v>42353</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2763,23 +2782,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2787,25 +2806,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2813,19 +2832,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="4">
         <v>42353</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
@@ -2833,25 +2852,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E7" s="4">
         <v>42036</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2859,22 +2878,22 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="4">
         <v>42019</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2882,22 +2901,22 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2905,22 +2924,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -2928,22 +2947,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2951,22 +2970,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2974,19 +2993,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2994,22 +3013,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3017,25 +3036,25 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3043,22 +3062,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3066,19 +3085,19 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3283,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3305,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3328,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
@@ -3346,16 +3365,16 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -3366,13 +3385,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -3389,7 +3408,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
@@ -3409,7 +3428,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
@@ -3426,33 +3445,33 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -3460,22 +3479,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3483,19 +3502,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3503,19 +3522,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -3523,17 +3542,17 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3541,19 +3560,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -3562,19 +3581,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="4">
         <v>42339</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -3583,30 +3602,33 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3614,13 +3636,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" t="s">
         <v>319</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3628,16 +3650,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3645,19 +3667,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3665,19 +3687,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3685,19 +3707,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4039,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4067,7 +4089,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -4166,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4202,7 +4224,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4238,7 +4260,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4254,7 +4276,9 @@
       <c r="D11" s="4">
         <v>42353</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4333,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4347,10 +4371,10 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4385,13 +4409,13 @@
         <v>42339</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4399,14 +4423,14 @@
         <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4">
         <v>42353</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4414,19 +4438,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D20" s="4">
         <v>42353</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4434,16 +4458,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4451,22 +4475,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>42019</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4474,10 +4498,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>42019</v>
@@ -4489,19 +4513,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4">
         <v>42009</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4509,19 +4533,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="4">
         <v>42349</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4529,17 +4553,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="4">
         <v>42005</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -4547,19 +4571,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4567,19 +4591,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -4587,22 +4611,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D29" s="4">
         <v>42019</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4610,19 +4634,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="4">
         <v>42353</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4630,19 +4654,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4">
         <v>42353</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4650,22 +4674,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4673,19 +4697,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33" s="4">
         <v>42339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4693,19 +4717,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4">
         <v>42339</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4713,13 +4737,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4727,16 +4751,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="4">
         <v>42358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4744,19 +4768,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -4764,22 +4788,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -4787,19 +4811,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D39" s="4">
         <v>42353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4807,19 +4831,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4827,36 +4851,36 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -4864,22 +4888,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4887,19 +4911,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4907,16 +4931,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4924,19 +4948,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4944,39 +4968,39 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -4984,16 +5008,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5212,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5301,7 +5325,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5397,7 +5421,7 @@
         <v>42353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5425,11 +5449,11 @@
         <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -5437,16 +5461,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4">
         <v>42353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -5454,16 +5478,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D14" s="4">
         <v>42353</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5471,19 +5495,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4">
         <v>42009</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5491,19 +5515,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4">
         <v>42005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5511,19 +5535,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" s="4">
         <v>42012</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5531,19 +5555,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4">
         <v>42353</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
@@ -5551,19 +5575,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4">
         <v>42005</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5571,22 +5595,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="4">
         <v>42036</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -5594,19 +5618,19 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="4">
         <v>42338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5614,19 +5638,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5634,19 +5658,19 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D23" s="4">
         <v>42353</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5654,16 +5678,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
         <v>217</v>
       </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -5671,22 +5695,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" s="4">
         <v>42014</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5694,36 +5718,39 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5731,22 +5758,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5754,19 +5781,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D29" s="4">
         <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5774,16 +5801,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5791,22 +5818,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5814,69 +5841,72 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>339</v>
+        <v>391</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A36:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A36:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G35">
     <cfRule type="expression" priority="88" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:E27 G27 C28 F28:G29 C29:D29 C30:G35">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G35">
     <cfRule type="expression" dxfId="40" priority="87">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="418">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,10 +1127,6 @@
     <t>https://gradstudies.ucdavis.edu/programs/gems</t>
   </si>
   <si>
-    <t>托福100，每项都不低于22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dec 15（但是越早越好）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,6 +1471,103 @@
   </si>
   <si>
     <t>邮件：录取者都有strong recommendation letters和科研经历。2015届平均gpa 3.6，平均GRE v:161, q:161, w:4.5，更多年份详见附件截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.colostate.edu/graduates/application/</t>
+  </si>
+  <si>
+    <t>chemgrad@lamar.colostate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colorado State University 科罗拉多州立大学  (CSU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.engr.colostate.edu/cheme/pages/fs_graduate_program.html</t>
+  </si>
+  <si>
+    <t>cbe_grad@engr.colostate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reubiochem@colostate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bmb.colostate.edu/undergraduates/reu/how-to-apply/</t>
+  </si>
+  <si>
+    <t>托福100，每项都不低于22，邮件不提供平均gpa和GRE，说这个不是最重要的，建议在PS中亮点突出科研经历，并弄到三封好的推荐信，说这样子会比较有优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERHS_Information@mail.colostate.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental and Radiological Health Sciences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carnegie Mellon University  卡耐基梅隆大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cmu.edu/cheme/education/phd/graduate-admissions.html</t>
+  </si>
+  <si>
+    <t>Dec 15 (最晚到1月15，12月15是第一批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求84：22,22,18,22。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allysonb@andrew.cmu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.cmu.edu/grad/prospective/</t>
+  </si>
+  <si>
+    <t>网页上提到了微积分的学习。网页上说录取者一般gpa&gt;3.3，GRE q&gt;75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vb0g@andrew.cmu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanderbilt University  范德堡大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.vanderbilt.edu/chemistry/grad-prospective.php</t>
+  </si>
+  <si>
+    <t>chemgrad@vanderbilt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称 Chemical and Biomolecular Engineering，你可以看一下 http://engineering.vanderbilt.edu/chbe/GraduateProgram/index.php 这上面的专业方向，我觉得似乎不是特别对口化学，生物的比较多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j.d.young@vanderbilt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://medschool.vanderbilt.edu/qcb/admission-procedure</t>
+  </si>
+  <si>
+    <t>录取者托福一般大于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carolyn.m.berry@vanderbilt.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1642,91 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="124">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2694,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2867,7 +3044,7 @@
         <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>212</v>
@@ -2893,7 +3070,7 @@
         <v>221</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3013,22 +3190,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3036,25 +3213,25 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3062,22 +3239,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -3085,225 +3262,252 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
+    <cfRule type="expression" priority="47" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A18:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
-    <cfRule type="expression" priority="44" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A19:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H18">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A18:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H17">
-    <cfRule type="expression" dxfId="111" priority="43">
+  <conditionalFormatting sqref="A1:H1 A19:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H18">
+    <cfRule type="expression" dxfId="123" priority="45">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="110" priority="38">
+    <cfRule type="expression" dxfId="122" priority="40">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="121" priority="37">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
     <cfRule type="expression" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="109" priority="35">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="120" priority="35">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="108" priority="33">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="119" priority="33">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="107" priority="31">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="118" priority="31">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="106" priority="29">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="117" priority="29">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="105" priority="27">
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="expression" dxfId="116" priority="27">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="104" priority="25">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="115" priority="25">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="103" priority="23">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="114" priority="23">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="102" priority="21">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
+    <cfRule type="expression" dxfId="113" priority="21">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="101" priority="19">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
+    <cfRule type="expression" dxfId="112" priority="19">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="100" priority="17">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="111" priority="17">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="99" priority="15">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="110" priority="15">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="98" priority="13">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="109" priority="13">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="97" priority="11">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="108" priority="9">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="96" priority="7">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="107" priority="7">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="95" priority="5">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="106" priority="5">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="94" priority="3">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="105" priority="3">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="93" priority="1">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3471,7 +3675,7 @@
         <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -3593,7 +3797,7 @@
         <v>284</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -3625,7 +3829,7 @@
         <v>295</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>296</v>
@@ -3636,13 +3840,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3650,16 +3854,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3667,19 +3871,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3687,19 +3891,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3707,362 +3911,416 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>357</v>
+      <c r="E21" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="F21" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="4">
+        <v>42036</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42339</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="76" stopIfTrue="1">
+    <cfRule type="expression" priority="80" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A22:G1048576 C15:G19 C20:E20 G20 C21:G21">
-    <cfRule type="expression" priority="75" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A22:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G21">
-    <cfRule type="expression" dxfId="92" priority="74">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A24:G1048576 C15:G19 C20:E20 G20 C21:G23">
+    <cfRule type="expression" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A24:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G23">
+    <cfRule type="expression" dxfId="104" priority="78">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="103" priority="71">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="102" priority="69">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="91" priority="67">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
+  <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="101" priority="67">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="90" priority="65">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="100" priority="65">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="89" priority="63">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="99" priority="63">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="88" priority="61">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="98" priority="61">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="87" priority="59">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="97" priority="59">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="86" priority="57">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="96" priority="57">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="85" priority="55">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="84" priority="53">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
+    <cfRule type="expression" dxfId="95" priority="55">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="83" priority="51">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="94" priority="51">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="93" priority="49">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="82" priority="47">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="92" priority="47">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="81" priority="45">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="80" priority="43">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="91" priority="45">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="79" priority="41">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="90" priority="41">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="89" priority="39">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="78" priority="37">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="88" priority="37">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="77" priority="35">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="87" priority="35">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="76" priority="33">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="86" priority="33">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="75" priority="31">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="85" priority="31">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="74" priority="29">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="84" priority="29">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="73" priority="27">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="72" priority="25">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
+    <cfRule type="expression" dxfId="83" priority="27">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="71" priority="23">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="82" priority="23">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="81" priority="21">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="70" priority="19">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="80" priority="19">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="69" priority="17">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="79" priority="17">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="68" priority="15">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="78" priority="15">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="67" priority="13">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="77" priority="13">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="66" priority="11">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="76" priority="11">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="65" priority="9">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="75" priority="9">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="64" priority="7">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="74" priority="7">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="63" priority="5">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="73" priority="5">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="62" priority="3">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="61" priority="1">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4277,7 +4535,7 @@
         <v>42353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
@@ -4430,7 +4688,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4780,7 +5038,7 @@
         <v>232</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -4800,7 +5058,7 @@
         <v>246</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>243</v>
@@ -4834,16 +5092,16 @@
         <v>285</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4868,19 +5126,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -4888,22 +5146,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4911,19 +5169,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4931,16 +5189,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4948,19 +5206,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4968,19 +5226,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -4988,36 +5246,87 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5033,12 +5342,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="72" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="59" priority="38">
+    <cfRule type="expression" dxfId="71" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,7 +5357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="58" priority="36">
+    <cfRule type="expression" dxfId="70" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,7 +5367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="57" priority="34">
+    <cfRule type="expression" dxfId="69" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5068,7 +5377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="56" priority="32">
+    <cfRule type="expression" dxfId="68" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5078,7 +5387,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="55" priority="30">
+    <cfRule type="expression" dxfId="67" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5088,7 +5397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5098,7 +5407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="53" priority="26">
+    <cfRule type="expression" dxfId="65" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5108,7 +5417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="64" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5118,7 +5427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="51" priority="22">
+    <cfRule type="expression" dxfId="63" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5128,7 +5437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="62" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5138,7 +5447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="49" priority="18">
+    <cfRule type="expression" dxfId="61" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5148,7 +5457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5158,7 +5467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="47" priority="14">
+    <cfRule type="expression" dxfId="59" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5168,7 +5477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="58" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5183,7 +5492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5193,7 +5502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5203,7 +5512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5213,7 +5522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5223,21 +5532,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E52" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5650,7 +5962,7 @@
         <v>177</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5707,7 +6019,7 @@
         <v>229</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>228</v>
@@ -5730,7 +6042,7 @@
         <v>234</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5747,10 +6059,10 @@
         <v>42019</v>
       </c>
       <c r="E27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5770,7 +6082,7 @@
         <v>261</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>260</v>
@@ -5793,7 +6105,7 @@
         <v>287</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5818,22 +6130,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5841,22 +6153,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5864,16 +6176,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
-      <c r="E33" t="s">
-        <v>326</v>
+      <c r="E33" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5881,455 +6193,526 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>336</v>
+      <c r="E34" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A36:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G35">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A38:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G37">
+    <cfRule type="expression" priority="94" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A38:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G37">
+    <cfRule type="expression" dxfId="52" priority="93">
+      <formula>MOD(ROW($A1),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2">
+    <cfRule type="expression" priority="97" stopIfTrue="1">
+      <formula>MOD(ROW($A1048574),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="expression" priority="98" stopIfTrue="1">
+      <formula>MOD(ROW(#REF!),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" priority="105" stopIfTrue="1">
+      <formula>MOD(ROW($A1048572),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="51" priority="89">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="88" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A36:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G35">
-    <cfRule type="expression" dxfId="40" priority="87">
-      <formula>MOD(ROW($A1),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="91" stopIfTrue="1">
-      <formula>MOD(ROW($A1048574),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="92" stopIfTrue="1">
-      <formula>MOD(ROW(#REF!),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="99" stopIfTrue="1">
-      <formula>MOD(ROW($A1048572),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="50" priority="87">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="49" priority="85">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="84" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="39" priority="83">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="48" priority="83">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="82" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="38" priority="81">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" priority="80" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="37" priority="79">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="47" priority="81">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="78" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="36" priority="77">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="46" priority="77">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="76" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="35" priority="75">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="45" priority="75">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="44" priority="73">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="34" priority="71">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="43" priority="71">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="70" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="33" priority="69">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="42" priority="69">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="32" priority="67">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="41" priority="67">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="31" priority="65">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="40" priority="65">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="30" priority="63">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="39" priority="63">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="29" priority="61">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="38" priority="61">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="28" priority="59">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="37" priority="59">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="27" priority="57">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="36" priority="57">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="56" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="26" priority="55">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="25" priority="53">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="24" priority="51">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="34" priority="51">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="23" priority="49">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="33" priority="49">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="32" priority="47">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="22" priority="45">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="21" priority="43">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="20" priority="41">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="29" priority="41">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="19" priority="39">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="18" priority="37">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="27" priority="37">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="17" priority="35">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="26" priority="35">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="16" priority="33">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="15" priority="31">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="14" priority="29">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="13" priority="27">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="12" priority="25">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="11" priority="23">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="9" priority="19">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
+  <conditionalFormatting sqref="A29:B29">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW($A29),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
+  <conditionalFormatting sqref="A31:B31">
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>MOD(ROW($A31),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B32">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>MOD(ROW($A29),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="A32:B32">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>MOD(ROW($A32),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B33">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>MOD(ROW($A30),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
+  <conditionalFormatting sqref="A33:B33">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>MOD(ROW($A33),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B34">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW($A31),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW($A32),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
+  <conditionalFormatting sqref="A34:B34">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>MOD(ROW($A34),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B35">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW($A33),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B34">
+  <conditionalFormatting sqref="A35:B35">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>MOD(ROW($A35),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:B36">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW($A34),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B35">
+  <conditionalFormatting sqref="A36:B36">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW($A36),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW($A35),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A37),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="438">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1344,10 +1344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boston College  波士顿大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dale.mahoney@bc.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1568,6 +1564,85 @@
   </si>
   <si>
     <t>carolyn.m.berry@vanderbilt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个项目感觉和化学挺对口的，有空气、水等方面的传统化学领域的课题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.vanderbilt.edu/cee/GraduateStudy/EnvironmentalEngineering/index.php     没有招生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen.fuller@vanderbilt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sarah.m.satterwhite@vanderbilt.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interdisciplinary Materials Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Rochester  罗彻斯特大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.rochester.edu/graduate/application.php</t>
+  </si>
+  <si>
+    <t>托福&gt;100，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradrec@chem.rochester.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston College  波士顿大学 (BC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：平均gpa 3.8，GRE q平均分168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.urmc.rochester.edu/education/graduate/phd/biochemistry/admissions.cfm</t>
+  </si>
+  <si>
+    <t>Dec 1 (截止到Jan 1，但是之前提交不用申请费)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melissa_vera@urmc.rochester.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ees.rochester.edu/graduate/apply.html</t>
+  </si>
+  <si>
+    <t>grad_info@earth.rochester.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth &amp; Environmental Sciences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chegradinfo@che.rochester.edu</t>
+  </si>
+  <si>
+    <t>http://www.che.rochester.edu/graduate/apply.html</t>
+  </si>
+  <si>
+    <t>http://www.che.rochester.edu/graduate/phd.html  看下这个，这里面要求本科期间必须修过三门课程中的两门（因为你不是化工的本科）才能申请。录取者平均GRE都能过80%，托福&gt;95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1620,7 +1695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1637,12 +1712,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="127">
     <dxf>
       <fill>
         <patternFill>
@@ -2144,6 +2222,27 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2871,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3044,7 +3143,7 @@
         <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>212</v>
@@ -3070,7 +3169,7 @@
         <v>221</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3225,13 +3324,13 @@
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>339</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3257,7 +3356,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>45</v>
       </c>
@@ -3277,237 +3376,321 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>400</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42019</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42019</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="47" stopIfTrue="1">
+    <cfRule type="expression" priority="53" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A19:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H18">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A22:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H21">
+    <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A19:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H18">
-    <cfRule type="expression" dxfId="123" priority="45">
+  <conditionalFormatting sqref="A1:H1 A22:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H21">
+    <cfRule type="expression" dxfId="126" priority="51">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="122" priority="40">
+    <cfRule type="expression" dxfId="125" priority="46">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="124" priority="43">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+    <cfRule type="expression" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
+    <cfRule type="expression" dxfId="123" priority="41">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
+    <cfRule type="expression" dxfId="122" priority="39">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" dxfId="121" priority="37">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="120" priority="35">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" dxfId="119" priority="33">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="118" priority="31">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" dxfId="117" priority="29">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" dxfId="116" priority="27">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" dxfId="115" priority="25">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="114" priority="23">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" dxfId="113" priority="21">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="112" priority="19">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="111" priority="17">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="110" priority="15">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="111" priority="15">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="109" priority="13">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="110" priority="13">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="109" priority="11">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" dxfId="108" priority="9">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" dxfId="107" priority="7">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="106" priority="5">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+  <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="105" priority="3">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3675,7 +3858,7 @@
         <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -3797,7 +3980,7 @@
         <v>284</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -3829,7 +4012,7 @@
         <v>295</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>296</v>
@@ -3880,10 +4063,10 @@
         <v>42019</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -3931,16 +4114,16 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" s="4">
         <v>42036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3948,366 +4131,393 @@
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D23" s="4">
         <v>42339</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="80" stopIfTrue="1">
+    <cfRule type="expression" priority="82" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A24:G1048576 C15:G19 C20:E20 G20 C21:G23">
-    <cfRule type="expression" priority="79" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A24:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G23">
-    <cfRule type="expression" dxfId="104" priority="78">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A25:G1048576 C15:G19 C20:E20 G20 C21:G24">
+    <cfRule type="expression" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A25:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G24">
+    <cfRule type="expression" dxfId="106" priority="80">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="105" priority="73">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="103" priority="71">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="104" priority="71">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="70" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="102" priority="69">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="103" priority="69">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="101" priority="67">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="102" priority="67">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="100" priority="65">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="101" priority="65">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="99" priority="63">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="100" priority="63">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="98" priority="61">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="99" priority="61">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="97" priority="59">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="98" priority="59">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="96" priority="57">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="95" priority="55">
+    <cfRule type="expression" dxfId="97" priority="57">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="96" priority="53">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="94" priority="51">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="95" priority="51">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="93" priority="49">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="94" priority="49">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="92" priority="47">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="91" priority="45">
+    <cfRule type="expression" dxfId="93" priority="47">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="92" priority="43">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="90" priority="41">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="91" priority="41">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="89" priority="39">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="88" priority="37">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="89" priority="37">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="87" priority="35">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="88" priority="35">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="86" priority="33">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="87" priority="33">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="85" priority="31">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="86" priority="31">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="84" priority="29">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="83" priority="27">
+    <cfRule type="expression" dxfId="85" priority="29">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="84" priority="25">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="82" priority="23">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="83" priority="23">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="81" priority="21">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="82" priority="21">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="80" priority="19">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="81" priority="19">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="79" priority="17">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="80" priority="17">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="78" priority="15">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="79" priority="15">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="77" priority="13">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="78" priority="13">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="76" priority="11">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="77" priority="11">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="75" priority="9">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="76" priority="9">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="74" priority="7">
-      <formula>MOD(ROW($A20),2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="75" priority="7">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="73" priority="5">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="74" priority="5">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="73" priority="3">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW($A23),2)</formula>
+  <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4317,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4535,7 +4745,7 @@
         <v>42353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
@@ -4688,7 +4898,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5038,7 +5248,7 @@
         <v>232</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5092,16 +5302,16 @@
         <v>285</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5135,10 +5345,10 @@
         <v>299</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5155,13 +5365,13 @@
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -5255,10 +5465,10 @@
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5266,16 +5476,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -5283,16 +5496,16 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="4">
         <v>42019</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5300,16 +5513,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5317,16 +5530,36 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D52" s="4">
         <v>42005</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D53" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5538,18 +5771,19 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E52" r:id="rId1"/>
+    <hyperlink ref="E53" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5962,7 +6196,7 @@
         <v>177</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6019,7 +6253,7 @@
         <v>229</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>228</v>
@@ -6042,7 +6276,7 @@
         <v>234</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6059,10 +6293,10 @@
         <v>42019</v>
       </c>
       <c r="E27" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6082,7 +6316,7 @@
         <v>261</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>260</v>
@@ -6105,7 +6339,7 @@
         <v>287</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6205,10 +6439,10 @@
         <v>335</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6216,16 +6450,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D35" s="4">
         <v>42019</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6233,19 +6467,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6253,463 +6487,493 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D37" s="4">
         <v>42019</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42019</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A38:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G37">
-    <cfRule type="expression" priority="94" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A38:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G37">
-    <cfRule type="expression" dxfId="52" priority="93">
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 A39:G1048576 G7:G8 E10:G10 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G38">
+    <cfRule type="expression" priority="96" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A39:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G38">
+    <cfRule type="expression" dxfId="52" priority="95">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" priority="97" stopIfTrue="1">
+    <cfRule type="expression" priority="99" stopIfTrue="1">
       <formula>MOD(ROW($A1048574),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" priority="98" stopIfTrue="1">
+    <cfRule type="expression" priority="100" stopIfTrue="1">
       <formula>MOD(ROW(#REF!),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="105" stopIfTrue="1">
+    <cfRule type="expression" priority="107" stopIfTrue="1">
       <formula>MOD(ROW($A1048572),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" dxfId="51" priority="91">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:G6">
     <cfRule type="expression" priority="90" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="51" priority="89">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="50" priority="89">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="88" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="50" priority="87">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" dxfId="49" priority="87">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="86" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="49" priority="85">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
+    <cfRule type="expression" dxfId="48" priority="85">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" priority="84" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="48" priority="83">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="47" priority="83">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="82" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="47" priority="81">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="46" priority="79">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
     <cfRule type="expression" priority="78" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="46" priority="77">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
+    <cfRule type="expression" dxfId="45" priority="77">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="76" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="45" priority="75">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="44" priority="75">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:B12 E12:G12">
     <cfRule type="expression" priority="74" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="44" priority="73">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
+    <cfRule type="expression" dxfId="43" priority="73">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="43" priority="71">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="42" priority="71">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A13:C13 E13:G13">
     <cfRule type="expression" priority="70" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="42" priority="69">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
+    <cfRule type="expression" dxfId="41" priority="69">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="41" priority="67">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A14:C14 E14:G14">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="40" priority="65">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="39" priority="65">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="39" priority="63">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="38" priority="63">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:C15 E15:G15">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="38" priority="61">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
+    <cfRule type="expression" dxfId="37" priority="61">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="37" priority="59">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="36" priority="59">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A16:C16 E16:G16">
     <cfRule type="expression" priority="58" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="36" priority="57">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="35" priority="55">
+    <cfRule type="expression" dxfId="35" priority="57">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="34" priority="53">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="34" priority="51">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="33" priority="51">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:D18 G18">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="33" priority="49">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
+    <cfRule type="expression" dxfId="32" priority="49">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" priority="48" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="32" priority="47">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="expression" priority="46" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="31" priority="45">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="30" priority="45">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="30" priority="43">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="29" priority="41">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="28" priority="41">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="28" priority="39">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="27" priority="37">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="25" priority="35">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>MOD(ROW($A24),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>MOD(ROW($A25),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>MOD(ROW($A25),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>MOD(ROW($A26),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>MOD(ROW($A26),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>MOD(ROW($A27),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="22" priority="27">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>MOD(ROW($A27),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>MOD(ROW($A28),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="20" priority="23">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="A29:B29">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>MOD(ROW($A28),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>MOD(ROW($A29),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>MOD(ROW($A29),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW($A30),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>MOD(ROW($A30),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW($A31),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B32">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>MOD(ROW($A31),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>MOD(ROW($A32),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B33">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>MOD(ROW($A32),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>MOD(ROW($A33),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B34">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>MOD(ROW($A33),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
+    <cfRule type="expression" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B35">
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>MOD(ROW($A35),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:B36">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B35">
+  <conditionalFormatting sqref="A36:B36">
     <cfRule type="expression" dxfId="11" priority="5">
-      <formula>MOD(ROW($A35),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B36">
+      <formula>MOD(ROW($A36),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>MOD(ROW($A36),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW($A37),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B38">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A37),2)</formula>
+  <conditionalFormatting sqref="A38:B38">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW($A38),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="448">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,6 +1643,44 @@
   </si>
   <si>
     <t>http://www.che.rochester.edu/graduate/phd.html  看下这个，这里面要求本科期间必须修过三门课程中的两门（因为你不是化工的本科）才能申请。录取者平均GRE都能过80%，托福&gt;95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa&gt;3.0，GRE &gt;90%，邮件里说“特别是q部分”，也就是说v和q两部分都希望你能够&gt;90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stony Brook University  纽约州立大学石溪分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目全称 Biochemistry and Structural Biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.stonybrook.edu/bsb/prospective/applying.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joann.delucia-conlon@stonybrook.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.stonybrook.edu/commcms/chemistry/education/PhDHowtoApply.html</t>
+  </si>
+  <si>
+    <t>chemgrad@stonybrook.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.matscieng.sunysb.edu/gradadmissons.htm</t>
+  </si>
+  <si>
+    <t>Shauntae.Smith@stonybrook.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Science and Engineering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1710,9 +1748,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,28 +1755,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="128">
     <dxf>
       <fill>
         <patternFill>
@@ -2222,6 +2236,34 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2970,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3403,8 +3445,14 @@
       <c r="D19" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="E19" s="4">
+        <v>42019</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>419</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>417</v>
@@ -3447,236 +3495,263 @@
         <v>433</v>
       </c>
     </row>
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" priority="53" stopIfTrue="1">
+    <cfRule type="expression" priority="55" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A22:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H21">
-    <cfRule type="expression" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:G1 A1:B2 F2:G2 H1:H2 A23:H1048576 C5:H5 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H22">
+    <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$G$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 A22:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H21">
-    <cfRule type="expression" dxfId="126" priority="51">
+  <conditionalFormatting sqref="A1:H1 A23:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H22">
+    <cfRule type="expression" dxfId="127" priority="53">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="125" priority="46">
+    <cfRule type="expression" dxfId="126" priority="48">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="125" priority="45">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
     <cfRule type="expression" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:G3 C4">
     <cfRule type="expression" dxfId="124" priority="43">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4 C6:D6 F6">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G3 C4">
+  <conditionalFormatting sqref="A4:B4 G4 D4">
     <cfRule type="expression" dxfId="123" priority="41">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 G4 D4">
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" dxfId="122" priority="39">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="121" priority="37">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" dxfId="120" priority="35">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="119" priority="33">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" dxfId="118" priority="31">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" priority="30" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A9:B10">
     <cfRule type="expression" dxfId="117" priority="29">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" priority="28" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B10">
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" dxfId="116" priority="27">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="115" priority="25">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="A13:B13">
     <cfRule type="expression" dxfId="114" priority="23">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+      <formula>MOD(ROW($A13),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="113" priority="21">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="112" priority="19">
-      <formula>MOD(ROW($A13),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="112" priority="17">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" dxfId="111" priority="15">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" dxfId="110" priority="13">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" dxfId="109" priority="11">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" dxfId="108" priority="9">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" dxfId="107" priority="7">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="106" priority="5">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>MOD(ROW($A20),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="105" priority="3">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW($A21),2)</formula>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3687,10 +3762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4163,361 +4238,391 @@
         <v>431</v>
       </c>
     </row>
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" priority="82" stopIfTrue="1">
+    <cfRule type="expression" priority="84" stopIfTrue="1">
       <formula>MOD(ROW($A1048575),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A1:G1 A25:G1048576 C15:G19 C20:E20 G20 C21:G24">
-    <cfRule type="expression" priority="81" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 A25:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G24">
-    <cfRule type="expression" dxfId="106" priority="80">
+  <conditionalFormatting sqref="E13:G13 A1:G1 A26:G1048576 C15:G19 C20:E20 G20 C21:G25">
+    <cfRule type="expression" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13 A26:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G25">
+    <cfRule type="expression" dxfId="104" priority="82">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 A2:G2">
+    <cfRule type="expression" dxfId="103" priority="75">
+      <formula>MOD(ROW($A2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C3 E3:G3">
     <cfRule type="expression" priority="74" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="105" priority="73">
-      <formula>MOD(ROW($A2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="102" priority="73">
+      <formula>MOD(ROW($A3),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4:G4">
     <cfRule type="expression" priority="72" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="104" priority="71">
-      <formula>MOD(ROW($A3),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
+    <cfRule type="expression" dxfId="101" priority="71">
+      <formula>MOD(ROW($A4),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="expression" priority="70" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="103" priority="69">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="100" priority="69">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A5:C5 E5:G5">
     <cfRule type="expression" priority="68" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="102" priority="67">
-      <formula>MOD(ROW($A4),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
+    <cfRule type="expression" dxfId="99" priority="67">
+      <formula>MOD(ROW($A5),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" priority="66" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="101" priority="65">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="98" priority="65">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A6:C6 E6:G6">
     <cfRule type="expression" priority="64" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="100" priority="63">
-      <formula>MOD(ROW($A5),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
+    <cfRule type="expression" dxfId="97" priority="63">
+      <formula>MOD(ROW($A6),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" priority="62" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="99" priority="61">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="96" priority="61">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A7:C7 E7:G7">
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="98" priority="59">
-      <formula>MOD(ROW($A6),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="97" priority="57">
+    <cfRule type="expression" dxfId="95" priority="59">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="94" priority="55">
+      <formula>MOD(ROW($A7),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:G8">
     <cfRule type="expression" priority="54" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="96" priority="53">
-      <formula>MOD(ROW($A7),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
+    <cfRule type="expression" dxfId="93" priority="53">
+      <formula>MOD(ROW($A8),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" priority="52" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="95" priority="51">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="92" priority="51">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A9:C9 E9:G9">
     <cfRule type="expression" priority="50" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="94" priority="49">
-      <formula>MOD(ROW($A8),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="93" priority="47">
+    <cfRule type="expression" dxfId="91" priority="49">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="90" priority="45">
+      <formula>MOD(ROW($A9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 G10">
     <cfRule type="expression" priority="44" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="92" priority="43">
-      <formula>MOD(ROW($A9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
+    <cfRule type="expression" dxfId="89" priority="43">
+      <formula>MOD(ROW($A10),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="42" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="91" priority="41">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="88" priority="41">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="expression" priority="40" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="90" priority="39">
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" dxfId="87" priority="39">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
+  <conditionalFormatting sqref="A11:C11 E11:G11">
     <cfRule type="expression" priority="38" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="89" priority="37">
-      <formula>MOD(ROW($A10),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
+    <cfRule type="expression" dxfId="86" priority="37">
+      <formula>MOD(ROW($A11),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" priority="36" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="88" priority="35">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="85" priority="35">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="expression" priority="34" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="87" priority="33">
-      <formula>MOD(ROW($A11),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="84" priority="33">
+      <formula>MOD(ROW($A12),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="expression" priority="32" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="86" priority="31">
-      <formula>MOD(ROW($A12),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="85" priority="29">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14 E14:G14">
+    <cfRule type="expression" dxfId="82" priority="27">
+      <formula>MOD(ROW($A14),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" priority="26" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="84" priority="25">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="81" priority="25">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" priority="24" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="83" priority="23">
-      <formula>MOD(ROW($A14),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="80" priority="23">
+      <formula>MOD(ROW($A15),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
     <cfRule type="expression" priority="22" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="82" priority="21">
-      <formula>MOD(ROW($A15),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
+    <cfRule type="expression" dxfId="79" priority="21">
+      <formula>MOD(ROW($A16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17">
     <cfRule type="expression" priority="20" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="81" priority="19">
-      <formula>MOD(ROW($A16),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
+    <cfRule type="expression" dxfId="78" priority="19">
+      <formula>MOD(ROW($A17),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="18" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="80" priority="17">
-      <formula>MOD(ROW($A17),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
+    <cfRule type="expression" dxfId="77" priority="17">
+      <formula>MOD(ROW($A18),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
     <cfRule type="expression" priority="16" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="79" priority="15">
-      <formula>MOD(ROW($A18),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
+    <cfRule type="expression" dxfId="76" priority="15">
+      <formula>MOD(ROW($A19),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
     <cfRule type="expression" priority="14" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="78" priority="13">
-      <formula>MOD(ROW($A19),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="75" priority="13">
+      <formula>MOD(ROW($A20),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="77" priority="11">
+      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="74" priority="11">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="A21:B21">
     <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW+$A$1:$G$1,2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="76" priority="9">
-      <formula>MOD(ROW($A20),2)</formula>
+      <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
+    <cfRule type="expression" dxfId="73" priority="9">
+      <formula>MOD(ROW($A21),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="75" priority="7">
-      <formula>MOD(ROW($A21),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="72" priority="7">
+      <formula>MOD(ROW($A22),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" priority="6" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="74" priority="5">
-      <formula>MOD(ROW($A22),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="71" priority="5">
+      <formula>MOD(ROW($A23),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="73" priority="3">
-      <formula>MOD(ROW($A23),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
+    <cfRule type="expression" dxfId="70" priority="3">
+      <formula>MOD(ROW($A24),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>MOD(ROW+$A$1:$F$1,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW($A24),2)</formula>
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4527,10 +4632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+      <selection activeCell="A54" sqref="A54:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5538,7 +5643,7 @@
       <c r="D52" s="4">
         <v>42005</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="2" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5555,11 +5660,28 @@
       <c r="D53" s="4">
         <v>42019</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" s="4">
+        <v>42005</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5575,12 +5697,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
-    <cfRule type="expression" dxfId="72" priority="39">
+    <cfRule type="expression" dxfId="69" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="71" priority="38">
+    <cfRule type="expression" dxfId="68" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,7 +5712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="70" priority="36">
+    <cfRule type="expression" dxfId="67" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5600,7 +5722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="69" priority="34">
+    <cfRule type="expression" dxfId="66" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5610,7 +5732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="65" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5620,7 +5742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="67" priority="30">
+    <cfRule type="expression" dxfId="64" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5630,7 +5752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="66" priority="28">
+    <cfRule type="expression" dxfId="63" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5640,7 +5762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="65" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5650,7 +5772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="64" priority="24">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5660,7 +5782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="63" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5670,7 +5792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="62" priority="20">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5680,7 +5802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="61" priority="18">
+    <cfRule type="expression" dxfId="58" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5690,7 +5812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="60" priority="16">
+    <cfRule type="expression" dxfId="57" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,7 +5822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="59" priority="14">
+    <cfRule type="expression" dxfId="56" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5710,7 +5832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="58" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5725,7 +5847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5735,7 +5857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="56" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5745,7 +5867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5755,7 +5877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5765,16 +5887,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E52" r:id="rId1"/>
-    <hyperlink ref="E53" r:id="rId2"/>
+    <hyperlink ref="E54" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5782,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -6527,7 +6648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A39:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G38">
-    <cfRule type="expression" dxfId="52" priority="95">
+    <cfRule type="expression" dxfId="49" priority="95">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6552,7 +6673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="51" priority="91">
+    <cfRule type="expression" dxfId="48" priority="91">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6562,7 +6683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="50" priority="89">
+    <cfRule type="expression" dxfId="47" priority="89">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6572,7 +6693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="49" priority="87">
+    <cfRule type="expression" dxfId="46" priority="87">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6582,7 +6703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="48" priority="85">
+    <cfRule type="expression" dxfId="45" priority="85">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6592,7 +6713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="47" priority="83">
+    <cfRule type="expression" dxfId="44" priority="83">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6602,7 +6723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="46" priority="79">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6612,7 +6733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="45" priority="77">
+    <cfRule type="expression" dxfId="42" priority="77">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6622,7 +6743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="44" priority="75">
+    <cfRule type="expression" dxfId="41" priority="75">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6632,7 +6753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="43" priority="73">
+    <cfRule type="expression" dxfId="40" priority="73">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6642,7 +6763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="42" priority="71">
+    <cfRule type="expression" dxfId="39" priority="71">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6652,7 +6773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="41" priority="69">
+    <cfRule type="expression" dxfId="38" priority="69">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6662,7 +6783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="40" priority="67">
+    <cfRule type="expression" dxfId="37" priority="67">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6672,7 +6793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="39" priority="65">
+    <cfRule type="expression" dxfId="36" priority="65">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6682,7 +6803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="35" priority="63">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6692,7 +6813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="37" priority="61">
+    <cfRule type="expression" dxfId="34" priority="61">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6702,7 +6823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="36" priority="59">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6712,7 +6833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="35" priority="57">
+    <cfRule type="expression" dxfId="32" priority="57">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6722,7 +6843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="34" priority="53">
+    <cfRule type="expression" dxfId="31" priority="53">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6732,7 +6853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="30" priority="51">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6742,7 +6863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="32" priority="49">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6752,7 +6873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="28" priority="47">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6762,7 +6883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="30" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6772,7 +6893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6782,7 +6903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="25" priority="41">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6792,7 +6913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6802,7 +6923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6812,7 +6933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6822,7 +6943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6832,7 +6953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="23" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6842,7 +6963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6852,7 +6973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6862,7 +6983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6872,7 +6993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6882,7 +7003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6892,7 +7013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6902,7 +7023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6912,7 +7033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +7043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6932,7 +7053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6942,7 +7063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6952,7 +7073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>MOD(ROW($A36),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6962,7 +7083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>MOD(ROW($A37),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6972,7 +7093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW($A38),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="452">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1416,10 +1416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福&gt;96,gpa&gt;3.3,GRE q&gt;160是favorable的。 看一下附件的手册吧，你的本科不是化工，你需要上四门课才能申请，但是这四门课如果你本科期间没上过就不能申请了？正在邮件询问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.bc.edu/schools/gsas/admissions/deptreq.html</t>
   </si>
   <si>
@@ -1427,10 +1423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网。邮件：申请者往往具有很深的化学背景，所以化学本科生申请没问题。往届平均gpa 3.7，平均GRE 157</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dsand@ufl.edu</t>
   </si>
   <si>
@@ -1518,10 +1510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福要求84：22,22,18,22。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allysonb@andrew.cmu.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1681,6 +1669,34 @@
   </si>
   <si>
     <t>Material Science and Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网三封推荐信。推荐参加biochemistry，chemistry，biology等的sub，详见官网。邮件：申请者往往具有很深的化学背景，所以化学本科生申请没问题。往届平均gpa 3.7，平均GRE v和q都是157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carnegie Mellon University  卡耐基梅隆大学  (CMU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福要求84：22,22,18,22。托福100是比较理想的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件：GRE v和q都在60%-70%甚至更好是比较好的，对国际学生来说提交GRE sub很有帮助，托福至少88%（我第一次看到托福还有用百分数衡量的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，邮件：托福90的话化学系比较愿意接收，GRE v+q最低要300，gpa最低要3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福&gt;96,gpa&gt;3.3,GRE q&gt;160是favorable的。 看一下附件的手册吧，你的本科不是化工，所以一旦录取你了，你需要比化工专业的学生多上四门专业课，不过这是录取之后的事情了，和录取无关。（个人猜测你要是强调一下你接受过化工类训练是不是有助于录取？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审通过了会在三月左右通过Skype有个interview，最后再决定是否最终录取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1755,49 +1771,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="128">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="124">
     <dxf>
       <fill>
         <patternFill>
@@ -2236,6 +2210,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3014,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3423,13 +3411,13 @@
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3437,25 +3425,25 @@
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E19" s="4">
         <v>42019</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3463,16 +3451,16 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E20" s="4">
         <v>42019</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3480,19 +3468,19 @@
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E21" s="4">
         <v>42019</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3500,16 +3488,16 @@
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3525,12 +3513,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A23:H1048576 C5:H5 C6:D6 F6 C7:E7 G7:H7 C8:H10 G11:H11 H12 C11:E13 G13:H13 C14:H22">
-    <cfRule type="expression" dxfId="127" priority="53">
+    <cfRule type="expression" dxfId="123" priority="53">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 F2:H2">
-    <cfRule type="expression" dxfId="126" priority="48">
+    <cfRule type="expression" dxfId="122" priority="48">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3540,7 +3528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="125" priority="45">
+    <cfRule type="expression" dxfId="121" priority="45">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3550,7 +3538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3 C4">
-    <cfRule type="expression" dxfId="124" priority="43">
+    <cfRule type="expression" dxfId="120" priority="43">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3560,7 +3548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4 D4">
-    <cfRule type="expression" dxfId="123" priority="41">
+    <cfRule type="expression" dxfId="119" priority="41">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3570,7 +3558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="122" priority="39">
+    <cfRule type="expression" dxfId="118" priority="39">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3580,7 +3568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="121" priority="37">
+    <cfRule type="expression" dxfId="117" priority="37">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3590,7 +3578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="120" priority="35">
+    <cfRule type="expression" dxfId="116" priority="35">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3600,7 +3588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="119" priority="33">
+    <cfRule type="expression" dxfId="115" priority="33">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3610,7 +3598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="118" priority="31">
+    <cfRule type="expression" dxfId="114" priority="31">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3620,7 +3608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B10">
-    <cfRule type="expression" dxfId="117" priority="29">
+    <cfRule type="expression" dxfId="113" priority="29">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3630,7 +3618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B12">
-    <cfRule type="expression" dxfId="116" priority="27">
+    <cfRule type="expression" dxfId="112" priority="27">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3640,7 +3628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="115" priority="25">
+    <cfRule type="expression" dxfId="111" priority="25">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3650,7 +3638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="114" priority="23">
+    <cfRule type="expression" dxfId="110" priority="23">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3660,7 +3648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="113" priority="21">
+    <cfRule type="expression" dxfId="109" priority="21">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3670,7 +3658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="112" priority="17">
+    <cfRule type="expression" dxfId="108" priority="17">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3680,7 +3668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="111" priority="15">
+    <cfRule type="expression" dxfId="107" priority="15">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3690,7 +3678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="110" priority="13">
+    <cfRule type="expression" dxfId="106" priority="13">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3700,7 +3688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="109" priority="11">
+    <cfRule type="expression" dxfId="105" priority="11">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3710,7 +3698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="108" priority="9">
+    <cfRule type="expression" dxfId="104" priority="9">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3720,7 +3708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="107" priority="7">
+    <cfRule type="expression" dxfId="103" priority="7">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3730,7 +3718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="106" priority="5">
+    <cfRule type="expression" dxfId="102" priority="5">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3740,7 +3728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3750,7 +3738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="100" priority="1">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3764,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3933,7 +3921,7 @@
         <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -4087,13 +4075,13 @@
         <v>295</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>38</v>
       </c>
@@ -4107,7 +4095,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -4124,7 +4112,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>38</v>
       </c>
@@ -4144,7 +4132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>45</v>
       </c>
@@ -4164,7 +4152,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -4184,78 +4172,81 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D22" s="4">
         <v>42036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D23" s="4">
         <v>42339</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D25" s="4">
         <v>42005</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G13 A26:G1048576 A1:G1 C15:G19 C20:E20 G20 C21:G25">
-    <cfRule type="expression" dxfId="104" priority="82">
+    <cfRule type="expression" dxfId="99" priority="82">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4281,7 +4272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 A2:G2">
-    <cfRule type="expression" dxfId="103" priority="75">
+    <cfRule type="expression" dxfId="98" priority="75">
       <formula>MOD(ROW($A2),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4291,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3:G3">
-    <cfRule type="expression" dxfId="102" priority="73">
+    <cfRule type="expression" dxfId="97" priority="73">
       <formula>MOD(ROW($A3),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4301,7 +4292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 E4:G4">
-    <cfRule type="expression" dxfId="101" priority="71">
+    <cfRule type="expression" dxfId="96" priority="71">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4311,7 +4302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="100" priority="69">
+    <cfRule type="expression" dxfId="95" priority="69">
       <formula>MOD(ROW($A4),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4321,7 +4312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 E5:G5">
-    <cfRule type="expression" dxfId="99" priority="67">
+    <cfRule type="expression" dxfId="94" priority="67">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4331,7 +4322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="98" priority="65">
+    <cfRule type="expression" dxfId="93" priority="65">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4341,7 +4332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:G6">
-    <cfRule type="expression" dxfId="97" priority="63">
+    <cfRule type="expression" dxfId="92" priority="63">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4351,7 +4342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="96" priority="61">
+    <cfRule type="expression" dxfId="91" priority="61">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4361,7 +4352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:G7">
-    <cfRule type="expression" dxfId="95" priority="59">
+    <cfRule type="expression" dxfId="90" priority="59">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,7 +4362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="94" priority="55">
+    <cfRule type="expression" dxfId="89" priority="55">
       <formula>MOD(ROW($A7),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4381,7 +4372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:G8">
-    <cfRule type="expression" dxfId="93" priority="53">
+    <cfRule type="expression" dxfId="88" priority="53">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4391,7 +4382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="92" priority="51">
+    <cfRule type="expression" dxfId="87" priority="51">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4401,7 +4392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="86" priority="49">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4411,7 +4402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="90" priority="45">
+    <cfRule type="expression" dxfId="85" priority="45">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4421,7 +4412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10">
-    <cfRule type="expression" dxfId="89" priority="43">
+    <cfRule type="expression" dxfId="84" priority="43">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4431,7 +4422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="88" priority="41">
+    <cfRule type="expression" dxfId="83" priority="41">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4441,7 +4432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="87" priority="39">
+    <cfRule type="expression" dxfId="82" priority="39">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4451,7 +4442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11">
-    <cfRule type="expression" dxfId="86" priority="37">
+    <cfRule type="expression" dxfId="81" priority="37">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4461,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="85" priority="35">
+    <cfRule type="expression" dxfId="80" priority="35">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4471,7 +4462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="84" priority="33">
+    <cfRule type="expression" dxfId="79" priority="33">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4481,7 +4472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="83" priority="31">
+    <cfRule type="expression" dxfId="78" priority="31">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4491,7 +4482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="82" priority="27">
+    <cfRule type="expression" dxfId="77" priority="27">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4501,7 +4492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="81" priority="25">
+    <cfRule type="expression" dxfId="76" priority="25">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4511,7 +4502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="80" priority="23">
+    <cfRule type="expression" dxfId="75" priority="23">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4521,7 +4512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="74" priority="21">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4531,7 +4522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="78" priority="19">
+    <cfRule type="expression" dxfId="73" priority="19">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4541,7 +4532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="77" priority="17">
+    <cfRule type="expression" dxfId="72" priority="17">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4551,7 +4542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="76" priority="15">
+    <cfRule type="expression" dxfId="71" priority="15">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4561,7 +4552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="75" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +4562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="74" priority="11">
+    <cfRule type="expression" dxfId="69" priority="11">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4581,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="73" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4591,7 +4582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="67" priority="7">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,7 +4592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="71" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4611,7 +4602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="70" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4621,7 +4612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4634,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:B54"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4850,7 +4841,7 @@
         <v>42353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
@@ -5003,7 +4994,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5353,7 +5344,7 @@
         <v>232</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5450,10 +5441,10 @@
         <v>299</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5570,10 +5561,10 @@
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5581,10 +5572,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
@@ -5593,24 +5584,27 @@
         <v>359</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D50" s="4">
         <v>42019</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5618,33 +5612,36 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D52" s="4">
         <v>42005</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5652,19 +5649,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D53" s="4">
         <v>42019</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5672,16 +5669,16 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D54" s="4">
         <v>42005</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5697,12 +5694,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13 A14 C14:D14 A15:D15 A16:C16 A18:C20 A23:C24 A25:B26 G26 F23:G25 F1:G8 F10:G10 F18:G21 F13:G16 E13:E15 A21:E21 A1:E10 D25:E25 A27:G29 A31:G33 A35:G35 A34:D34 F34:G34 A38:G38 F36:G37 A36:D37 A39:D39 F39:G39 A41:G41 A43:G46 A42:D42 F42:G42 A49:G1048576 G47 A47:D48 F48:G48 A40:B40 D40:G40">
-    <cfRule type="expression" dxfId="69" priority="39">
+    <cfRule type="expression" dxfId="63" priority="39">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="68" priority="38">
+    <cfRule type="expression" dxfId="62" priority="38">
       <formula>MOD(ROW($A1)+1,2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5712,7 +5709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="67" priority="36">
+    <cfRule type="expression" dxfId="61" priority="36">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5722,7 +5719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="66" priority="34">
+    <cfRule type="expression" dxfId="60" priority="34">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5732,7 +5729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="65" priority="32">
+    <cfRule type="expression" dxfId="59" priority="32">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5742,7 +5739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="64" priority="30">
+    <cfRule type="expression" dxfId="58" priority="30">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5752,7 +5749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="63" priority="28">
+    <cfRule type="expression" dxfId="57" priority="28">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5762,7 +5759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:G17">
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5772,7 +5769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="61" priority="24">
+    <cfRule type="expression" dxfId="55" priority="24">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5782,7 +5779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5792,7 +5789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="59" priority="20">
+    <cfRule type="expression" dxfId="53" priority="20">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5802,7 +5799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5812,7 +5809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 A22:E22">
-    <cfRule type="expression" dxfId="57" priority="16">
+    <cfRule type="expression" dxfId="51" priority="16">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5822,7 +5819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="56" priority="14">
+    <cfRule type="expression" dxfId="50" priority="14">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5832,7 +5829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5847,7 +5844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5857,7 +5854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5867,7 +5864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5877,7 +5874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5887,7 +5884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>MOD(ROW($A47),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5903,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6414,13 +6411,13 @@
         <v>42019</v>
       </c>
       <c r="E27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>261</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>260</v>
@@ -6560,10 +6557,10 @@
         <v>335</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6571,16 +6568,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D35" s="4">
         <v>42019</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6588,19 +6585,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6608,16 +6605,16 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D37" s="4">
         <v>42019</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6625,19 +6622,19 @@
         <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D38" s="4">
         <v>42019</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -6648,7 +6645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F4 A7:F7 C5:F5 C8:F8 A10:C10 G1:G5 G7:G8 E10:G10 A39:G1048576 C22:D22 F22:G22 C23:G23 C24:D25 F24:G25 C26:G26 C27:D27 G27 C28 F28:G29 C29:D29 C30:G38">
-    <cfRule type="expression" dxfId="49" priority="95">
+    <cfRule type="expression" dxfId="43" priority="95">
       <formula>MOD(ROW($A1),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6673,7 +6670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" dxfId="48" priority="91">
+    <cfRule type="expression" dxfId="42" priority="91">
       <formula>MOD(ROW($A5),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6683,7 +6680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="47" priority="89">
+    <cfRule type="expression" dxfId="41" priority="89">
       <formula>MOD(ROW($A6),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6693,7 +6690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="expression" dxfId="46" priority="87">
+    <cfRule type="expression" dxfId="40" priority="87">
       <formula>MOD(ROW($A8),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6703,7 +6700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="45" priority="85">
+    <cfRule type="expression" dxfId="39" priority="85">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6713,7 +6710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="44" priority="83">
+    <cfRule type="expression" dxfId="38" priority="83">
       <formula>MOD(ROW($A9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6723,7 +6720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="43" priority="79">
+    <cfRule type="expression" dxfId="37" priority="79">
       <formula>MOD(ROW($A10),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6733,7 +6730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:G11 C12">
-    <cfRule type="expression" dxfId="42" priority="77">
+    <cfRule type="expression" dxfId="36" priority="77">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6743,7 +6740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="41" priority="75">
+    <cfRule type="expression" dxfId="35" priority="75">
       <formula>MOD(ROW($A11),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6753,7 +6750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 E12:G12">
-    <cfRule type="expression" dxfId="40" priority="73">
+    <cfRule type="expression" dxfId="34" priority="73">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6763,7 +6760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="39" priority="71">
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>MOD(ROW($A12),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6773,7 +6770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:G13">
-    <cfRule type="expression" dxfId="38" priority="69">
+    <cfRule type="expression" dxfId="32" priority="69">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6783,7 +6780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="37" priority="67">
+    <cfRule type="expression" dxfId="31" priority="67">
       <formula>MOD(ROW($A13),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6793,7 +6790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 E14:G14">
-    <cfRule type="expression" dxfId="36" priority="65">
+    <cfRule type="expression" dxfId="30" priority="65">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6803,7 +6800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="35" priority="63">
+    <cfRule type="expression" dxfId="29" priority="63">
       <formula>MOD(ROW($A14),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6813,7 +6810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15:G15">
-    <cfRule type="expression" dxfId="34" priority="61">
+    <cfRule type="expression" dxfId="28" priority="61">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6823,7 +6820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" dxfId="27" priority="59">
       <formula>MOD(ROW($A15),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6833,7 +6830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:G16">
-    <cfRule type="expression" dxfId="32" priority="57">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6843,7 +6840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="31" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>MOD(ROW($A16),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6853,7 +6850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>MOD(ROW($A17),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6863,7 +6860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:D18 G18">
-    <cfRule type="expression" dxfId="29" priority="49">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,7 +6870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="28" priority="47">
+    <cfRule type="expression" dxfId="22" priority="47">
       <formula>MOD(ROW($A18),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6883,7 +6880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>MOD(ROW($A19),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6893,7 +6890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:G20">
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="20" priority="43">
       <formula>MOD(ROW($A20),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6903,7 +6900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21">
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>MOD(ROW($A21),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6913,7 +6910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>MOD(ROW($A22),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6923,7 +6920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>MOD(ROW($A23),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6933,7 +6930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B24">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>MOD(ROW($A24),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6943,7 +6940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>MOD(ROW($A25),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6953,7 +6950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>MOD(ROW($A26),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6963,7 +6960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +6970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>MOD(ROW($A27),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6983,7 +6980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6993,7 +6990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW($A28),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7003,7 +7000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>MOD(ROW($A29),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7013,7 +7010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>MOD(ROW($A30),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7023,7 +7020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>MOD(ROW($A31),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7033,7 +7030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW($A32),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7043,7 +7040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>MOD(ROW($A33),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7053,7 +7050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW($A34),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7063,7 +7060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW($A35),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7073,7 +7070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW($A36),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7083,7 +7080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW($A37),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7093,7 +7090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW($A38),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="455">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,272 +268,268 @@
     <t>https://secure.rackham.umich.edu/academic_information/program_details/chemistry/</t>
   </si>
   <si>
+    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
+  </si>
+  <si>
+    <t>这是一个一年的master项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0，三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA 加州洛杉矶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是chemical biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological chemistry (program in biomedical sciences)PIBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pennsylvania 宾夕法尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
+  </si>
+  <si>
+    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
+  </si>
+  <si>
+    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University 德州农工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
+  </si>
+  <si>
+    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC San Diego  加州大学圣地亚哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
+  </si>
+  <si>
+    <t>三封推荐信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
+  </si>
+  <si>
+    <t>这是一个joint program联合培养。详细的我正在邮件问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug 1（已过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/departments/chemistry-biochemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johns Hopkins 约翰霍普金斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.jhu.edu/Graduate/prospective.html</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/phd-requirements/</t>
+  </si>
+  <si>
+    <t>http://engineering.jhu.edu/chembe/graduate-studies/graduate-admissions/</t>
+  </si>
+  <si>
+    <t>官网最下面点开frequently asked questions：托福100，gpa和gre不公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minnesota Twin Cities 明尼苏达双城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：159(v),167(q),4.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cems.umn.edu/graduate/admissions#req</t>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1016000.shtml#gre   化工专业往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apps.grad.umn.edu/stats/ad/1013500.shtml#gre   生化往年GRE分布，非常详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),159(q),4.1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pennsylvania State University - University Park 宾州州立大学，大学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信，上一届平均gpa 3.7，GRE 78%(v),83%(q),65%(writing),GRE chemistry sub 740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。网站说的很清楚。邮件中透露的：首先是每年只收8名国际学生，竞争非常激烈，几乎必须有至少一篇论文刊登过，往届托福100，GRE总分&gt;75%，gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。邮件中说：他们很看重北大毕业的学生，托福口语必须23，gpa 3.5左右就行，以及不错的GRE分数（sub也要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
+  </si>
+  <si>
+    <t>GRE sub必须，托福至少100.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chemistry.ucla.edu/how-apply#international</t>
+  </si>
+  <si>
+    <t>askgrad@chem.psu.edu</t>
+  </si>
+  <si>
+    <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>http://www.che.psu.edu/grad/prospective/apply/index.htm?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
+  </si>
+  <si>
+    <t>ChemEng@psu.edu</t>
+  </si>
+  <si>
+    <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue University, West Lafayette 普渡 - 西拉法叶（即主校区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/chem.html</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.不要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/che.html</t>
+  </si>
+  <si>
+    <t>chegrad@ecn.purdue.edu</t>
+  </si>
+  <si>
+    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.要求GRE，gpa 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSF University of California, San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校性要求：gpa 3.0，一个人只能申请一个项目，托福80.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>julia.molla@ucsf.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://graduate.ucsf.edu/program-administrators  几乎什么信息都没有，似乎他们这儿都没有化学系。。正在邮件询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福92，口语26。GRE sub不需要。往届平均gpa 3.7，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradprogram@chem.washington.edu</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=202</t>
+  </si>
+  <si>
+    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=201</t>
+  </si>
+  <si>
+    <t>grad.admissions@cheme.washington.edu</t>
+  </si>
+  <si>
     <t>gpa 3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
-  </si>
-  <si>
-    <t>这是一个一年的master项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpa 3.0，三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>似乎如果只学过化学而对生物了解不深不推荐报，详见网页说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLA 加州洛杉矶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0153&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>托福要求（全校性）写作25，口语24，阅读21，听力17。三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/gasaa/deptinfo/deptinfo.asp?code=0294&amp;academicyear=20162017</t>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是chemical biology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biological chemistry (program in biomedical sciences)PIBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Pennsylvania 宾夕法尼亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.upenn.edu/content/graduate-admissions</t>
-  </si>
-  <si>
-    <t>http://www.cbe.seas.upenn.edu/prospective-students/doctoral/index.php</t>
-  </si>
-  <si>
-    <t>成绩要求，gpa至少B，任意一门化学专业课成绩是C的话都不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University 德州农工大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/   这里没有什么信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://engineering.tamu.edu/chemical/academics/advising/graduate/admissions</t>
-  </si>
-  <si>
-    <t>GPA要求3.3，往届3.65，往届GRE 164(q),153(v).托福要求80.网页上很详细，提到了同时看重科研经历，可能是如果科研经历很丰富成绩可以稍微放松。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC San Diego  加州大学圣地亚哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemical-engineering</t>
-  </si>
-  <si>
-    <t>三封推荐信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemistry-joint-doctoral-program</t>
-  </si>
-  <si>
-    <t>这是一个joint program联合培养。详细的我正在邮件问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug 1（已过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/departments/chemistry-biochemistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johns Hopkins 约翰霍普金斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chemistry.jhu.edu/Graduate/prospective.html</t>
-  </si>
-  <si>
-    <t>http://engineering.jhu.edu/chembe/graduate-studies/phd-requirements/</t>
-  </si>
-  <si>
-    <t>http://engineering.jhu.edu/chembe/graduate-studies/graduate-admissions/</t>
-  </si>
-  <si>
-    <t>官网最下面点开frequently asked questions：托福100，gpa和gre不公布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minnesota Twin Cities 明尼苏达双城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.umn.edu/grad/ProspecAdm.html</t>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1016800.shtml#gre   化学专业往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：159(v),167(q),4.2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cems.umn.edu/graduate/admissions#req</t>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1016000.shtml#gre   化工专业往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apps.grad.umn.edu/stats/ad/1013500.shtml#gre   生化往年GRE分布，非常详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),159(q),4.1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个似乎是属于生物学院的，具体偏向于生物还是化学我也不清楚……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pennsylvania State University - University Park 宾州州立大学，大学园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信，上一届平均gpa 3.7，GRE 78%(v),83%(q),65%(writing),GRE chemistry sub 740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。网站说的很清楚。邮件中透露的：首先是每年只收8名国际学生，竞争非常激烈，几乎必须有至少一篇论文刊登过，往届托福100，GRE总分&gt;75%，gpa 3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三封推荐信。recruitor邮件：无硬性gpa或GRE要求，2015届的GRE 166(q)+160(v)，每年平均1-3名中国学生，托福至少100，往届gpa 3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校要求gpa 3.0，GRE往年分布都有很详细的分数段（见网页），去年的平均分：158(v),164(q),3.9。邮件中说：他们很看重北大毕业的学生，托福口语必须23，gpa 3.5左右就行，以及不错的GRE分数（sub也要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chem.tamu.edu/academics/graduate/admissions/faq.php</t>
-  </si>
-  <si>
-    <t>GRE sub必须，托福至少100.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.chemistry.ucla.edu/how-apply#international</t>
-  </si>
-  <si>
-    <t>askgrad@chem.psu.edu</t>
-  </si>
-  <si>
-    <t>http://chem.psu.edu/grad/online-application?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
-  </si>
-  <si>
-    <t>http://www.che.psu.edu/grad/prospective/apply/index.htm?CFID=16797340&amp;CFTOKEN=57669990&amp;jsessionid=843022b9fedea6988e325a36115c57145335</t>
-  </si>
-  <si>
-    <t>ChemEng@psu.edu</t>
-  </si>
-  <si>
-    <t>gpa必须3.5，往届平均3.7，本科班级前10%，GRE 153(v),165(q),3.5.托福总分大于80，口语19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purdue University, West Lafayette 普渡 - 西拉法叶（即主校区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/chem.html</t>
-  </si>
-  <si>
-    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.不要求GRE，gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/che.html</t>
-  </si>
-  <si>
-    <t>chegrad@ecn.purdue.edu</t>
-  </si>
-  <si>
-    <t>三封推荐信。托福77，阅读19，听力14，口语18，写作18.要求GRE，gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCSF University of California, San Francisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校性要求：gpa 3.0，一个人只能申请一个项目，托福80.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>julia.molla@ucsf.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://graduate.ucsf.edu/program-administrators  几乎什么信息都没有，似乎他们这儿都没有化学系。。正在邮件询问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Washington</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福92，口语26。GRE sub不需要。往届平均gpa 3.7，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gradprogram@chem.washington.edu</t>
-  </si>
-  <si>
-    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=202</t>
-  </si>
-  <si>
-    <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=201</t>
-  </si>
-  <si>
-    <t>grad.admissions@cheme.washington.edu</t>
-  </si>
-  <si>
-    <t>gpa 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福写作20，听力15，阅读20，口语22，往届平均gpa 3.3，平均GRE 310</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1609,10 +1605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>melissa_vera@urmc.rochester.edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.ees.rochester.edu/graduate/apply.html</t>
   </si>
   <si>
@@ -1697,6 +1689,26 @@
   </si>
   <si>
     <t>初审通过了会在三月左右通过Skype有个interview，最后再决定是否最终录取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melissa_vera@urmc.rochester.edu         往年的录取者信息统计：  https://www.urmc.rochester.edu/education/graduate/home/statistics-and-facts.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年录取者平均gpa 3.51,托福平均101，GRE平均v 68%, q 65%, a 54%，附件很详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向必须从以下选择：Industrial Hygiene，Ergonomics，Epidemiology，报名的时候就要指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lsa.umich.edu/chem/graduate/applicationrecruitmentweekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpa 3.0,去年平均：gpa 3.8，去年平均GRE v,q都是86% - 88%，去年录取者托福口语平均22 - 24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3002,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3040,7 +3052,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3068,19 +3080,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E3" s="4">
         <v>42353</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3088,23 +3100,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3112,25 +3124,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3138,19 +3150,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E6" s="4">
         <v>42353</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
@@ -3158,25 +3170,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="4">
         <v>42036</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3184,22 +3196,22 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E8" s="4">
         <v>42019</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3207,22 +3219,22 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3230,22 +3242,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -3253,22 +3265,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3276,22 +3288,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3299,19 +3311,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3319,22 +3331,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3342,25 +3354,25 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3368,22 +3380,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3391,33 +3403,36 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3425,25 +3440,25 @@
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E19" s="4">
         <v>42019</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3451,16 +3466,16 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E20" s="4">
         <v>42019</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3468,19 +3483,19 @@
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E21" s="4">
         <v>42019</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3488,16 +3503,16 @@
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3774,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3786,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3797,7 +3812,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
@@ -3815,16 +3830,16 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -3835,19 +3850,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3858,16 +3873,16 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3878,13 +3893,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3892,16 +3907,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
@@ -3909,19 +3924,19 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -3929,22 +3944,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3952,19 +3967,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3972,19 +3987,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -3992,17 +4007,17 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4010,19 +4025,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -4031,19 +4046,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="4">
         <v>42339</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -4052,10 +4067,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" t="s">
         <v>285</v>
-      </c>
-      <c r="E15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4063,22 +4078,22 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4086,13 +4101,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4100,16 +4115,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4117,19 +4132,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4137,19 +4152,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4157,19 +4172,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4177,16 +4192,16 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" s="4">
         <v>42036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4194,39 +4209,42 @@
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D23" s="4">
         <v>42339</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>428</v>
+        <v>450</v>
+      </c>
+      <c r="F24" t="s">
+        <v>451</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4234,19 +4252,19 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" t="s">
         <v>436</v>
-      </c>
-      <c r="C25" t="s">
-        <v>438</v>
       </c>
       <c r="D25" s="4">
         <v>42005</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4625,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4653,13 +4671,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4752,7 +4770,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4788,7 +4806,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4824,7 +4842,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4841,7 +4859,7 @@
         <v>42353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
@@ -4897,7 +4915,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4935,13 +4953,13 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4954,9 +4972,11 @@
       <c r="D17" s="4">
         <v>42353</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4964,19 +4984,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="4">
         <v>42339</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4984,17 +5004,17 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D19" s="4">
         <v>42353</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5002,19 +5022,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D20" s="4">
         <v>42353</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5022,16 +5042,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5039,22 +5059,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
         <v>42019</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -5062,10 +5082,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D23" s="4">
         <v>42019</v>
@@ -5077,19 +5097,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="4">
         <v>42009</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5097,19 +5117,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4">
         <v>42349</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5117,17 +5137,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D26" s="4">
         <v>42005</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5135,19 +5155,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5155,19 +5175,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5175,22 +5195,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="4">
         <v>42019</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5198,19 +5218,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="4">
         <v>42353</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5218,19 +5238,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="4">
         <v>42353</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5238,22 +5258,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5261,19 +5281,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D33" s="4">
         <v>42339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5281,19 +5301,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D34" s="4">
         <v>42339</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5301,13 +5321,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5315,16 +5335,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D36" s="4">
         <v>42358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5332,19 +5352,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5352,22 +5372,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5375,19 +5395,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4">
         <v>42353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5395,19 +5415,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5415,16 +5435,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5432,19 +5452,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5452,22 +5472,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -5475,19 +5495,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5495,16 +5515,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5512,19 +5532,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5532,19 +5552,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -5552,19 +5572,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5572,19 +5592,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5592,19 +5612,19 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D50" s="4">
         <v>42019</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5612,16 +5632,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -5629,19 +5649,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D52" s="4">
         <v>42005</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5649,19 +5669,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D53" s="4">
         <v>42019</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5669,16 +5689,16 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D54" s="4">
         <v>42005</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5901,7 +5921,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5935,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5989,7 +6009,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6079,13 +6099,13 @@
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4">
         <v>42353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6093,16 +6113,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4">
         <v>42384</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6110,14 +6130,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -6125,16 +6145,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4">
         <v>42353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6142,16 +6162,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="4">
         <v>42353</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6159,19 +6179,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4">
         <v>42009</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6179,19 +6199,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4">
         <v>42005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6199,19 +6219,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4">
         <v>42012</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6219,19 +6239,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="4">
         <v>42353</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
@@ -6239,19 +6259,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="4">
         <v>42005</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6259,22 +6279,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
         <v>42036</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -6282,19 +6302,19 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="4">
         <v>42338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6302,19 +6322,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" t="s">
-        <v>177</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6322,19 +6342,19 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4">
         <v>42353</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6342,16 +6362,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6359,22 +6379,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="4">
         <v>42014</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6382,19 +6402,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6402,19 +6422,19 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
       <c r="E27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -6422,22 +6442,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6445,19 +6465,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" s="4">
         <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6465,16 +6485,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -6482,22 +6502,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6505,22 +6525,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6528,16 +6548,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6545,22 +6565,22 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6568,16 +6588,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D35" s="4">
         <v>42019</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6585,19 +6605,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6605,16 +6625,16 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D37" s="4">
         <v>42019</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6622,19 +6642,19 @@
         <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D38" s="4">
         <v>42019</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/申请截止日期与要求等.xlsx
+++ b/申请截止日期与要求等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他专业" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="459">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +271,6 @@
     <t>https://secure.rackham.umich.edu/academic_information/program_details/chemical_engineering/</t>
   </si>
   <si>
-    <t>这是一个一年的master项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gpa 3.0，三封推荐信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,14 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是chemical biology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biological chemistry (program in biomedical sciences)PIBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,10 +1012,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/bchm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.grad.washington.edu/GradPrograms/grad_program.aspx?progid=13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1247,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托福89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.grad-college.iastate.edu/academics/programs/apresults.php?id=27</t>
   </si>
   <si>
@@ -1709,6 +1689,41 @@
   </si>
   <si>
     <t>gpa 3.0,去年平均：gpa 3.8，去年平均GRE v,q都是86% - 88%，去年录取者托福口语平均22 - 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ag.purdue.edu/biochem/Pages/GradHomePage.aspx</t>
+  </si>
+  <si>
+    <t>邮件：申请竞争比较激烈，录取者平均gpa 3.8，一般都大于等于3.5，GRE q&gt;90%,v&gt;85%,writing &gt; 75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是chemical biology。邮件中说似乎不收国际学生，如果感兴趣还应仔细查证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological chemistry (program in biomedical sciences)PIBS   邮件中说似乎不收国际学生，如果感兴趣还应仔细查证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个一年的master项目   邮件中说似乎不收国际学生，如果感兴趣还应仔细查证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iowa State University  爱荷华州立大学   ISU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福89。邮件：V=150+, Q=160+, AW=4.0+这样的GRE他们比较接受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供平均GRE和GPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec 15 (最晚到1月15，12月15是优先的)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3014,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3052,7 +3067,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3080,19 +3095,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E3" s="4">
         <v>42353</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3100,23 +3115,23 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3124,25 +3139,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3150,19 +3165,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="4">
         <v>42353</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
@@ -3170,25 +3185,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="4">
         <v>42036</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3196,22 +3211,22 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E8" s="4">
         <v>42019</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3219,45 +3234,48 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E9" s="4">
         <v>42353</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E10" s="4">
         <v>42352</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108" x14ac:dyDescent="0.15">
@@ -3265,22 +3283,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E11" s="4">
         <v>42353</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3288,22 +3306,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E12" s="4">
         <v>42353</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3311,19 +3329,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E13" s="4">
         <v>42019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3331,22 +3349,22 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E14" s="4">
         <v>42035</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -3354,25 +3372,25 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E15" s="4">
         <v>42019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3380,22 +3398,22 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E16" s="4">
         <v>42346</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -3403,19 +3421,19 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E17" s="4">
         <v>42019</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -3423,16 +3441,16 @@
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3440,25 +3458,25 @@
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E19" s="4">
         <v>42019</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3466,16 +3484,16 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E20" s="4">
         <v>42019</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3483,19 +3501,19 @@
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
         <v>42019</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3503,16 +3521,16 @@
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3767,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3789,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3801,7 +3819,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3812,7 +3830,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D2" s="4">
         <v>42339</v>
@@ -3830,19 +3848,19 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4">
         <v>42339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -3850,22 +3868,22 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4">
         <v>42353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -3873,19 +3891,19 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D5" s="4">
         <v>42339</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -3893,13 +3911,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4">
         <v>42115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3907,16 +3925,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
@@ -3924,19 +3942,19 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D8" s="4">
         <v>42019</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -3944,22 +3962,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D9" s="4">
         <v>42339</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3967,19 +3985,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="D10" s="4">
         <v>42339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3987,19 +4005,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D11" s="4">
         <v>42339</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4007,17 +4025,17 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4025,19 +4043,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D13" s="4">
         <v>42339</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -4046,19 +4064,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D14" s="4">
         <v>42339</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -4067,10 +4085,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -4078,22 +4096,22 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D16" s="4">
         <v>42339</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4101,13 +4119,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4115,16 +4133,16 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D18" s="4">
         <v>42005</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4132,19 +4150,19 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D19" s="4">
         <v>42019</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4152,19 +4170,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D20" s="4">
         <v>42339</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4172,19 +4190,19 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D21" s="4">
         <v>42353</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4192,16 +4210,16 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D22" s="4">
         <v>42036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -4209,19 +4227,19 @@
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D23" s="4">
         <v>42339</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4229,22 +4247,22 @@
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -4252,19 +4270,19 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D25" s="4">
         <v>42005</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4643,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4671,13 +4689,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4770,7 +4788,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4806,7 +4824,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4842,7 +4860,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -4859,7 +4877,7 @@
         <v>42353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
@@ -4915,7 +4933,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4953,10 +4971,10 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4973,10 +4991,10 @@
         <v>42353</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4984,19 +5002,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="4">
         <v>42339</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5004,17 +5022,17 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4">
         <v>42353</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5022,19 +5040,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="4">
         <v>42353</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5042,16 +5060,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5059,22 +5077,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>42019</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -5082,10 +5100,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" s="4">
         <v>42019</v>
@@ -5097,19 +5115,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="4">
         <v>42009</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5117,19 +5135,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4">
         <v>42349</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5137,17 +5155,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D26" s="4">
         <v>42005</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5155,19 +5173,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5175,19 +5193,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5195,22 +5213,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D29" s="4">
         <v>42019</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5218,19 +5236,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D30" s="4">
         <v>42353</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5238,19 +5256,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4">
         <v>42353</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5258,22 +5276,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5281,19 +5299,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D33" s="4">
         <v>42339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5301,19 +5319,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D34" s="4">
         <v>42339</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5321,13 +5339,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5335,16 +5353,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D36" s="4">
         <v>42358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5352,19 +5370,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>42353</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -5372,22 +5390,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D38" s="4">
         <v>42008</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -5395,19 +5413,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D39" s="4">
         <v>42353</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5415,19 +5433,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D40" s="4">
         <v>42353</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -5435,16 +5453,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D41" s="4">
         <v>42339</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -5452,19 +5470,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="162" x14ac:dyDescent="0.15">
@@ -5472,22 +5490,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D43" s="4">
         <v>42007</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -5495,19 +5513,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D44" s="4">
         <v>42339</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -5515,36 +5533,36 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D45" s="4">
         <v>42005</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D46" s="4">
         <v>42019</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -5552,19 +5570,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D47" s="4">
         <v>42339</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -5572,19 +5590,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D48" s="4">
         <v>42019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5592,19 +5610,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D49" s="4">
         <v>42006</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5612,19 +5630,19 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D50" s="4">
         <v>42019</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -5632,16 +5650,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -5649,19 +5667,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D52" s="4">
         <v>42005</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5669,19 +5687,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D53" s="4">
         <v>42019</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -5689,16 +5707,16 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D54" s="4">
         <v>42005</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5920,8 +5938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5955,7 +5973,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6009,7 +6027,7 @@
         <v>42369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6105,7 +6123,7 @@
         <v>42353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6113,16 +6131,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4">
         <v>42384</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6130,14 +6148,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -6145,16 +6163,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4">
         <v>42353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6162,16 +6180,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4">
         <v>42353</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6179,19 +6197,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D15" s="4">
         <v>42009</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6199,19 +6217,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4">
         <v>42005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6219,19 +6237,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" s="4">
         <v>42012</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6239,19 +6257,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D18" s="4">
         <v>42353</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
@@ -6259,19 +6277,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4">
         <v>42005</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6279,22 +6297,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" s="4">
         <v>42036</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -6302,19 +6320,19 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D21" s="4">
         <v>42338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6322,19 +6340,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6342,19 +6360,19 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D23" s="4">
         <v>42353</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6362,16 +6380,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" t="s">
-        <v>217</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6379,22 +6397,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D25" s="4">
         <v>42014</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6402,19 +6420,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D26" s="4">
         <v>42358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
@@ -6422,19 +6440,19 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4">
         <v>42019</v>
       </c>
       <c r="E27" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -6442,22 +6460,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="4">
         <v>42353</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6465,19 +6483,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D29" s="4">
         <v>42036</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6485,16 +6503,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D30" s="4">
         <v>42019</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -6502,22 +6520,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D31" s="4">
         <v>42064</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6525,22 +6543,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D32" s="4">
         <v>42353</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6548,16 +6566,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D33" s="4">
         <v>42035</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -6565,22 +6583,22 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D34" s="4">
         <v>42005</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6588,16 +6606,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D35" s="4">
         <v>42019</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -6605,19 +6623,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -6625,16 +6643,19 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D37" s="4">
-        <v>42019</v>
+        <v>400</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
@@ -6642,19 +6663,19 @@
         <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D38" s="4">
         <v>42019</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
